--- a/static/files/orders/sample_orders_cross_borders.xlsx
+++ b/static/files/orders/sample_orders_cross_borders.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>order code*</t>
   </si>
@@ -66,7 +66,7 @@
     <t>COD Currency</t>
   </si>
   <si>
-    <t>shipment ncoterm*</t>
+    <t>shipment incoterm*</t>
   </si>
   <si>
     <t>sender contact name</t>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>LM L-Control Bypass</t>
   </si>
   <si>
     <t>can be filled according to client's prefix preferences, free text</t>
@@ -145,6 +148,9 @@
   </si>
   <si>
     <t>check the box if yes, otherwise uncheck it</t>
+  </si>
+  <si>
+    <t>3 letter partner code</t>
   </si>
   <si>
     <t>Luw20211101-401</t>
@@ -206,6 +212,9 @@
     <t>Sudirman, Jakarta</t>
   </si>
   <si>
+    <t>JNE</t>
+  </si>
+  <si>
     <t>Luw20211101-402</t>
   </si>
   <si>
@@ -226,7 +235,7 @@
     </r>
   </si>
   <si>
-    <t>399 RIVER VALLEY ROAD</t>
+    <t xml:space="preserve">399 RIVER VALLEY ROAD, </t>
   </si>
   <si>
     <t>cod</t>
@@ -402,7 +411,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,19 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -438,26 +441,26 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -466,7 +469,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -474,50 +477,50 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +528,10 @@
       <left/>
       <right/>
       <top style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,27 +540,27 @@
       <right/>
       <top/>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom/>
@@ -565,85 +568,85 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="hair">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,127 +663,127 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -803,7 +806,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ffd9ead3"/>
       <rgbColor rgb="ffaaaaaa"/>
@@ -1006,12 +1008,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1295,12 +1297,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1872,7 +1874,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD996"/>
+  <dimension ref="A1:AE996"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1902,11 +1904,11 @@
     <col min="27" max="27" width="22.8516" style="1" customWidth="1"/>
     <col min="28" max="28" width="24.1719" style="1" customWidth="1"/>
     <col min="29" max="29" width="17.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.3516" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="30" max="31" width="10.3516" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.7" customHeight="1">
+    <row r="1" ht="39" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1994,94 +1996,100 @@
       <c r="AC1" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="6">
+      <c r="AD1" t="s" s="5">
         <v>29</v>
       </c>
+      <c r="AE1" t="s" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="F2" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="E2" t="s" s="8">
-        <v>31</v>
+      <c r="U2" t="s" s="11">
+        <v>36</v>
       </c>
-      <c r="F2" t="s" s="11">
-        <v>34</v>
+      <c r="V2" t="s" s="14">
+        <v>32</v>
       </c>
-      <c r="G2" t="s" s="11">
+      <c r="W2" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="H2" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s" s="11">
+      <c r="Y2" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="U2" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s" s="14">
-        <v>31</v>
-      </c>
       <c r="Z2" t="s" s="15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
-      <c r="AD2" t="s" s="17">
-        <v>37</v>
+      <c r="AD2" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s" s="17">
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
@@ -2115,34 +2123,35 @@
       <c r="AB3" s="21"/>
       <c r="AC3" s="21"/>
       <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" t="s" s="27">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s" s="28">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="29">
-        <v>10000</v>
+        <v>5753</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="29">
@@ -2158,37 +2167,37 @@
         <v>30</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P4" s="29">
         <v>100</v>
       </c>
       <c r="Q4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X4" s="29">
-        <v>12000</v>
+        <v>11470</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="b" s="29">
         <v>0</v>
@@ -2203,34 +2212,37 @@
         <v>1</v>
       </c>
       <c r="AD4" s="30"/>
+      <c r="AE4" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" t="s" s="31">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s" s="28">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F5" s="29">
-        <v>10000</v>
+        <v>5754</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="29">
@@ -2246,40 +2258,40 @@
         <v>30</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" s="29">
         <v>77</v>
       </c>
       <c r="Q5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X5" s="29">
-        <v>10000</v>
+        <v>11470</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="b" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="b" s="29">
         <v>0</v>
@@ -2288,9 +2300,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="b" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="30"/>
@@ -2323,6 +2336,7 @@
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="30"/>
@@ -2355,6 +2369,7 @@
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="30"/>
@@ -2387,6 +2402,7 @@
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="30"/>
@@ -2419,6 +2435,7 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="30"/>
@@ -2451,6 +2468,7 @@
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="30"/>
@@ -2483,6 +2501,7 @@
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="30"/>
@@ -2515,6 +2534,7 @@
       <c r="AB12" s="30"/>
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="30"/>
@@ -2547,6 +2567,7 @@
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="30"/>
@@ -2579,6 +2600,7 @@
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="30"/>
@@ -2611,6 +2633,7 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="30"/>
@@ -2643,6 +2666,7 @@
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="30"/>
@@ -2675,6 +2699,7 @@
       <c r="AB17" s="30"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="30"/>
@@ -2707,6 +2732,7 @@
       <c r="AB18" s="30"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="30"/>
@@ -2739,6 +2765,7 @@
       <c r="AB19" s="30"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="30"/>
@@ -2771,6 +2798,7 @@
       <c r="AB20" s="30"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="30"/>
@@ -2803,6 +2831,7 @@
       <c r="AB21" s="30"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="30"/>
@@ -2835,6 +2864,7 @@
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="30"/>
@@ -2867,6 +2897,7 @@
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="30"/>
@@ -2899,6 +2930,7 @@
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="30"/>
@@ -2931,6 +2963,7 @@
       <c r="AB25" s="30"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="30"/>
@@ -2963,6 +2996,7 @@
       <c r="AB26" s="30"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="30"/>
@@ -2995,6 +3029,7 @@
       <c r="AB27" s="30"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="30"/>
@@ -3027,6 +3062,7 @@
       <c r="AB28" s="30"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="30"/>
@@ -3059,6 +3095,7 @@
       <c r="AB29" s="30"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="30"/>
@@ -3091,6 +3128,7 @@
       <c r="AB30" s="30"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="30"/>
@@ -3123,6 +3161,7 @@
       <c r="AB31" s="30"/>
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="30"/>
@@ -3155,6 +3194,7 @@
       <c r="AB32" s="30"/>
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="30"/>
@@ -3187,6 +3227,7 @@
       <c r="AB33" s="30"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="30"/>
@@ -3219,6 +3260,7 @@
       <c r="AB34" s="30"/>
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="30"/>
@@ -3251,6 +3293,7 @@
       <c r="AB35" s="30"/>
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="30"/>
@@ -3283,6 +3326,7 @@
       <c r="AB36" s="30"/>
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="30"/>
@@ -3315,6 +3359,7 @@
       <c r="AB37" s="30"/>
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="30"/>
@@ -3347,6 +3392,7 @@
       <c r="AB38" s="30"/>
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="30"/>
@@ -3379,6 +3425,7 @@
       <c r="AB39" s="30"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="30"/>
@@ -3411,6 +3458,7 @@
       <c r="AB40" s="30"/>
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="30"/>
@@ -3443,6 +3491,7 @@
       <c r="AB41" s="30"/>
       <c r="AC41" s="30"/>
       <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="30"/>
@@ -3475,6 +3524,7 @@
       <c r="AB42" s="30"/>
       <c r="AC42" s="30"/>
       <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="30"/>
@@ -3507,6 +3557,7 @@
       <c r="AB43" s="30"/>
       <c r="AC43" s="30"/>
       <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="30"/>
@@ -3539,6 +3590,7 @@
       <c r="AB44" s="30"/>
       <c r="AC44" s="30"/>
       <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="30"/>
@@ -3571,6 +3623,7 @@
       <c r="AB45" s="30"/>
       <c r="AC45" s="30"/>
       <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="30"/>
@@ -3603,6 +3656,7 @@
       <c r="AB46" s="30"/>
       <c r="AC46" s="30"/>
       <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="30"/>
@@ -3635,6 +3689,7 @@
       <c r="AB47" s="30"/>
       <c r="AC47" s="30"/>
       <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="30"/>
@@ -3667,6 +3722,7 @@
       <c r="AB48" s="30"/>
       <c r="AC48" s="30"/>
       <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="30"/>
@@ -3699,6 +3755,7 @@
       <c r="AB49" s="30"/>
       <c r="AC49" s="30"/>
       <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="30"/>
@@ -3731,6 +3788,7 @@
       <c r="AB50" s="30"/>
       <c r="AC50" s="30"/>
       <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="30"/>
@@ -3763,6 +3821,7 @@
       <c r="AB51" s="30"/>
       <c r="AC51" s="30"/>
       <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="30"/>
@@ -3795,6 +3854,7 @@
       <c r="AB52" s="30"/>
       <c r="AC52" s="30"/>
       <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="30"/>
@@ -3827,6 +3887,7 @@
       <c r="AB53" s="30"/>
       <c r="AC53" s="30"/>
       <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="30"/>
@@ -3859,6 +3920,7 @@
       <c r="AB54" s="30"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="30"/>
@@ -3891,6 +3953,7 @@
       <c r="AB55" s="30"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="30"/>
@@ -3923,6 +3986,7 @@
       <c r="AB56" s="30"/>
       <c r="AC56" s="30"/>
       <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="30"/>
@@ -3955,6 +4019,7 @@
       <c r="AB57" s="30"/>
       <c r="AC57" s="30"/>
       <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="30"/>
@@ -3987,6 +4052,7 @@
       <c r="AB58" s="30"/>
       <c r="AC58" s="30"/>
       <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="30"/>
@@ -4019,6 +4085,7 @@
       <c r="AB59" s="30"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="30"/>
@@ -4051,6 +4118,7 @@
       <c r="AB60" s="30"/>
       <c r="AC60" s="30"/>
       <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="30"/>
@@ -4083,6 +4151,7 @@
       <c r="AB61" s="30"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
     </row>
     <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="30"/>
@@ -4115,6 +4184,7 @@
       <c r="AB62" s="30"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
     </row>
     <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="30"/>
@@ -4147,6 +4217,7 @@
       <c r="AB63" s="30"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="30"/>
+      <c r="AE63" s="30"/>
     </row>
     <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="30"/>
@@ -4179,6 +4250,7 @@
       <c r="AB64" s="30"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
+      <c r="AE64" s="30"/>
     </row>
     <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="30"/>
@@ -4211,6 +4283,7 @@
       <c r="AB65" s="30"/>
       <c r="AC65" s="30"/>
       <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
     </row>
     <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="30"/>
@@ -4243,6 +4316,7 @@
       <c r="AB66" s="30"/>
       <c r="AC66" s="30"/>
       <c r="AD66" s="30"/>
+      <c r="AE66" s="30"/>
     </row>
     <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="30"/>
@@ -4275,6 +4349,7 @@
       <c r="AB67" s="30"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="30"/>
+      <c r="AE67" s="30"/>
     </row>
     <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="30"/>
@@ -4307,6 +4382,7 @@
       <c r="AB68" s="30"/>
       <c r="AC68" s="30"/>
       <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
     </row>
     <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="30"/>
@@ -4339,6 +4415,7 @@
       <c r="AB69" s="30"/>
       <c r="AC69" s="30"/>
       <c r="AD69" s="30"/>
+      <c r="AE69" s="30"/>
     </row>
     <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="30"/>
@@ -4371,6 +4448,7 @@
       <c r="AB70" s="30"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="30"/>
+      <c r="AE70" s="30"/>
     </row>
     <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="30"/>
@@ -4403,6 +4481,7 @@
       <c r="AB71" s="30"/>
       <c r="AC71" s="30"/>
       <c r="AD71" s="30"/>
+      <c r="AE71" s="30"/>
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="30"/>
@@ -4435,6 +4514,7 @@
       <c r="AB72" s="30"/>
       <c r="AC72" s="30"/>
       <c r="AD72" s="30"/>
+      <c r="AE72" s="30"/>
     </row>
     <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="30"/>
@@ -4467,6 +4547,7 @@
       <c r="AB73" s="30"/>
       <c r="AC73" s="30"/>
       <c r="AD73" s="30"/>
+      <c r="AE73" s="30"/>
     </row>
     <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="30"/>
@@ -4499,6 +4580,7 @@
       <c r="AB74" s="30"/>
       <c r="AC74" s="30"/>
       <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
     </row>
     <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="30"/>
@@ -4531,6 +4613,7 @@
       <c r="AB75" s="30"/>
       <c r="AC75" s="30"/>
       <c r="AD75" s="30"/>
+      <c r="AE75" s="30"/>
     </row>
     <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="30"/>
@@ -4563,6 +4646,7 @@
       <c r="AB76" s="30"/>
       <c r="AC76" s="30"/>
       <c r="AD76" s="30"/>
+      <c r="AE76" s="30"/>
     </row>
     <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="30"/>
@@ -4595,6 +4679,7 @@
       <c r="AB77" s="30"/>
       <c r="AC77" s="30"/>
       <c r="AD77" s="30"/>
+      <c r="AE77" s="30"/>
     </row>
     <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="30"/>
@@ -4627,6 +4712,7 @@
       <c r="AB78" s="30"/>
       <c r="AC78" s="30"/>
       <c r="AD78" s="30"/>
+      <c r="AE78" s="30"/>
     </row>
     <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="30"/>
@@ -4659,6 +4745,7 @@
       <c r="AB79" s="30"/>
       <c r="AC79" s="30"/>
       <c r="AD79" s="30"/>
+      <c r="AE79" s="30"/>
     </row>
     <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="30"/>
@@ -4691,6 +4778,7 @@
       <c r="AB80" s="30"/>
       <c r="AC80" s="30"/>
       <c r="AD80" s="30"/>
+      <c r="AE80" s="30"/>
     </row>
     <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="30"/>
@@ -4723,6 +4811,7 @@
       <c r="AB81" s="30"/>
       <c r="AC81" s="30"/>
       <c r="AD81" s="30"/>
+      <c r="AE81" s="30"/>
     </row>
     <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="30"/>
@@ -4755,6 +4844,7 @@
       <c r="AB82" s="30"/>
       <c r="AC82" s="30"/>
       <c r="AD82" s="30"/>
+      <c r="AE82" s="30"/>
     </row>
     <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="30"/>
@@ -4787,6 +4877,7 @@
       <c r="AB83" s="30"/>
       <c r="AC83" s="30"/>
       <c r="AD83" s="30"/>
+      <c r="AE83" s="30"/>
     </row>
     <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="30"/>
@@ -4819,6 +4910,7 @@
       <c r="AB84" s="30"/>
       <c r="AC84" s="30"/>
       <c r="AD84" s="30"/>
+      <c r="AE84" s="30"/>
     </row>
     <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="30"/>
@@ -4851,6 +4943,7 @@
       <c r="AB85" s="30"/>
       <c r="AC85" s="30"/>
       <c r="AD85" s="30"/>
+      <c r="AE85" s="30"/>
     </row>
     <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="30"/>
@@ -4883,6 +4976,7 @@
       <c r="AB86" s="30"/>
       <c r="AC86" s="30"/>
       <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
     </row>
     <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="30"/>
@@ -4915,6 +5009,7 @@
       <c r="AB87" s="30"/>
       <c r="AC87" s="30"/>
       <c r="AD87" s="30"/>
+      <c r="AE87" s="30"/>
     </row>
     <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="30"/>
@@ -4947,6 +5042,7 @@
       <c r="AB88" s="30"/>
       <c r="AC88" s="30"/>
       <c r="AD88" s="30"/>
+      <c r="AE88" s="30"/>
     </row>
     <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="30"/>
@@ -4979,6 +5075,7 @@
       <c r="AB89" s="30"/>
       <c r="AC89" s="30"/>
       <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
     </row>
     <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="30"/>
@@ -5011,6 +5108,7 @@
       <c r="AB90" s="30"/>
       <c r="AC90" s="30"/>
       <c r="AD90" s="30"/>
+      <c r="AE90" s="30"/>
     </row>
     <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="30"/>
@@ -5043,6 +5141,7 @@
       <c r="AB91" s="30"/>
       <c r="AC91" s="30"/>
       <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
     </row>
     <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="30"/>
@@ -5075,6 +5174,7 @@
       <c r="AB92" s="30"/>
       <c r="AC92" s="30"/>
       <c r="AD92" s="30"/>
+      <c r="AE92" s="30"/>
     </row>
     <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="30"/>
@@ -5107,6 +5207,7 @@
       <c r="AB93" s="30"/>
       <c r="AC93" s="30"/>
       <c r="AD93" s="30"/>
+      <c r="AE93" s="30"/>
     </row>
     <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="30"/>
@@ -5139,6 +5240,7 @@
       <c r="AB94" s="30"/>
       <c r="AC94" s="30"/>
       <c r="AD94" s="30"/>
+      <c r="AE94" s="30"/>
     </row>
     <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="30"/>
@@ -5171,6 +5273,7 @@
       <c r="AB95" s="30"/>
       <c r="AC95" s="30"/>
       <c r="AD95" s="30"/>
+      <c r="AE95" s="30"/>
     </row>
     <row r="96" ht="19.5" customHeight="1">
       <c r="A96" s="30"/>
@@ -5203,6 +5306,7 @@
       <c r="AB96" s="30"/>
       <c r="AC96" s="30"/>
       <c r="AD96" s="30"/>
+      <c r="AE96" s="30"/>
     </row>
     <row r="97" ht="19.5" customHeight="1">
       <c r="A97" s="30"/>
@@ -5235,6 +5339,7 @@
       <c r="AB97" s="30"/>
       <c r="AC97" s="30"/>
       <c r="AD97" s="30"/>
+      <c r="AE97" s="30"/>
     </row>
     <row r="98" ht="19.5" customHeight="1">
       <c r="A98" s="30"/>
@@ -5267,6 +5372,7 @@
       <c r="AB98" s="30"/>
       <c r="AC98" s="30"/>
       <c r="AD98" s="30"/>
+      <c r="AE98" s="30"/>
     </row>
     <row r="99" ht="19.5" customHeight="1">
       <c r="A99" s="30"/>
@@ -5299,6 +5405,7 @@
       <c r="AB99" s="30"/>
       <c r="AC99" s="30"/>
       <c r="AD99" s="30"/>
+      <c r="AE99" s="30"/>
     </row>
     <row r="100" ht="19.5" customHeight="1">
       <c r="A100" s="30"/>
@@ -5331,6 +5438,7 @@
       <c r="AB100" s="30"/>
       <c r="AC100" s="30"/>
       <c r="AD100" s="30"/>
+      <c r="AE100" s="30"/>
     </row>
     <row r="101" ht="19.5" customHeight="1">
       <c r="A101" s="30"/>
@@ -5363,6 +5471,7 @@
       <c r="AB101" s="30"/>
       <c r="AC101" s="30"/>
       <c r="AD101" s="30"/>
+      <c r="AE101" s="30"/>
     </row>
     <row r="102" ht="19.5" customHeight="1">
       <c r="A102" s="30"/>
@@ -5395,6 +5504,7 @@
       <c r="AB102" s="30"/>
       <c r="AC102" s="30"/>
       <c r="AD102" s="30"/>
+      <c r="AE102" s="30"/>
     </row>
     <row r="103" ht="19.5" customHeight="1">
       <c r="A103" s="30"/>
@@ -5427,6 +5537,7 @@
       <c r="AB103" s="30"/>
       <c r="AC103" s="30"/>
       <c r="AD103" s="30"/>
+      <c r="AE103" s="30"/>
     </row>
     <row r="104" ht="19.5" customHeight="1">
       <c r="A104" s="30"/>
@@ -5459,6 +5570,7 @@
       <c r="AB104" s="30"/>
       <c r="AC104" s="30"/>
       <c r="AD104" s="30"/>
+      <c r="AE104" s="30"/>
     </row>
     <row r="105" ht="19.5" customHeight="1">
       <c r="A105" s="30"/>
@@ -5491,6 +5603,7 @@
       <c r="AB105" s="30"/>
       <c r="AC105" s="30"/>
       <c r="AD105" s="30"/>
+      <c r="AE105" s="30"/>
     </row>
     <row r="106" ht="19.5" customHeight="1">
       <c r="A106" s="30"/>
@@ -5523,6 +5636,7 @@
       <c r="AB106" s="30"/>
       <c r="AC106" s="30"/>
       <c r="AD106" s="30"/>
+      <c r="AE106" s="30"/>
     </row>
     <row r="107" ht="19.5" customHeight="1">
       <c r="A107" s="30"/>
@@ -5555,6 +5669,7 @@
       <c r="AB107" s="30"/>
       <c r="AC107" s="30"/>
       <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
     </row>
     <row r="108" ht="19.5" customHeight="1">
       <c r="A108" s="30"/>
@@ -5587,6 +5702,7 @@
       <c r="AB108" s="30"/>
       <c r="AC108" s="30"/>
       <c r="AD108" s="30"/>
+      <c r="AE108" s="30"/>
     </row>
     <row r="109" ht="19.5" customHeight="1">
       <c r="A109" s="30"/>
@@ -5619,6 +5735,7 @@
       <c r="AB109" s="30"/>
       <c r="AC109" s="30"/>
       <c r="AD109" s="30"/>
+      <c r="AE109" s="30"/>
     </row>
     <row r="110" ht="19.5" customHeight="1">
       <c r="A110" s="30"/>
@@ -5651,6 +5768,7 @@
       <c r="AB110" s="30"/>
       <c r="AC110" s="30"/>
       <c r="AD110" s="30"/>
+      <c r="AE110" s="30"/>
     </row>
     <row r="111" ht="19.5" customHeight="1">
       <c r="A111" s="30"/>
@@ -5683,6 +5801,7 @@
       <c r="AB111" s="30"/>
       <c r="AC111" s="30"/>
       <c r="AD111" s="30"/>
+      <c r="AE111" s="30"/>
     </row>
     <row r="112" ht="19.5" customHeight="1">
       <c r="A112" s="30"/>
@@ -5715,6 +5834,7 @@
       <c r="AB112" s="30"/>
       <c r="AC112" s="30"/>
       <c r="AD112" s="30"/>
+      <c r="AE112" s="30"/>
     </row>
     <row r="113" ht="19.5" customHeight="1">
       <c r="A113" s="30"/>
@@ -5747,6 +5867,7 @@
       <c r="AB113" s="30"/>
       <c r="AC113" s="30"/>
       <c r="AD113" s="30"/>
+      <c r="AE113" s="30"/>
     </row>
     <row r="114" ht="19.5" customHeight="1">
       <c r="A114" s="30"/>
@@ -5779,6 +5900,7 @@
       <c r="AB114" s="30"/>
       <c r="AC114" s="30"/>
       <c r="AD114" s="30"/>
+      <c r="AE114" s="30"/>
     </row>
     <row r="115" ht="19.5" customHeight="1">
       <c r="A115" s="30"/>
@@ -5811,6 +5933,7 @@
       <c r="AB115" s="30"/>
       <c r="AC115" s="30"/>
       <c r="AD115" s="30"/>
+      <c r="AE115" s="30"/>
     </row>
     <row r="116" ht="19.5" customHeight="1">
       <c r="A116" s="30"/>
@@ -5843,6 +5966,7 @@
       <c r="AB116" s="30"/>
       <c r="AC116" s="30"/>
       <c r="AD116" s="30"/>
+      <c r="AE116" s="30"/>
     </row>
     <row r="117" ht="19.5" customHeight="1">
       <c r="A117" s="30"/>
@@ -5875,6 +5999,7 @@
       <c r="AB117" s="30"/>
       <c r="AC117" s="30"/>
       <c r="AD117" s="30"/>
+      <c r="AE117" s="30"/>
     </row>
     <row r="118" ht="19.5" customHeight="1">
       <c r="A118" s="30"/>
@@ -5907,6 +6032,7 @@
       <c r="AB118" s="30"/>
       <c r="AC118" s="30"/>
       <c r="AD118" s="30"/>
+      <c r="AE118" s="30"/>
     </row>
     <row r="119" ht="19.5" customHeight="1">
       <c r="A119" s="30"/>
@@ -5939,6 +6065,7 @@
       <c r="AB119" s="30"/>
       <c r="AC119" s="30"/>
       <c r="AD119" s="30"/>
+      <c r="AE119" s="30"/>
     </row>
     <row r="120" ht="19.5" customHeight="1">
       <c r="A120" s="30"/>
@@ -5971,6 +6098,7 @@
       <c r="AB120" s="30"/>
       <c r="AC120" s="30"/>
       <c r="AD120" s="30"/>
+      <c r="AE120" s="30"/>
     </row>
     <row r="121" ht="19.5" customHeight="1">
       <c r="A121" s="30"/>
@@ -6003,6 +6131,7 @@
       <c r="AB121" s="30"/>
       <c r="AC121" s="30"/>
       <c r="AD121" s="30"/>
+      <c r="AE121" s="30"/>
     </row>
     <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="30"/>
@@ -6035,6 +6164,7 @@
       <c r="AB122" s="30"/>
       <c r="AC122" s="30"/>
       <c r="AD122" s="30"/>
+      <c r="AE122" s="30"/>
     </row>
     <row r="123" ht="19.5" customHeight="1">
       <c r="A123" s="30"/>
@@ -6067,6 +6197,7 @@
       <c r="AB123" s="30"/>
       <c r="AC123" s="30"/>
       <c r="AD123" s="30"/>
+      <c r="AE123" s="30"/>
     </row>
     <row r="124" ht="19.5" customHeight="1">
       <c r="A124" s="30"/>
@@ -6099,6 +6230,7 @@
       <c r="AB124" s="30"/>
       <c r="AC124" s="30"/>
       <c r="AD124" s="30"/>
+      <c r="AE124" s="30"/>
     </row>
     <row r="125" ht="19.5" customHeight="1">
       <c r="A125" s="30"/>
@@ -6131,6 +6263,7 @@
       <c r="AB125" s="30"/>
       <c r="AC125" s="30"/>
       <c r="AD125" s="30"/>
+      <c r="AE125" s="30"/>
     </row>
     <row r="126" ht="19.5" customHeight="1">
       <c r="A126" s="30"/>
@@ -6163,6 +6296,7 @@
       <c r="AB126" s="30"/>
       <c r="AC126" s="30"/>
       <c r="AD126" s="30"/>
+      <c r="AE126" s="30"/>
     </row>
     <row r="127" ht="19.5" customHeight="1">
       <c r="A127" s="30"/>
@@ -6195,6 +6329,7 @@
       <c r="AB127" s="30"/>
       <c r="AC127" s="30"/>
       <c r="AD127" s="30"/>
+      <c r="AE127" s="30"/>
     </row>
     <row r="128" ht="19.5" customHeight="1">
       <c r="A128" s="30"/>
@@ -6227,6 +6362,7 @@
       <c r="AB128" s="30"/>
       <c r="AC128" s="30"/>
       <c r="AD128" s="30"/>
+      <c r="AE128" s="30"/>
     </row>
     <row r="129" ht="19.5" customHeight="1">
       <c r="A129" s="30"/>
@@ -6259,6 +6395,7 @@
       <c r="AB129" s="30"/>
       <c r="AC129" s="30"/>
       <c r="AD129" s="30"/>
+      <c r="AE129" s="30"/>
     </row>
     <row r="130" ht="19.5" customHeight="1">
       <c r="A130" s="30"/>
@@ -6291,6 +6428,7 @@
       <c r="AB130" s="30"/>
       <c r="AC130" s="30"/>
       <c r="AD130" s="30"/>
+      <c r="AE130" s="30"/>
     </row>
     <row r="131" ht="19.5" customHeight="1">
       <c r="A131" s="30"/>
@@ -6323,6 +6461,7 @@
       <c r="AB131" s="30"/>
       <c r="AC131" s="30"/>
       <c r="AD131" s="30"/>
+      <c r="AE131" s="30"/>
     </row>
     <row r="132" ht="19.5" customHeight="1">
       <c r="A132" s="30"/>
@@ -6355,6 +6494,7 @@
       <c r="AB132" s="30"/>
       <c r="AC132" s="30"/>
       <c r="AD132" s="30"/>
+      <c r="AE132" s="30"/>
     </row>
     <row r="133" ht="19.5" customHeight="1">
       <c r="A133" s="30"/>
@@ -6387,6 +6527,7 @@
       <c r="AB133" s="30"/>
       <c r="AC133" s="30"/>
       <c r="AD133" s="30"/>
+      <c r="AE133" s="30"/>
     </row>
     <row r="134" ht="19.5" customHeight="1">
       <c r="A134" s="30"/>
@@ -6419,6 +6560,7 @@
       <c r="AB134" s="30"/>
       <c r="AC134" s="30"/>
       <c r="AD134" s="30"/>
+      <c r="AE134" s="30"/>
     </row>
     <row r="135" ht="19.5" customHeight="1">
       <c r="A135" s="30"/>
@@ -6451,6 +6593,7 @@
       <c r="AB135" s="30"/>
       <c r="AC135" s="30"/>
       <c r="AD135" s="30"/>
+      <c r="AE135" s="30"/>
     </row>
     <row r="136" ht="19.5" customHeight="1">
       <c r="A136" s="30"/>
@@ -6483,6 +6626,7 @@
       <c r="AB136" s="30"/>
       <c r="AC136" s="30"/>
       <c r="AD136" s="30"/>
+      <c r="AE136" s="30"/>
     </row>
     <row r="137" ht="19.5" customHeight="1">
       <c r="A137" s="30"/>
@@ -6515,6 +6659,7 @@
       <c r="AB137" s="30"/>
       <c r="AC137" s="30"/>
       <c r="AD137" s="30"/>
+      <c r="AE137" s="30"/>
     </row>
     <row r="138" ht="19.5" customHeight="1">
       <c r="A138" s="30"/>
@@ -6547,6 +6692,7 @@
       <c r="AB138" s="30"/>
       <c r="AC138" s="30"/>
       <c r="AD138" s="30"/>
+      <c r="AE138" s="30"/>
     </row>
     <row r="139" ht="19.5" customHeight="1">
       <c r="A139" s="30"/>
@@ -6579,6 +6725,7 @@
       <c r="AB139" s="30"/>
       <c r="AC139" s="30"/>
       <c r="AD139" s="30"/>
+      <c r="AE139" s="30"/>
     </row>
     <row r="140" ht="19.5" customHeight="1">
       <c r="A140" s="30"/>
@@ -6611,6 +6758,7 @@
       <c r="AB140" s="30"/>
       <c r="AC140" s="30"/>
       <c r="AD140" s="30"/>
+      <c r="AE140" s="30"/>
     </row>
     <row r="141" ht="19.5" customHeight="1">
       <c r="A141" s="30"/>
@@ -6643,6 +6791,7 @@
       <c r="AB141" s="30"/>
       <c r="AC141" s="30"/>
       <c r="AD141" s="30"/>
+      <c r="AE141" s="30"/>
     </row>
     <row r="142" ht="19.5" customHeight="1">
       <c r="A142" s="30"/>
@@ -6675,6 +6824,7 @@
       <c r="AB142" s="30"/>
       <c r="AC142" s="30"/>
       <c r="AD142" s="30"/>
+      <c r="AE142" s="30"/>
     </row>
     <row r="143" ht="19.5" customHeight="1">
       <c r="A143" s="30"/>
@@ -6707,6 +6857,7 @@
       <c r="AB143" s="30"/>
       <c r="AC143" s="30"/>
       <c r="AD143" s="30"/>
+      <c r="AE143" s="30"/>
     </row>
     <row r="144" ht="19.5" customHeight="1">
       <c r="A144" s="30"/>
@@ -6739,6 +6890,7 @@
       <c r="AB144" s="30"/>
       <c r="AC144" s="30"/>
       <c r="AD144" s="30"/>
+      <c r="AE144" s="30"/>
     </row>
     <row r="145" ht="19.5" customHeight="1">
       <c r="A145" s="30"/>
@@ -6771,6 +6923,7 @@
       <c r="AB145" s="30"/>
       <c r="AC145" s="30"/>
       <c r="AD145" s="30"/>
+      <c r="AE145" s="30"/>
     </row>
     <row r="146" ht="19.5" customHeight="1">
       <c r="A146" s="30"/>
@@ -6803,6 +6956,7 @@
       <c r="AB146" s="30"/>
       <c r="AC146" s="30"/>
       <c r="AD146" s="30"/>
+      <c r="AE146" s="30"/>
     </row>
     <row r="147" ht="19.5" customHeight="1">
       <c r="A147" s="30"/>
@@ -6835,6 +6989,7 @@
       <c r="AB147" s="30"/>
       <c r="AC147" s="30"/>
       <c r="AD147" s="30"/>
+      <c r="AE147" s="30"/>
     </row>
     <row r="148" ht="19.5" customHeight="1">
       <c r="A148" s="30"/>
@@ -6867,6 +7022,7 @@
       <c r="AB148" s="30"/>
       <c r="AC148" s="30"/>
       <c r="AD148" s="30"/>
+      <c r="AE148" s="30"/>
     </row>
     <row r="149" ht="19.5" customHeight="1">
       <c r="A149" s="30"/>
@@ -6899,6 +7055,7 @@
       <c r="AB149" s="30"/>
       <c r="AC149" s="30"/>
       <c r="AD149" s="30"/>
+      <c r="AE149" s="30"/>
     </row>
     <row r="150" ht="19.5" customHeight="1">
       <c r="A150" s="30"/>
@@ -6931,6 +7088,7 @@
       <c r="AB150" s="30"/>
       <c r="AC150" s="30"/>
       <c r="AD150" s="30"/>
+      <c r="AE150" s="30"/>
     </row>
     <row r="151" ht="19.5" customHeight="1">
       <c r="A151" s="30"/>
@@ -6963,6 +7121,7 @@
       <c r="AB151" s="30"/>
       <c r="AC151" s="30"/>
       <c r="AD151" s="30"/>
+      <c r="AE151" s="30"/>
     </row>
     <row r="152" ht="19.5" customHeight="1">
       <c r="A152" s="30"/>
@@ -6995,6 +7154,7 @@
       <c r="AB152" s="30"/>
       <c r="AC152" s="30"/>
       <c r="AD152" s="30"/>
+      <c r="AE152" s="30"/>
     </row>
     <row r="153" ht="19.5" customHeight="1">
       <c r="A153" s="30"/>
@@ -7027,6 +7187,7 @@
       <c r="AB153" s="30"/>
       <c r="AC153" s="30"/>
       <c r="AD153" s="30"/>
+      <c r="AE153" s="30"/>
     </row>
     <row r="154" ht="19.5" customHeight="1">
       <c r="A154" s="30"/>
@@ -7059,6 +7220,7 @@
       <c r="AB154" s="30"/>
       <c r="AC154" s="30"/>
       <c r="AD154" s="30"/>
+      <c r="AE154" s="30"/>
     </row>
     <row r="155" ht="19.5" customHeight="1">
       <c r="A155" s="30"/>
@@ -7091,6 +7253,7 @@
       <c r="AB155" s="30"/>
       <c r="AC155" s="30"/>
       <c r="AD155" s="30"/>
+      <c r="AE155" s="30"/>
     </row>
     <row r="156" ht="19.5" customHeight="1">
       <c r="A156" s="30"/>
@@ -7123,6 +7286,7 @@
       <c r="AB156" s="30"/>
       <c r="AC156" s="30"/>
       <c r="AD156" s="30"/>
+      <c r="AE156" s="30"/>
     </row>
     <row r="157" ht="19.5" customHeight="1">
       <c r="A157" s="30"/>
@@ -7155,6 +7319,7 @@
       <c r="AB157" s="30"/>
       <c r="AC157" s="30"/>
       <c r="AD157" s="30"/>
+      <c r="AE157" s="30"/>
     </row>
     <row r="158" ht="19.5" customHeight="1">
       <c r="A158" s="30"/>
@@ -7187,6 +7352,7 @@
       <c r="AB158" s="30"/>
       <c r="AC158" s="30"/>
       <c r="AD158" s="30"/>
+      <c r="AE158" s="30"/>
     </row>
     <row r="159" ht="19.5" customHeight="1">
       <c r="A159" s="30"/>
@@ -7219,6 +7385,7 @@
       <c r="AB159" s="30"/>
       <c r="AC159" s="30"/>
       <c r="AD159" s="30"/>
+      <c r="AE159" s="30"/>
     </row>
     <row r="160" ht="19.5" customHeight="1">
       <c r="A160" s="30"/>
@@ -7251,6 +7418,7 @@
       <c r="AB160" s="30"/>
       <c r="AC160" s="30"/>
       <c r="AD160" s="30"/>
+      <c r="AE160" s="30"/>
     </row>
     <row r="161" ht="19.5" customHeight="1">
       <c r="A161" s="30"/>
@@ -7283,6 +7451,7 @@
       <c r="AB161" s="30"/>
       <c r="AC161" s="30"/>
       <c r="AD161" s="30"/>
+      <c r="AE161" s="30"/>
     </row>
     <row r="162" ht="19.5" customHeight="1">
       <c r="A162" s="30"/>
@@ -7315,6 +7484,7 @@
       <c r="AB162" s="30"/>
       <c r="AC162" s="30"/>
       <c r="AD162" s="30"/>
+      <c r="AE162" s="30"/>
     </row>
     <row r="163" ht="19.5" customHeight="1">
       <c r="A163" s="30"/>
@@ -7347,6 +7517,7 @@
       <c r="AB163" s="30"/>
       <c r="AC163" s="30"/>
       <c r="AD163" s="30"/>
+      <c r="AE163" s="30"/>
     </row>
     <row r="164" ht="19.5" customHeight="1">
       <c r="A164" s="30"/>
@@ -7379,6 +7550,7 @@
       <c r="AB164" s="30"/>
       <c r="AC164" s="30"/>
       <c r="AD164" s="30"/>
+      <c r="AE164" s="30"/>
     </row>
     <row r="165" ht="19.5" customHeight="1">
       <c r="A165" s="30"/>
@@ -7411,6 +7583,7 @@
       <c r="AB165" s="30"/>
       <c r="AC165" s="30"/>
       <c r="AD165" s="30"/>
+      <c r="AE165" s="30"/>
     </row>
     <row r="166" ht="19.5" customHeight="1">
       <c r="A166" s="30"/>
@@ -7443,6 +7616,7 @@
       <c r="AB166" s="30"/>
       <c r="AC166" s="30"/>
       <c r="AD166" s="30"/>
+      <c r="AE166" s="30"/>
     </row>
     <row r="167" ht="19.5" customHeight="1">
       <c r="A167" s="30"/>
@@ -7475,6 +7649,7 @@
       <c r="AB167" s="30"/>
       <c r="AC167" s="30"/>
       <c r="AD167" s="30"/>
+      <c r="AE167" s="30"/>
     </row>
     <row r="168" ht="19.5" customHeight="1">
       <c r="A168" s="30"/>
@@ -7507,6 +7682,7 @@
       <c r="AB168" s="30"/>
       <c r="AC168" s="30"/>
       <c r="AD168" s="30"/>
+      <c r="AE168" s="30"/>
     </row>
     <row r="169" ht="19.5" customHeight="1">
       <c r="A169" s="30"/>
@@ -7539,6 +7715,7 @@
       <c r="AB169" s="30"/>
       <c r="AC169" s="30"/>
       <c r="AD169" s="30"/>
+      <c r="AE169" s="30"/>
     </row>
     <row r="170" ht="19.5" customHeight="1">
       <c r="A170" s="30"/>
@@ -7571,6 +7748,7 @@
       <c r="AB170" s="30"/>
       <c r="AC170" s="30"/>
       <c r="AD170" s="30"/>
+      <c r="AE170" s="30"/>
     </row>
     <row r="171" ht="19.5" customHeight="1">
       <c r="A171" s="30"/>
@@ -7603,6 +7781,7 @@
       <c r="AB171" s="30"/>
       <c r="AC171" s="30"/>
       <c r="AD171" s="30"/>
+      <c r="AE171" s="30"/>
     </row>
     <row r="172" ht="19.5" customHeight="1">
       <c r="A172" s="30"/>
@@ -7635,6 +7814,7 @@
       <c r="AB172" s="30"/>
       <c r="AC172" s="30"/>
       <c r="AD172" s="30"/>
+      <c r="AE172" s="30"/>
     </row>
     <row r="173" ht="19.5" customHeight="1">
       <c r="A173" s="30"/>
@@ -7667,6 +7847,7 @@
       <c r="AB173" s="30"/>
       <c r="AC173" s="30"/>
       <c r="AD173" s="30"/>
+      <c r="AE173" s="30"/>
     </row>
     <row r="174" ht="19.5" customHeight="1">
       <c r="A174" s="30"/>
@@ -7699,6 +7880,7 @@
       <c r="AB174" s="30"/>
       <c r="AC174" s="30"/>
       <c r="AD174" s="30"/>
+      <c r="AE174" s="30"/>
     </row>
     <row r="175" ht="19.5" customHeight="1">
       <c r="A175" s="30"/>
@@ -7731,6 +7913,7 @@
       <c r="AB175" s="30"/>
       <c r="AC175" s="30"/>
       <c r="AD175" s="30"/>
+      <c r="AE175" s="30"/>
     </row>
     <row r="176" ht="19.5" customHeight="1">
       <c r="A176" s="30"/>
@@ -7763,6 +7946,7 @@
       <c r="AB176" s="30"/>
       <c r="AC176" s="30"/>
       <c r="AD176" s="30"/>
+      <c r="AE176" s="30"/>
     </row>
     <row r="177" ht="19.5" customHeight="1">
       <c r="A177" s="30"/>
@@ -7795,6 +7979,7 @@
       <c r="AB177" s="30"/>
       <c r="AC177" s="30"/>
       <c r="AD177" s="30"/>
+      <c r="AE177" s="30"/>
     </row>
     <row r="178" ht="19.5" customHeight="1">
       <c r="A178" s="30"/>
@@ -7827,6 +8012,7 @@
       <c r="AB178" s="30"/>
       <c r="AC178" s="30"/>
       <c r="AD178" s="30"/>
+      <c r="AE178" s="30"/>
     </row>
     <row r="179" ht="19.5" customHeight="1">
       <c r="A179" s="30"/>
@@ -7859,6 +8045,7 @@
       <c r="AB179" s="30"/>
       <c r="AC179" s="30"/>
       <c r="AD179" s="30"/>
+      <c r="AE179" s="30"/>
     </row>
     <row r="180" ht="19.5" customHeight="1">
       <c r="A180" s="30"/>
@@ -7891,6 +8078,7 @@
       <c r="AB180" s="30"/>
       <c r="AC180" s="30"/>
       <c r="AD180" s="30"/>
+      <c r="AE180" s="30"/>
     </row>
     <row r="181" ht="19.5" customHeight="1">
       <c r="A181" s="30"/>
@@ -7923,6 +8111,7 @@
       <c r="AB181" s="30"/>
       <c r="AC181" s="30"/>
       <c r="AD181" s="30"/>
+      <c r="AE181" s="30"/>
     </row>
     <row r="182" ht="19.5" customHeight="1">
       <c r="A182" s="30"/>
@@ -7955,6 +8144,7 @@
       <c r="AB182" s="30"/>
       <c r="AC182" s="30"/>
       <c r="AD182" s="30"/>
+      <c r="AE182" s="30"/>
     </row>
     <row r="183" ht="19.5" customHeight="1">
       <c r="A183" s="30"/>
@@ -7987,6 +8177,7 @@
       <c r="AB183" s="30"/>
       <c r="AC183" s="30"/>
       <c r="AD183" s="30"/>
+      <c r="AE183" s="30"/>
     </row>
     <row r="184" ht="19.5" customHeight="1">
       <c r="A184" s="30"/>
@@ -8019,6 +8210,7 @@
       <c r="AB184" s="30"/>
       <c r="AC184" s="30"/>
       <c r="AD184" s="30"/>
+      <c r="AE184" s="30"/>
     </row>
     <row r="185" ht="19.5" customHeight="1">
       <c r="A185" s="30"/>
@@ -8051,6 +8243,7 @@
       <c r="AB185" s="30"/>
       <c r="AC185" s="30"/>
       <c r="AD185" s="30"/>
+      <c r="AE185" s="30"/>
     </row>
     <row r="186" ht="19.5" customHeight="1">
       <c r="A186" s="30"/>
@@ -8083,6 +8276,7 @@
       <c r="AB186" s="30"/>
       <c r="AC186" s="30"/>
       <c r="AD186" s="30"/>
+      <c r="AE186" s="30"/>
     </row>
     <row r="187" ht="19.5" customHeight="1">
       <c r="A187" s="30"/>
@@ -8115,6 +8309,7 @@
       <c r="AB187" s="30"/>
       <c r="AC187" s="30"/>
       <c r="AD187" s="30"/>
+      <c r="AE187" s="30"/>
     </row>
     <row r="188" ht="19.5" customHeight="1">
       <c r="A188" s="30"/>
@@ -8147,6 +8342,7 @@
       <c r="AB188" s="30"/>
       <c r="AC188" s="30"/>
       <c r="AD188" s="30"/>
+      <c r="AE188" s="30"/>
     </row>
     <row r="189" ht="19.5" customHeight="1">
       <c r="A189" s="30"/>
@@ -8179,6 +8375,7 @@
       <c r="AB189" s="30"/>
       <c r="AC189" s="30"/>
       <c r="AD189" s="30"/>
+      <c r="AE189" s="30"/>
     </row>
     <row r="190" ht="19.5" customHeight="1">
       <c r="A190" s="30"/>
@@ -8211,6 +8408,7 @@
       <c r="AB190" s="30"/>
       <c r="AC190" s="30"/>
       <c r="AD190" s="30"/>
+      <c r="AE190" s="30"/>
     </row>
     <row r="191" ht="19.5" customHeight="1">
       <c r="A191" s="30"/>
@@ -8243,6 +8441,7 @@
       <c r="AB191" s="30"/>
       <c r="AC191" s="30"/>
       <c r="AD191" s="30"/>
+      <c r="AE191" s="30"/>
     </row>
     <row r="192" ht="19.5" customHeight="1">
       <c r="A192" s="30"/>
@@ -8275,6 +8474,7 @@
       <c r="AB192" s="30"/>
       <c r="AC192" s="30"/>
       <c r="AD192" s="30"/>
+      <c r="AE192" s="30"/>
     </row>
     <row r="193" ht="19.5" customHeight="1">
       <c r="A193" s="30"/>
@@ -8307,6 +8507,7 @@
       <c r="AB193" s="30"/>
       <c r="AC193" s="30"/>
       <c r="AD193" s="30"/>
+      <c r="AE193" s="30"/>
     </row>
     <row r="194" ht="19.5" customHeight="1">
       <c r="A194" s="30"/>
@@ -8339,6 +8540,7 @@
       <c r="AB194" s="30"/>
       <c r="AC194" s="30"/>
       <c r="AD194" s="30"/>
+      <c r="AE194" s="30"/>
     </row>
     <row r="195" ht="19.5" customHeight="1">
       <c r="A195" s="30"/>
@@ -8371,6 +8573,7 @@
       <c r="AB195" s="30"/>
       <c r="AC195" s="30"/>
       <c r="AD195" s="30"/>
+      <c r="AE195" s="30"/>
     </row>
     <row r="196" ht="19.5" customHeight="1">
       <c r="A196" s="30"/>
@@ -8403,6 +8606,7 @@
       <c r="AB196" s="30"/>
       <c r="AC196" s="30"/>
       <c r="AD196" s="30"/>
+      <c r="AE196" s="30"/>
     </row>
     <row r="197" ht="19.5" customHeight="1">
       <c r="A197" s="30"/>
@@ -8435,6 +8639,7 @@
       <c r="AB197" s="30"/>
       <c r="AC197" s="30"/>
       <c r="AD197" s="30"/>
+      <c r="AE197" s="30"/>
     </row>
     <row r="198" ht="19.5" customHeight="1">
       <c r="A198" s="30"/>
@@ -8467,6 +8672,7 @@
       <c r="AB198" s="30"/>
       <c r="AC198" s="30"/>
       <c r="AD198" s="30"/>
+      <c r="AE198" s="30"/>
     </row>
     <row r="199" ht="19.5" customHeight="1">
       <c r="A199" s="30"/>
@@ -8499,6 +8705,7 @@
       <c r="AB199" s="30"/>
       <c r="AC199" s="30"/>
       <c r="AD199" s="30"/>
+      <c r="AE199" s="30"/>
     </row>
     <row r="200" ht="19.5" customHeight="1">
       <c r="A200" s="30"/>
@@ -8531,6 +8738,7 @@
       <c r="AB200" s="30"/>
       <c r="AC200" s="30"/>
       <c r="AD200" s="30"/>
+      <c r="AE200" s="30"/>
     </row>
     <row r="201" ht="19.5" customHeight="1">
       <c r="A201" s="30"/>
@@ -8563,6 +8771,7 @@
       <c r="AB201" s="30"/>
       <c r="AC201" s="30"/>
       <c r="AD201" s="30"/>
+      <c r="AE201" s="30"/>
     </row>
     <row r="202" ht="19.5" customHeight="1">
       <c r="A202" s="30"/>
@@ -8595,6 +8804,7 @@
       <c r="AB202" s="30"/>
       <c r="AC202" s="30"/>
       <c r="AD202" s="30"/>
+      <c r="AE202" s="30"/>
     </row>
     <row r="203" ht="19.5" customHeight="1">
       <c r="A203" s="30"/>
@@ -8627,6 +8837,7 @@
       <c r="AB203" s="30"/>
       <c r="AC203" s="30"/>
       <c r="AD203" s="30"/>
+      <c r="AE203" s="30"/>
     </row>
     <row r="204" ht="19.5" customHeight="1">
       <c r="A204" s="30"/>
@@ -8659,6 +8870,7 @@
       <c r="AB204" s="30"/>
       <c r="AC204" s="30"/>
       <c r="AD204" s="30"/>
+      <c r="AE204" s="30"/>
     </row>
     <row r="205" ht="19.5" customHeight="1">
       <c r="A205" s="30"/>
@@ -8691,6 +8903,7 @@
       <c r="AB205" s="30"/>
       <c r="AC205" s="30"/>
       <c r="AD205" s="30"/>
+      <c r="AE205" s="30"/>
     </row>
     <row r="206" ht="19.5" customHeight="1">
       <c r="A206" s="30"/>
@@ -8723,6 +8936,7 @@
       <c r="AB206" s="30"/>
       <c r="AC206" s="30"/>
       <c r="AD206" s="30"/>
+      <c r="AE206" s="30"/>
     </row>
     <row r="207" ht="19.5" customHeight="1">
       <c r="A207" s="30"/>
@@ -8755,6 +8969,7 @@
       <c r="AB207" s="30"/>
       <c r="AC207" s="30"/>
       <c r="AD207" s="30"/>
+      <c r="AE207" s="30"/>
     </row>
     <row r="208" ht="19.5" customHeight="1">
       <c r="A208" s="30"/>
@@ -8787,6 +9002,7 @@
       <c r="AB208" s="30"/>
       <c r="AC208" s="30"/>
       <c r="AD208" s="30"/>
+      <c r="AE208" s="30"/>
     </row>
     <row r="209" ht="19.5" customHeight="1">
       <c r="A209" s="30"/>
@@ -8819,6 +9035,7 @@
       <c r="AB209" s="30"/>
       <c r="AC209" s="30"/>
       <c r="AD209" s="30"/>
+      <c r="AE209" s="30"/>
     </row>
     <row r="210" ht="19.5" customHeight="1">
       <c r="A210" s="30"/>
@@ -8851,6 +9068,7 @@
       <c r="AB210" s="30"/>
       <c r="AC210" s="30"/>
       <c r="AD210" s="30"/>
+      <c r="AE210" s="30"/>
     </row>
     <row r="211" ht="19.5" customHeight="1">
       <c r="A211" s="30"/>
@@ -8883,6 +9101,7 @@
       <c r="AB211" s="30"/>
       <c r="AC211" s="30"/>
       <c r="AD211" s="30"/>
+      <c r="AE211" s="30"/>
     </row>
     <row r="212" ht="19.5" customHeight="1">
       <c r="A212" s="30"/>
@@ -8915,6 +9134,7 @@
       <c r="AB212" s="30"/>
       <c r="AC212" s="30"/>
       <c r="AD212" s="30"/>
+      <c r="AE212" s="30"/>
     </row>
     <row r="213" ht="19.5" customHeight="1">
       <c r="A213" s="30"/>
@@ -8947,6 +9167,7 @@
       <c r="AB213" s="30"/>
       <c r="AC213" s="30"/>
       <c r="AD213" s="30"/>
+      <c r="AE213" s="30"/>
     </row>
     <row r="214" ht="19.5" customHeight="1">
       <c r="A214" s="30"/>
@@ -8979,6 +9200,7 @@
       <c r="AB214" s="30"/>
       <c r="AC214" s="30"/>
       <c r="AD214" s="30"/>
+      <c r="AE214" s="30"/>
     </row>
     <row r="215" ht="19.5" customHeight="1">
       <c r="A215" s="30"/>
@@ -9011,6 +9233,7 @@
       <c r="AB215" s="30"/>
       <c r="AC215" s="30"/>
       <c r="AD215" s="30"/>
+      <c r="AE215" s="30"/>
     </row>
     <row r="216" ht="19.5" customHeight="1">
       <c r="A216" s="30"/>
@@ -9043,6 +9266,7 @@
       <c r="AB216" s="30"/>
       <c r="AC216" s="30"/>
       <c r="AD216" s="30"/>
+      <c r="AE216" s="30"/>
     </row>
     <row r="217" ht="19.5" customHeight="1">
       <c r="A217" s="30"/>
@@ -9075,6 +9299,7 @@
       <c r="AB217" s="30"/>
       <c r="AC217" s="30"/>
       <c r="AD217" s="30"/>
+      <c r="AE217" s="30"/>
     </row>
     <row r="218" ht="19.5" customHeight="1">
       <c r="A218" s="30"/>
@@ -9107,6 +9332,7 @@
       <c r="AB218" s="30"/>
       <c r="AC218" s="30"/>
       <c r="AD218" s="30"/>
+      <c r="AE218" s="30"/>
     </row>
     <row r="219" ht="19.5" customHeight="1">
       <c r="A219" s="30"/>
@@ -9139,6 +9365,7 @@
       <c r="AB219" s="30"/>
       <c r="AC219" s="30"/>
       <c r="AD219" s="30"/>
+      <c r="AE219" s="30"/>
     </row>
     <row r="220" ht="19.5" customHeight="1">
       <c r="A220" s="30"/>
@@ -9171,6 +9398,7 @@
       <c r="AB220" s="30"/>
       <c r="AC220" s="30"/>
       <c r="AD220" s="30"/>
+      <c r="AE220" s="30"/>
     </row>
     <row r="221" ht="19.5" customHeight="1">
       <c r="A221" s="30"/>
@@ -9203,6 +9431,7 @@
       <c r="AB221" s="30"/>
       <c r="AC221" s="30"/>
       <c r="AD221" s="30"/>
+      <c r="AE221" s="30"/>
     </row>
     <row r="222" ht="19.5" customHeight="1">
       <c r="A222" s="30"/>
@@ -9235,6 +9464,7 @@
       <c r="AB222" s="30"/>
       <c r="AC222" s="30"/>
       <c r="AD222" s="30"/>
+      <c r="AE222" s="30"/>
     </row>
     <row r="223" ht="19.5" customHeight="1">
       <c r="A223" s="30"/>
@@ -9267,6 +9497,7 @@
       <c r="AB223" s="30"/>
       <c r="AC223" s="30"/>
       <c r="AD223" s="30"/>
+      <c r="AE223" s="30"/>
     </row>
     <row r="224" ht="19.5" customHeight="1">
       <c r="A224" s="30"/>
@@ -9299,6 +9530,7 @@
       <c r="AB224" s="30"/>
       <c r="AC224" s="30"/>
       <c r="AD224" s="30"/>
+      <c r="AE224" s="30"/>
     </row>
     <row r="225" ht="19.5" customHeight="1">
       <c r="A225" s="30"/>
@@ -9331,6 +9563,7 @@
       <c r="AB225" s="30"/>
       <c r="AC225" s="30"/>
       <c r="AD225" s="30"/>
+      <c r="AE225" s="30"/>
     </row>
     <row r="226" ht="19.5" customHeight="1">
       <c r="A226" s="30"/>
@@ -9363,6 +9596,7 @@
       <c r="AB226" s="30"/>
       <c r="AC226" s="30"/>
       <c r="AD226" s="30"/>
+      <c r="AE226" s="30"/>
     </row>
     <row r="227" ht="19.5" customHeight="1">
       <c r="A227" s="30"/>
@@ -9395,6 +9629,7 @@
       <c r="AB227" s="30"/>
       <c r="AC227" s="30"/>
       <c r="AD227" s="30"/>
+      <c r="AE227" s="30"/>
     </row>
     <row r="228" ht="19.5" customHeight="1">
       <c r="A228" s="30"/>
@@ -9427,6 +9662,7 @@
       <c r="AB228" s="30"/>
       <c r="AC228" s="30"/>
       <c r="AD228" s="30"/>
+      <c r="AE228" s="30"/>
     </row>
     <row r="229" ht="19.5" customHeight="1">
       <c r="A229" s="30"/>
@@ -9459,6 +9695,7 @@
       <c r="AB229" s="30"/>
       <c r="AC229" s="30"/>
       <c r="AD229" s="30"/>
+      <c r="AE229" s="30"/>
     </row>
     <row r="230" ht="19.5" customHeight="1">
       <c r="A230" s="30"/>
@@ -9491,6 +9728,7 @@
       <c r="AB230" s="30"/>
       <c r="AC230" s="30"/>
       <c r="AD230" s="30"/>
+      <c r="AE230" s="30"/>
     </row>
     <row r="231" ht="19.5" customHeight="1">
       <c r="A231" s="30"/>
@@ -9523,6 +9761,7 @@
       <c r="AB231" s="30"/>
       <c r="AC231" s="30"/>
       <c r="AD231" s="30"/>
+      <c r="AE231" s="30"/>
     </row>
     <row r="232" ht="19.5" customHeight="1">
       <c r="A232" s="30"/>
@@ -9555,6 +9794,7 @@
       <c r="AB232" s="30"/>
       <c r="AC232" s="30"/>
       <c r="AD232" s="30"/>
+      <c r="AE232" s="30"/>
     </row>
     <row r="233" ht="19.5" customHeight="1">
       <c r="A233" s="30"/>
@@ -9587,6 +9827,7 @@
       <c r="AB233" s="30"/>
       <c r="AC233" s="30"/>
       <c r="AD233" s="30"/>
+      <c r="AE233" s="30"/>
     </row>
     <row r="234" ht="19.5" customHeight="1">
       <c r="A234" s="30"/>
@@ -9619,6 +9860,7 @@
       <c r="AB234" s="30"/>
       <c r="AC234" s="30"/>
       <c r="AD234" s="30"/>
+      <c r="AE234" s="30"/>
     </row>
     <row r="235" ht="19.5" customHeight="1">
       <c r="A235" s="30"/>
@@ -9651,6 +9893,7 @@
       <c r="AB235" s="30"/>
       <c r="AC235" s="30"/>
       <c r="AD235" s="30"/>
+      <c r="AE235" s="30"/>
     </row>
     <row r="236" ht="19.5" customHeight="1">
       <c r="A236" s="30"/>
@@ -9683,6 +9926,7 @@
       <c r="AB236" s="30"/>
       <c r="AC236" s="30"/>
       <c r="AD236" s="30"/>
+      <c r="AE236" s="30"/>
     </row>
     <row r="237" ht="19.5" customHeight="1">
       <c r="A237" s="30"/>
@@ -9715,6 +9959,7 @@
       <c r="AB237" s="30"/>
       <c r="AC237" s="30"/>
       <c r="AD237" s="30"/>
+      <c r="AE237" s="30"/>
     </row>
     <row r="238" ht="19.5" customHeight="1">
       <c r="A238" s="30"/>
@@ -9747,6 +9992,7 @@
       <c r="AB238" s="30"/>
       <c r="AC238" s="30"/>
       <c r="AD238" s="30"/>
+      <c r="AE238" s="30"/>
     </row>
     <row r="239" ht="19.5" customHeight="1">
       <c r="A239" s="30"/>
@@ -9779,6 +10025,7 @@
       <c r="AB239" s="30"/>
       <c r="AC239" s="30"/>
       <c r="AD239" s="30"/>
+      <c r="AE239" s="30"/>
     </row>
     <row r="240" ht="19.5" customHeight="1">
       <c r="A240" s="30"/>
@@ -9811,6 +10058,7 @@
       <c r="AB240" s="30"/>
       <c r="AC240" s="30"/>
       <c r="AD240" s="30"/>
+      <c r="AE240" s="30"/>
     </row>
     <row r="241" ht="19.5" customHeight="1">
       <c r="A241" s="30"/>
@@ -9843,6 +10091,7 @@
       <c r="AB241" s="30"/>
       <c r="AC241" s="30"/>
       <c r="AD241" s="30"/>
+      <c r="AE241" s="30"/>
     </row>
     <row r="242" ht="19.5" customHeight="1">
       <c r="A242" s="30"/>
@@ -9875,6 +10124,7 @@
       <c r="AB242" s="30"/>
       <c r="AC242" s="30"/>
       <c r="AD242" s="30"/>
+      <c r="AE242" s="30"/>
     </row>
     <row r="243" ht="19.5" customHeight="1">
       <c r="A243" s="30"/>
@@ -9907,6 +10157,7 @@
       <c r="AB243" s="30"/>
       <c r="AC243" s="30"/>
       <c r="AD243" s="30"/>
+      <c r="AE243" s="30"/>
     </row>
     <row r="244" ht="19.5" customHeight="1">
       <c r="A244" s="30"/>
@@ -9939,6 +10190,7 @@
       <c r="AB244" s="30"/>
       <c r="AC244" s="30"/>
       <c r="AD244" s="30"/>
+      <c r="AE244" s="30"/>
     </row>
     <row r="245" ht="19.5" customHeight="1">
       <c r="A245" s="30"/>
@@ -9971,6 +10223,7 @@
       <c r="AB245" s="30"/>
       <c r="AC245" s="30"/>
       <c r="AD245" s="30"/>
+      <c r="AE245" s="30"/>
     </row>
     <row r="246" ht="19.5" customHeight="1">
       <c r="A246" s="30"/>
@@ -10003,6 +10256,7 @@
       <c r="AB246" s="30"/>
       <c r="AC246" s="30"/>
       <c r="AD246" s="30"/>
+      <c r="AE246" s="30"/>
     </row>
     <row r="247" ht="19.5" customHeight="1">
       <c r="A247" s="30"/>
@@ -10035,6 +10289,7 @@
       <c r="AB247" s="30"/>
       <c r="AC247" s="30"/>
       <c r="AD247" s="30"/>
+      <c r="AE247" s="30"/>
     </row>
     <row r="248" ht="19.5" customHeight="1">
       <c r="A248" s="30"/>
@@ -10067,6 +10322,7 @@
       <c r="AB248" s="30"/>
       <c r="AC248" s="30"/>
       <c r="AD248" s="30"/>
+      <c r="AE248" s="30"/>
     </row>
     <row r="249" ht="19.5" customHeight="1">
       <c r="A249" s="30"/>
@@ -10099,6 +10355,7 @@
       <c r="AB249" s="30"/>
       <c r="AC249" s="30"/>
       <c r="AD249" s="30"/>
+      <c r="AE249" s="30"/>
     </row>
     <row r="250" ht="19.5" customHeight="1">
       <c r="A250" s="30"/>
@@ -10131,6 +10388,7 @@
       <c r="AB250" s="30"/>
       <c r="AC250" s="30"/>
       <c r="AD250" s="30"/>
+      <c r="AE250" s="30"/>
     </row>
     <row r="251" ht="19.5" customHeight="1">
       <c r="A251" s="30"/>
@@ -10163,6 +10421,7 @@
       <c r="AB251" s="30"/>
       <c r="AC251" s="30"/>
       <c r="AD251" s="30"/>
+      <c r="AE251" s="30"/>
     </row>
     <row r="252" ht="19.5" customHeight="1">
       <c r="A252" s="30"/>
@@ -10195,6 +10454,7 @@
       <c r="AB252" s="30"/>
       <c r="AC252" s="30"/>
       <c r="AD252" s="30"/>
+      <c r="AE252" s="30"/>
     </row>
     <row r="253" ht="19.5" customHeight="1">
       <c r="A253" s="30"/>
@@ -10227,6 +10487,7 @@
       <c r="AB253" s="30"/>
       <c r="AC253" s="30"/>
       <c r="AD253" s="30"/>
+      <c r="AE253" s="30"/>
     </row>
     <row r="254" ht="19.5" customHeight="1">
       <c r="A254" s="30"/>
@@ -10259,6 +10520,7 @@
       <c r="AB254" s="30"/>
       <c r="AC254" s="30"/>
       <c r="AD254" s="30"/>
+      <c r="AE254" s="30"/>
     </row>
     <row r="255" ht="19.5" customHeight="1">
       <c r="A255" s="30"/>
@@ -10291,6 +10553,7 @@
       <c r="AB255" s="30"/>
       <c r="AC255" s="30"/>
       <c r="AD255" s="30"/>
+      <c r="AE255" s="30"/>
     </row>
     <row r="256" ht="19.5" customHeight="1">
       <c r="A256" s="30"/>
@@ -10323,6 +10586,7 @@
       <c r="AB256" s="30"/>
       <c r="AC256" s="30"/>
       <c r="AD256" s="30"/>
+      <c r="AE256" s="30"/>
     </row>
     <row r="257" ht="19.5" customHeight="1">
       <c r="A257" s="30"/>
@@ -10355,6 +10619,7 @@
       <c r="AB257" s="30"/>
       <c r="AC257" s="30"/>
       <c r="AD257" s="30"/>
+      <c r="AE257" s="30"/>
     </row>
     <row r="258" ht="19.5" customHeight="1">
       <c r="A258" s="30"/>
@@ -10387,6 +10652,7 @@
       <c r="AB258" s="30"/>
       <c r="AC258" s="30"/>
       <c r="AD258" s="30"/>
+      <c r="AE258" s="30"/>
     </row>
     <row r="259" ht="19.5" customHeight="1">
       <c r="A259" s="30"/>
@@ -10419,6 +10685,7 @@
       <c r="AB259" s="30"/>
       <c r="AC259" s="30"/>
       <c r="AD259" s="30"/>
+      <c r="AE259" s="30"/>
     </row>
     <row r="260" ht="19.5" customHeight="1">
       <c r="A260" s="30"/>
@@ -10451,6 +10718,7 @@
       <c r="AB260" s="30"/>
       <c r="AC260" s="30"/>
       <c r="AD260" s="30"/>
+      <c r="AE260" s="30"/>
     </row>
     <row r="261" ht="19.5" customHeight="1">
       <c r="A261" s="30"/>
@@ -10483,6 +10751,7 @@
       <c r="AB261" s="30"/>
       <c r="AC261" s="30"/>
       <c r="AD261" s="30"/>
+      <c r="AE261" s="30"/>
     </row>
     <row r="262" ht="19.5" customHeight="1">
       <c r="A262" s="30"/>
@@ -10515,6 +10784,7 @@
       <c r="AB262" s="30"/>
       <c r="AC262" s="30"/>
       <c r="AD262" s="30"/>
+      <c r="AE262" s="30"/>
     </row>
     <row r="263" ht="19.5" customHeight="1">
       <c r="A263" s="30"/>
@@ -10547,6 +10817,7 @@
       <c r="AB263" s="30"/>
       <c r="AC263" s="30"/>
       <c r="AD263" s="30"/>
+      <c r="AE263" s="30"/>
     </row>
     <row r="264" ht="19.5" customHeight="1">
       <c r="A264" s="30"/>
@@ -10579,6 +10850,7 @@
       <c r="AB264" s="30"/>
       <c r="AC264" s="30"/>
       <c r="AD264" s="30"/>
+      <c r="AE264" s="30"/>
     </row>
     <row r="265" ht="19.5" customHeight="1">
       <c r="A265" s="30"/>
@@ -10611,6 +10883,7 @@
       <c r="AB265" s="30"/>
       <c r="AC265" s="30"/>
       <c r="AD265" s="30"/>
+      <c r="AE265" s="30"/>
     </row>
     <row r="266" ht="19.5" customHeight="1">
       <c r="A266" s="30"/>
@@ -10643,6 +10916,7 @@
       <c r="AB266" s="30"/>
       <c r="AC266" s="30"/>
       <c r="AD266" s="30"/>
+      <c r="AE266" s="30"/>
     </row>
     <row r="267" ht="19.5" customHeight="1">
       <c r="A267" s="30"/>
@@ -10675,6 +10949,7 @@
       <c r="AB267" s="30"/>
       <c r="AC267" s="30"/>
       <c r="AD267" s="30"/>
+      <c r="AE267" s="30"/>
     </row>
     <row r="268" ht="19.5" customHeight="1">
       <c r="A268" s="30"/>
@@ -10707,6 +10982,7 @@
       <c r="AB268" s="30"/>
       <c r="AC268" s="30"/>
       <c r="AD268" s="30"/>
+      <c r="AE268" s="30"/>
     </row>
     <row r="269" ht="19.5" customHeight="1">
       <c r="A269" s="30"/>
@@ -10739,6 +11015,7 @@
       <c r="AB269" s="30"/>
       <c r="AC269" s="30"/>
       <c r="AD269" s="30"/>
+      <c r="AE269" s="30"/>
     </row>
     <row r="270" ht="19.5" customHeight="1">
       <c r="A270" s="30"/>
@@ -10771,6 +11048,7 @@
       <c r="AB270" s="30"/>
       <c r="AC270" s="30"/>
       <c r="AD270" s="30"/>
+      <c r="AE270" s="30"/>
     </row>
     <row r="271" ht="19.5" customHeight="1">
       <c r="A271" s="30"/>
@@ -10803,6 +11081,7 @@
       <c r="AB271" s="30"/>
       <c r="AC271" s="30"/>
       <c r="AD271" s="30"/>
+      <c r="AE271" s="30"/>
     </row>
     <row r="272" ht="19.5" customHeight="1">
       <c r="A272" s="30"/>
@@ -10835,6 +11114,7 @@
       <c r="AB272" s="30"/>
       <c r="AC272" s="30"/>
       <c r="AD272" s="30"/>
+      <c r="AE272" s="30"/>
     </row>
     <row r="273" ht="19.5" customHeight="1">
       <c r="A273" s="30"/>
@@ -10867,6 +11147,7 @@
       <c r="AB273" s="30"/>
       <c r="AC273" s="30"/>
       <c r="AD273" s="30"/>
+      <c r="AE273" s="30"/>
     </row>
     <row r="274" ht="19.5" customHeight="1">
       <c r="A274" s="30"/>
@@ -10899,6 +11180,7 @@
       <c r="AB274" s="30"/>
       <c r="AC274" s="30"/>
       <c r="AD274" s="30"/>
+      <c r="AE274" s="30"/>
     </row>
     <row r="275" ht="19.5" customHeight="1">
       <c r="A275" s="30"/>
@@ -10931,6 +11213,7 @@
       <c r="AB275" s="30"/>
       <c r="AC275" s="30"/>
       <c r="AD275" s="30"/>
+      <c r="AE275" s="30"/>
     </row>
     <row r="276" ht="19.5" customHeight="1">
       <c r="A276" s="30"/>
@@ -10963,6 +11246,7 @@
       <c r="AB276" s="30"/>
       <c r="AC276" s="30"/>
       <c r="AD276" s="30"/>
+      <c r="AE276" s="30"/>
     </row>
     <row r="277" ht="19.5" customHeight="1">
       <c r="A277" s="30"/>
@@ -10995,6 +11279,7 @@
       <c r="AB277" s="30"/>
       <c r="AC277" s="30"/>
       <c r="AD277" s="30"/>
+      <c r="AE277" s="30"/>
     </row>
     <row r="278" ht="19.5" customHeight="1">
       <c r="A278" s="30"/>
@@ -11027,6 +11312,7 @@
       <c r="AB278" s="30"/>
       <c r="AC278" s="30"/>
       <c r="AD278" s="30"/>
+      <c r="AE278" s="30"/>
     </row>
     <row r="279" ht="19.5" customHeight="1">
       <c r="A279" s="30"/>
@@ -11059,6 +11345,7 @@
       <c r="AB279" s="30"/>
       <c r="AC279" s="30"/>
       <c r="AD279" s="30"/>
+      <c r="AE279" s="30"/>
     </row>
     <row r="280" ht="19.5" customHeight="1">
       <c r="A280" s="30"/>
@@ -11091,6 +11378,7 @@
       <c r="AB280" s="30"/>
       <c r="AC280" s="30"/>
       <c r="AD280" s="30"/>
+      <c r="AE280" s="30"/>
     </row>
     <row r="281" ht="19.5" customHeight="1">
       <c r="A281" s="30"/>
@@ -11123,6 +11411,7 @@
       <c r="AB281" s="30"/>
       <c r="AC281" s="30"/>
       <c r="AD281" s="30"/>
+      <c r="AE281" s="30"/>
     </row>
     <row r="282" ht="19.5" customHeight="1">
       <c r="A282" s="30"/>
@@ -11155,6 +11444,7 @@
       <c r="AB282" s="30"/>
       <c r="AC282" s="30"/>
       <c r="AD282" s="30"/>
+      <c r="AE282" s="30"/>
     </row>
     <row r="283" ht="19.5" customHeight="1">
       <c r="A283" s="30"/>
@@ -11187,6 +11477,7 @@
       <c r="AB283" s="30"/>
       <c r="AC283" s="30"/>
       <c r="AD283" s="30"/>
+      <c r="AE283" s="30"/>
     </row>
     <row r="284" ht="19.5" customHeight="1">
       <c r="A284" s="30"/>
@@ -11219,6 +11510,7 @@
       <c r="AB284" s="30"/>
       <c r="AC284" s="30"/>
       <c r="AD284" s="30"/>
+      <c r="AE284" s="30"/>
     </row>
     <row r="285" ht="19.5" customHeight="1">
       <c r="A285" s="30"/>
@@ -11251,6 +11543,7 @@
       <c r="AB285" s="30"/>
       <c r="AC285" s="30"/>
       <c r="AD285" s="30"/>
+      <c r="AE285" s="30"/>
     </row>
     <row r="286" ht="19.5" customHeight="1">
       <c r="A286" s="30"/>
@@ -11283,6 +11576,7 @@
       <c r="AB286" s="30"/>
       <c r="AC286" s="30"/>
       <c r="AD286" s="30"/>
+      <c r="AE286" s="30"/>
     </row>
     <row r="287" ht="19.5" customHeight="1">
       <c r="A287" s="30"/>
@@ -11315,6 +11609,7 @@
       <c r="AB287" s="30"/>
       <c r="AC287" s="30"/>
       <c r="AD287" s="30"/>
+      <c r="AE287" s="30"/>
     </row>
     <row r="288" ht="19.5" customHeight="1">
       <c r="A288" s="30"/>
@@ -11347,6 +11642,7 @@
       <c r="AB288" s="30"/>
       <c r="AC288" s="30"/>
       <c r="AD288" s="30"/>
+      <c r="AE288" s="30"/>
     </row>
     <row r="289" ht="19.5" customHeight="1">
       <c r="A289" s="30"/>
@@ -11379,6 +11675,7 @@
       <c r="AB289" s="30"/>
       <c r="AC289" s="30"/>
       <c r="AD289" s="30"/>
+      <c r="AE289" s="30"/>
     </row>
     <row r="290" ht="19.5" customHeight="1">
       <c r="A290" s="30"/>
@@ -11411,6 +11708,7 @@
       <c r="AB290" s="30"/>
       <c r="AC290" s="30"/>
       <c r="AD290" s="30"/>
+      <c r="AE290" s="30"/>
     </row>
     <row r="291" ht="19.5" customHeight="1">
       <c r="A291" s="30"/>
@@ -11443,6 +11741,7 @@
       <c r="AB291" s="30"/>
       <c r="AC291" s="30"/>
       <c r="AD291" s="30"/>
+      <c r="AE291" s="30"/>
     </row>
     <row r="292" ht="19.5" customHeight="1">
       <c r="A292" s="30"/>
@@ -11475,6 +11774,7 @@
       <c r="AB292" s="30"/>
       <c r="AC292" s="30"/>
       <c r="AD292" s="30"/>
+      <c r="AE292" s="30"/>
     </row>
     <row r="293" ht="19.5" customHeight="1">
       <c r="A293" s="30"/>
@@ -11507,6 +11807,7 @@
       <c r="AB293" s="30"/>
       <c r="AC293" s="30"/>
       <c r="AD293" s="30"/>
+      <c r="AE293" s="30"/>
     </row>
     <row r="294" ht="19.5" customHeight="1">
       <c r="A294" s="30"/>
@@ -11539,6 +11840,7 @@
       <c r="AB294" s="30"/>
       <c r="AC294" s="30"/>
       <c r="AD294" s="30"/>
+      <c r="AE294" s="30"/>
     </row>
     <row r="295" ht="19.5" customHeight="1">
       <c r="A295" s="30"/>
@@ -11571,6 +11873,7 @@
       <c r="AB295" s="30"/>
       <c r="AC295" s="30"/>
       <c r="AD295" s="30"/>
+      <c r="AE295" s="30"/>
     </row>
     <row r="296" ht="19.5" customHeight="1">
       <c r="A296" s="30"/>
@@ -11603,6 +11906,7 @@
       <c r="AB296" s="30"/>
       <c r="AC296" s="30"/>
       <c r="AD296" s="30"/>
+      <c r="AE296" s="30"/>
     </row>
     <row r="297" ht="19.5" customHeight="1">
       <c r="A297" s="30"/>
@@ -11635,6 +11939,7 @@
       <c r="AB297" s="30"/>
       <c r="AC297" s="30"/>
       <c r="AD297" s="30"/>
+      <c r="AE297" s="30"/>
     </row>
     <row r="298" ht="19.5" customHeight="1">
       <c r="A298" s="30"/>
@@ -11667,6 +11972,7 @@
       <c r="AB298" s="30"/>
       <c r="AC298" s="30"/>
       <c r="AD298" s="30"/>
+      <c r="AE298" s="30"/>
     </row>
     <row r="299" ht="19.5" customHeight="1">
       <c r="A299" s="30"/>
@@ -11699,6 +12005,7 @@
       <c r="AB299" s="30"/>
       <c r="AC299" s="30"/>
       <c r="AD299" s="30"/>
+      <c r="AE299" s="30"/>
     </row>
     <row r="300" ht="19.5" customHeight="1">
       <c r="A300" s="30"/>
@@ -11731,6 +12038,7 @@
       <c r="AB300" s="30"/>
       <c r="AC300" s="30"/>
       <c r="AD300" s="30"/>
+      <c r="AE300" s="30"/>
     </row>
     <row r="301" ht="19.5" customHeight="1">
       <c r="A301" s="30"/>
@@ -11763,6 +12071,7 @@
       <c r="AB301" s="30"/>
       <c r="AC301" s="30"/>
       <c r="AD301" s="30"/>
+      <c r="AE301" s="30"/>
     </row>
     <row r="302" ht="19.5" customHeight="1">
       <c r="A302" s="30"/>
@@ -11795,6 +12104,7 @@
       <c r="AB302" s="30"/>
       <c r="AC302" s="30"/>
       <c r="AD302" s="30"/>
+      <c r="AE302" s="30"/>
     </row>
     <row r="303" ht="19.5" customHeight="1">
       <c r="A303" s="30"/>
@@ -11827,6 +12137,7 @@
       <c r="AB303" s="30"/>
       <c r="AC303" s="30"/>
       <c r="AD303" s="30"/>
+      <c r="AE303" s="30"/>
     </row>
     <row r="304" ht="19.5" customHeight="1">
       <c r="A304" s="30"/>
@@ -11859,6 +12170,7 @@
       <c r="AB304" s="30"/>
       <c r="AC304" s="30"/>
       <c r="AD304" s="30"/>
+      <c r="AE304" s="30"/>
     </row>
     <row r="305" ht="19.5" customHeight="1">
       <c r="A305" s="30"/>
@@ -11891,6 +12203,7 @@
       <c r="AB305" s="30"/>
       <c r="AC305" s="30"/>
       <c r="AD305" s="30"/>
+      <c r="AE305" s="30"/>
     </row>
     <row r="306" ht="19.5" customHeight="1">
       <c r="A306" s="30"/>
@@ -11923,6 +12236,7 @@
       <c r="AB306" s="30"/>
       <c r="AC306" s="30"/>
       <c r="AD306" s="30"/>
+      <c r="AE306" s="30"/>
     </row>
     <row r="307" ht="19.5" customHeight="1">
       <c r="A307" s="30"/>
@@ -11955,6 +12269,7 @@
       <c r="AB307" s="30"/>
       <c r="AC307" s="30"/>
       <c r="AD307" s="30"/>
+      <c r="AE307" s="30"/>
     </row>
     <row r="308" ht="19.5" customHeight="1">
       <c r="A308" s="30"/>
@@ -11987,6 +12302,7 @@
       <c r="AB308" s="30"/>
       <c r="AC308" s="30"/>
       <c r="AD308" s="30"/>
+      <c r="AE308" s="30"/>
     </row>
     <row r="309" ht="19.5" customHeight="1">
       <c r="A309" s="30"/>
@@ -12019,6 +12335,7 @@
       <c r="AB309" s="30"/>
       <c r="AC309" s="30"/>
       <c r="AD309" s="30"/>
+      <c r="AE309" s="30"/>
     </row>
     <row r="310" ht="19.5" customHeight="1">
       <c r="A310" s="30"/>
@@ -12051,6 +12368,7 @@
       <c r="AB310" s="30"/>
       <c r="AC310" s="30"/>
       <c r="AD310" s="30"/>
+      <c r="AE310" s="30"/>
     </row>
     <row r="311" ht="19.5" customHeight="1">
       <c r="A311" s="30"/>
@@ -12083,6 +12401,7 @@
       <c r="AB311" s="30"/>
       <c r="AC311" s="30"/>
       <c r="AD311" s="30"/>
+      <c r="AE311" s="30"/>
     </row>
     <row r="312" ht="19.5" customHeight="1">
       <c r="A312" s="30"/>
@@ -12115,6 +12434,7 @@
       <c r="AB312" s="30"/>
       <c r="AC312" s="30"/>
       <c r="AD312" s="30"/>
+      <c r="AE312" s="30"/>
     </row>
     <row r="313" ht="19.5" customHeight="1">
       <c r="A313" s="30"/>
@@ -12147,6 +12467,7 @@
       <c r="AB313" s="30"/>
       <c r="AC313" s="30"/>
       <c r="AD313" s="30"/>
+      <c r="AE313" s="30"/>
     </row>
     <row r="314" ht="19.5" customHeight="1">
       <c r="A314" s="30"/>
@@ -12179,6 +12500,7 @@
       <c r="AB314" s="30"/>
       <c r="AC314" s="30"/>
       <c r="AD314" s="30"/>
+      <c r="AE314" s="30"/>
     </row>
     <row r="315" ht="19.5" customHeight="1">
       <c r="A315" s="30"/>
@@ -12211,6 +12533,7 @@
       <c r="AB315" s="30"/>
       <c r="AC315" s="30"/>
       <c r="AD315" s="30"/>
+      <c r="AE315" s="30"/>
     </row>
     <row r="316" ht="19.5" customHeight="1">
       <c r="A316" s="30"/>
@@ -12243,6 +12566,7 @@
       <c r="AB316" s="30"/>
       <c r="AC316" s="30"/>
       <c r="AD316" s="30"/>
+      <c r="AE316" s="30"/>
     </row>
     <row r="317" ht="19.5" customHeight="1">
       <c r="A317" s="30"/>
@@ -12275,6 +12599,7 @@
       <c r="AB317" s="30"/>
       <c r="AC317" s="30"/>
       <c r="AD317" s="30"/>
+      <c r="AE317" s="30"/>
     </row>
     <row r="318" ht="19.5" customHeight="1">
       <c r="A318" s="30"/>
@@ -12307,6 +12632,7 @@
       <c r="AB318" s="30"/>
       <c r="AC318" s="30"/>
       <c r="AD318" s="30"/>
+      <c r="AE318" s="30"/>
     </row>
     <row r="319" ht="19.5" customHeight="1">
       <c r="A319" s="30"/>
@@ -12339,6 +12665,7 @@
       <c r="AB319" s="30"/>
       <c r="AC319" s="30"/>
       <c r="AD319" s="30"/>
+      <c r="AE319" s="30"/>
     </row>
     <row r="320" ht="19.5" customHeight="1">
       <c r="A320" s="30"/>
@@ -12371,6 +12698,7 @@
       <c r="AB320" s="30"/>
       <c r="AC320" s="30"/>
       <c r="AD320" s="30"/>
+      <c r="AE320" s="30"/>
     </row>
     <row r="321" ht="19.5" customHeight="1">
       <c r="A321" s="30"/>
@@ -12403,6 +12731,7 @@
       <c r="AB321" s="30"/>
       <c r="AC321" s="30"/>
       <c r="AD321" s="30"/>
+      <c r="AE321" s="30"/>
     </row>
     <row r="322" ht="19.5" customHeight="1">
       <c r="A322" s="30"/>
@@ -12435,6 +12764,7 @@
       <c r="AB322" s="30"/>
       <c r="AC322" s="30"/>
       <c r="AD322" s="30"/>
+      <c r="AE322" s="30"/>
     </row>
     <row r="323" ht="19.5" customHeight="1">
       <c r="A323" s="30"/>
@@ -12467,6 +12797,7 @@
       <c r="AB323" s="30"/>
       <c r="AC323" s="30"/>
       <c r="AD323" s="30"/>
+      <c r="AE323" s="30"/>
     </row>
     <row r="324" ht="19.5" customHeight="1">
       <c r="A324" s="30"/>
@@ -12499,6 +12830,7 @@
       <c r="AB324" s="30"/>
       <c r="AC324" s="30"/>
       <c r="AD324" s="30"/>
+      <c r="AE324" s="30"/>
     </row>
     <row r="325" ht="19.5" customHeight="1">
       <c r="A325" s="30"/>
@@ -12531,6 +12863,7 @@
       <c r="AB325" s="30"/>
       <c r="AC325" s="30"/>
       <c r="AD325" s="30"/>
+      <c r="AE325" s="30"/>
     </row>
     <row r="326" ht="19.5" customHeight="1">
       <c r="A326" s="30"/>
@@ -12563,6 +12896,7 @@
       <c r="AB326" s="30"/>
       <c r="AC326" s="30"/>
       <c r="AD326" s="30"/>
+      <c r="AE326" s="30"/>
     </row>
     <row r="327" ht="19.5" customHeight="1">
       <c r="A327" s="30"/>
@@ -12595,6 +12929,7 @@
       <c r="AB327" s="30"/>
       <c r="AC327" s="30"/>
       <c r="AD327" s="30"/>
+      <c r="AE327" s="30"/>
     </row>
     <row r="328" ht="19.5" customHeight="1">
       <c r="A328" s="30"/>
@@ -12627,6 +12962,7 @@
       <c r="AB328" s="30"/>
       <c r="AC328" s="30"/>
       <c r="AD328" s="30"/>
+      <c r="AE328" s="30"/>
     </row>
     <row r="329" ht="19.5" customHeight="1">
       <c r="A329" s="30"/>
@@ -12659,6 +12995,7 @@
       <c r="AB329" s="30"/>
       <c r="AC329" s="30"/>
       <c r="AD329" s="30"/>
+      <c r="AE329" s="30"/>
     </row>
     <row r="330" ht="19.5" customHeight="1">
       <c r="A330" s="30"/>
@@ -12691,6 +13028,7 @@
       <c r="AB330" s="30"/>
       <c r="AC330" s="30"/>
       <c r="AD330" s="30"/>
+      <c r="AE330" s="30"/>
     </row>
     <row r="331" ht="19.5" customHeight="1">
       <c r="A331" s="30"/>
@@ -12723,6 +13061,7 @@
       <c r="AB331" s="30"/>
       <c r="AC331" s="30"/>
       <c r="AD331" s="30"/>
+      <c r="AE331" s="30"/>
     </row>
     <row r="332" ht="19.5" customHeight="1">
       <c r="A332" s="30"/>
@@ -12755,6 +13094,7 @@
       <c r="AB332" s="30"/>
       <c r="AC332" s="30"/>
       <c r="AD332" s="30"/>
+      <c r="AE332" s="30"/>
     </row>
     <row r="333" ht="19.5" customHeight="1">
       <c r="A333" s="30"/>
@@ -12787,6 +13127,7 @@
       <c r="AB333" s="30"/>
       <c r="AC333" s="30"/>
       <c r="AD333" s="30"/>
+      <c r="AE333" s="30"/>
     </row>
     <row r="334" ht="19.5" customHeight="1">
       <c r="A334" s="30"/>
@@ -12819,6 +13160,7 @@
       <c r="AB334" s="30"/>
       <c r="AC334" s="30"/>
       <c r="AD334" s="30"/>
+      <c r="AE334" s="30"/>
     </row>
     <row r="335" ht="19.5" customHeight="1">
       <c r="A335" s="30"/>
@@ -12851,6 +13193,7 @@
       <c r="AB335" s="30"/>
       <c r="AC335" s="30"/>
       <c r="AD335" s="30"/>
+      <c r="AE335" s="30"/>
     </row>
     <row r="336" ht="19.5" customHeight="1">
       <c r="A336" s="30"/>
@@ -12883,6 +13226,7 @@
       <c r="AB336" s="30"/>
       <c r="AC336" s="30"/>
       <c r="AD336" s="30"/>
+      <c r="AE336" s="30"/>
     </row>
     <row r="337" ht="19.5" customHeight="1">
       <c r="A337" s="30"/>
@@ -12915,6 +13259,7 @@
       <c r="AB337" s="30"/>
       <c r="AC337" s="30"/>
       <c r="AD337" s="30"/>
+      <c r="AE337" s="30"/>
     </row>
     <row r="338" ht="19.5" customHeight="1">
       <c r="A338" s="30"/>
@@ -12947,6 +13292,7 @@
       <c r="AB338" s="30"/>
       <c r="AC338" s="30"/>
       <c r="AD338" s="30"/>
+      <c r="AE338" s="30"/>
     </row>
     <row r="339" ht="19.5" customHeight="1">
       <c r="A339" s="30"/>
@@ -12979,6 +13325,7 @@
       <c r="AB339" s="30"/>
       <c r="AC339" s="30"/>
       <c r="AD339" s="30"/>
+      <c r="AE339" s="30"/>
     </row>
     <row r="340" ht="19.5" customHeight="1">
       <c r="A340" s="30"/>
@@ -13011,6 +13358,7 @@
       <c r="AB340" s="30"/>
       <c r="AC340" s="30"/>
       <c r="AD340" s="30"/>
+      <c r="AE340" s="30"/>
     </row>
     <row r="341" ht="19.5" customHeight="1">
       <c r="A341" s="30"/>
@@ -13043,6 +13391,7 @@
       <c r="AB341" s="30"/>
       <c r="AC341" s="30"/>
       <c r="AD341" s="30"/>
+      <c r="AE341" s="30"/>
     </row>
     <row r="342" ht="19.5" customHeight="1">
       <c r="A342" s="30"/>
@@ -13075,6 +13424,7 @@
       <c r="AB342" s="30"/>
       <c r="AC342" s="30"/>
       <c r="AD342" s="30"/>
+      <c r="AE342" s="30"/>
     </row>
     <row r="343" ht="19.5" customHeight="1">
       <c r="A343" s="30"/>
@@ -13107,6 +13457,7 @@
       <c r="AB343" s="30"/>
       <c r="AC343" s="30"/>
       <c r="AD343" s="30"/>
+      <c r="AE343" s="30"/>
     </row>
     <row r="344" ht="19.5" customHeight="1">
       <c r="A344" s="30"/>
@@ -13139,6 +13490,7 @@
       <c r="AB344" s="30"/>
       <c r="AC344" s="30"/>
       <c r="AD344" s="30"/>
+      <c r="AE344" s="30"/>
     </row>
     <row r="345" ht="19.5" customHeight="1">
       <c r="A345" s="30"/>
@@ -13171,6 +13523,7 @@
       <c r="AB345" s="30"/>
       <c r="AC345" s="30"/>
       <c r="AD345" s="30"/>
+      <c r="AE345" s="30"/>
     </row>
     <row r="346" ht="19.5" customHeight="1">
       <c r="A346" s="30"/>
@@ -13203,6 +13556,7 @@
       <c r="AB346" s="30"/>
       <c r="AC346" s="30"/>
       <c r="AD346" s="30"/>
+      <c r="AE346" s="30"/>
     </row>
     <row r="347" ht="19.5" customHeight="1">
       <c r="A347" s="30"/>
@@ -13235,6 +13589,7 @@
       <c r="AB347" s="30"/>
       <c r="AC347" s="30"/>
       <c r="AD347" s="30"/>
+      <c r="AE347" s="30"/>
     </row>
     <row r="348" ht="19.5" customHeight="1">
       <c r="A348" s="30"/>
@@ -13267,6 +13622,7 @@
       <c r="AB348" s="30"/>
       <c r="AC348" s="30"/>
       <c r="AD348" s="30"/>
+      <c r="AE348" s="30"/>
     </row>
     <row r="349" ht="19.5" customHeight="1">
       <c r="A349" s="30"/>
@@ -13299,6 +13655,7 @@
       <c r="AB349" s="30"/>
       <c r="AC349" s="30"/>
       <c r="AD349" s="30"/>
+      <c r="AE349" s="30"/>
     </row>
     <row r="350" ht="19.5" customHeight="1">
       <c r="A350" s="30"/>
@@ -13331,6 +13688,7 @@
       <c r="AB350" s="30"/>
       <c r="AC350" s="30"/>
       <c r="AD350" s="30"/>
+      <c r="AE350" s="30"/>
     </row>
     <row r="351" ht="19.5" customHeight="1">
       <c r="A351" s="30"/>
@@ -13363,6 +13721,7 @@
       <c r="AB351" s="30"/>
       <c r="AC351" s="30"/>
       <c r="AD351" s="30"/>
+      <c r="AE351" s="30"/>
     </row>
     <row r="352" ht="19.5" customHeight="1">
       <c r="A352" s="30"/>
@@ -13395,6 +13754,7 @@
       <c r="AB352" s="30"/>
       <c r="AC352" s="30"/>
       <c r="AD352" s="30"/>
+      <c r="AE352" s="30"/>
     </row>
     <row r="353" ht="19.5" customHeight="1">
       <c r="A353" s="30"/>
@@ -13427,6 +13787,7 @@
       <c r="AB353" s="30"/>
       <c r="AC353" s="30"/>
       <c r="AD353" s="30"/>
+      <c r="AE353" s="30"/>
     </row>
     <row r="354" ht="19.5" customHeight="1">
       <c r="A354" s="30"/>
@@ -13459,6 +13820,7 @@
       <c r="AB354" s="30"/>
       <c r="AC354" s="30"/>
       <c r="AD354" s="30"/>
+      <c r="AE354" s="30"/>
     </row>
     <row r="355" ht="19.5" customHeight="1">
       <c r="A355" s="30"/>
@@ -13491,6 +13853,7 @@
       <c r="AB355" s="30"/>
       <c r="AC355" s="30"/>
       <c r="AD355" s="30"/>
+      <c r="AE355" s="30"/>
     </row>
     <row r="356" ht="19.5" customHeight="1">
       <c r="A356" s="30"/>
@@ -13523,6 +13886,7 @@
       <c r="AB356" s="30"/>
       <c r="AC356" s="30"/>
       <c r="AD356" s="30"/>
+      <c r="AE356" s="30"/>
     </row>
     <row r="357" ht="19.5" customHeight="1">
       <c r="A357" s="30"/>
@@ -13555,6 +13919,7 @@
       <c r="AB357" s="30"/>
       <c r="AC357" s="30"/>
       <c r="AD357" s="30"/>
+      <c r="AE357" s="30"/>
     </row>
     <row r="358" ht="19.5" customHeight="1">
       <c r="A358" s="30"/>
@@ -13587,6 +13952,7 @@
       <c r="AB358" s="30"/>
       <c r="AC358" s="30"/>
       <c r="AD358" s="30"/>
+      <c r="AE358" s="30"/>
     </row>
     <row r="359" ht="19.5" customHeight="1">
       <c r="A359" s="30"/>
@@ -13619,6 +13985,7 @@
       <c r="AB359" s="30"/>
       <c r="AC359" s="30"/>
       <c r="AD359" s="30"/>
+      <c r="AE359" s="30"/>
     </row>
     <row r="360" ht="19.5" customHeight="1">
       <c r="A360" s="30"/>
@@ -13651,6 +14018,7 @@
       <c r="AB360" s="30"/>
       <c r="AC360" s="30"/>
       <c r="AD360" s="30"/>
+      <c r="AE360" s="30"/>
     </row>
     <row r="361" ht="19.5" customHeight="1">
       <c r="A361" s="30"/>
@@ -13683,6 +14051,7 @@
       <c r="AB361" s="30"/>
       <c r="AC361" s="30"/>
       <c r="AD361" s="30"/>
+      <c r="AE361" s="30"/>
     </row>
     <row r="362" ht="19.5" customHeight="1">
       <c r="A362" s="30"/>
@@ -13715,6 +14084,7 @@
       <c r="AB362" s="30"/>
       <c r="AC362" s="30"/>
       <c r="AD362" s="30"/>
+      <c r="AE362" s="30"/>
     </row>
     <row r="363" ht="19.5" customHeight="1">
       <c r="A363" s="30"/>
@@ -13747,6 +14117,7 @@
       <c r="AB363" s="30"/>
       <c r="AC363" s="30"/>
       <c r="AD363" s="30"/>
+      <c r="AE363" s="30"/>
     </row>
     <row r="364" ht="19.5" customHeight="1">
       <c r="A364" s="30"/>
@@ -13779,6 +14150,7 @@
       <c r="AB364" s="30"/>
       <c r="AC364" s="30"/>
       <c r="AD364" s="30"/>
+      <c r="AE364" s="30"/>
     </row>
     <row r="365" ht="19.5" customHeight="1">
       <c r="A365" s="30"/>
@@ -13811,6 +14183,7 @@
       <c r="AB365" s="30"/>
       <c r="AC365" s="30"/>
       <c r="AD365" s="30"/>
+      <c r="AE365" s="30"/>
     </row>
     <row r="366" ht="19.5" customHeight="1">
       <c r="A366" s="30"/>
@@ -13843,6 +14216,7 @@
       <c r="AB366" s="30"/>
       <c r="AC366" s="30"/>
       <c r="AD366" s="30"/>
+      <c r="AE366" s="30"/>
     </row>
     <row r="367" ht="19.5" customHeight="1">
       <c r="A367" s="30"/>
@@ -13875,6 +14249,7 @@
       <c r="AB367" s="30"/>
       <c r="AC367" s="30"/>
       <c r="AD367" s="30"/>
+      <c r="AE367" s="30"/>
     </row>
     <row r="368" ht="19.5" customHeight="1">
       <c r="A368" s="30"/>
@@ -13907,6 +14282,7 @@
       <c r="AB368" s="30"/>
       <c r="AC368" s="30"/>
       <c r="AD368" s="30"/>
+      <c r="AE368" s="30"/>
     </row>
     <row r="369" ht="19.5" customHeight="1">
       <c r="A369" s="30"/>
@@ -13939,6 +14315,7 @@
       <c r="AB369" s="30"/>
       <c r="AC369" s="30"/>
       <c r="AD369" s="30"/>
+      <c r="AE369" s="30"/>
     </row>
     <row r="370" ht="19.5" customHeight="1">
       <c r="A370" s="30"/>
@@ -13971,6 +14348,7 @@
       <c r="AB370" s="30"/>
       <c r="AC370" s="30"/>
       <c r="AD370" s="30"/>
+      <c r="AE370" s="30"/>
     </row>
     <row r="371" ht="19.5" customHeight="1">
       <c r="A371" s="30"/>
@@ -14003,6 +14381,7 @@
       <c r="AB371" s="30"/>
       <c r="AC371" s="30"/>
       <c r="AD371" s="30"/>
+      <c r="AE371" s="30"/>
     </row>
     <row r="372" ht="19.5" customHeight="1">
       <c r="A372" s="30"/>
@@ -14035,6 +14414,7 @@
       <c r="AB372" s="30"/>
       <c r="AC372" s="30"/>
       <c r="AD372" s="30"/>
+      <c r="AE372" s="30"/>
     </row>
     <row r="373" ht="19.5" customHeight="1">
       <c r="A373" s="30"/>
@@ -14067,6 +14447,7 @@
       <c r="AB373" s="30"/>
       <c r="AC373" s="30"/>
       <c r="AD373" s="30"/>
+      <c r="AE373" s="30"/>
     </row>
     <row r="374" ht="19.5" customHeight="1">
       <c r="A374" s="30"/>
@@ -14099,6 +14480,7 @@
       <c r="AB374" s="30"/>
       <c r="AC374" s="30"/>
       <c r="AD374" s="30"/>
+      <c r="AE374" s="30"/>
     </row>
     <row r="375" ht="19.5" customHeight="1">
       <c r="A375" s="30"/>
@@ -14131,6 +14513,7 @@
       <c r="AB375" s="30"/>
       <c r="AC375" s="30"/>
       <c r="AD375" s="30"/>
+      <c r="AE375" s="30"/>
     </row>
     <row r="376" ht="19.5" customHeight="1">
       <c r="A376" s="30"/>
@@ -14163,6 +14546,7 @@
       <c r="AB376" s="30"/>
       <c r="AC376" s="30"/>
       <c r="AD376" s="30"/>
+      <c r="AE376" s="30"/>
     </row>
     <row r="377" ht="19.5" customHeight="1">
       <c r="A377" s="30"/>
@@ -14195,6 +14579,7 @@
       <c r="AB377" s="30"/>
       <c r="AC377" s="30"/>
       <c r="AD377" s="30"/>
+      <c r="AE377" s="30"/>
     </row>
     <row r="378" ht="19.5" customHeight="1">
       <c r="A378" s="30"/>
@@ -14227,6 +14612,7 @@
       <c r="AB378" s="30"/>
       <c r="AC378" s="30"/>
       <c r="AD378" s="30"/>
+      <c r="AE378" s="30"/>
     </row>
     <row r="379" ht="19.5" customHeight="1">
       <c r="A379" s="30"/>
@@ -14259,6 +14645,7 @@
       <c r="AB379" s="30"/>
       <c r="AC379" s="30"/>
       <c r="AD379" s="30"/>
+      <c r="AE379" s="30"/>
     </row>
     <row r="380" ht="19.5" customHeight="1">
       <c r="A380" s="30"/>
@@ -14291,6 +14678,7 @@
       <c r="AB380" s="30"/>
       <c r="AC380" s="30"/>
       <c r="AD380" s="30"/>
+      <c r="AE380" s="30"/>
     </row>
     <row r="381" ht="19.5" customHeight="1">
       <c r="A381" s="30"/>
@@ -14323,6 +14711,7 @@
       <c r="AB381" s="30"/>
       <c r="AC381" s="30"/>
       <c r="AD381" s="30"/>
+      <c r="AE381" s="30"/>
     </row>
     <row r="382" ht="19.5" customHeight="1">
       <c r="A382" s="30"/>
@@ -14355,6 +14744,7 @@
       <c r="AB382" s="30"/>
       <c r="AC382" s="30"/>
       <c r="AD382" s="30"/>
+      <c r="AE382" s="30"/>
     </row>
     <row r="383" ht="19.5" customHeight="1">
       <c r="A383" s="30"/>
@@ -14387,6 +14777,7 @@
       <c r="AB383" s="30"/>
       <c r="AC383" s="30"/>
       <c r="AD383" s="30"/>
+      <c r="AE383" s="30"/>
     </row>
     <row r="384" ht="19.5" customHeight="1">
       <c r="A384" s="30"/>
@@ -14419,6 +14810,7 @@
       <c r="AB384" s="30"/>
       <c r="AC384" s="30"/>
       <c r="AD384" s="30"/>
+      <c r="AE384" s="30"/>
     </row>
     <row r="385" ht="19.5" customHeight="1">
       <c r="A385" s="30"/>
@@ -14451,6 +14843,7 @@
       <c r="AB385" s="30"/>
       <c r="AC385" s="30"/>
       <c r="AD385" s="30"/>
+      <c r="AE385" s="30"/>
     </row>
     <row r="386" ht="19.5" customHeight="1">
       <c r="A386" s="30"/>
@@ -14483,6 +14876,7 @@
       <c r="AB386" s="30"/>
       <c r="AC386" s="30"/>
       <c r="AD386" s="30"/>
+      <c r="AE386" s="30"/>
     </row>
     <row r="387" ht="19.5" customHeight="1">
       <c r="A387" s="30"/>
@@ -14515,6 +14909,7 @@
       <c r="AB387" s="30"/>
       <c r="AC387" s="30"/>
       <c r="AD387" s="30"/>
+      <c r="AE387" s="30"/>
     </row>
     <row r="388" ht="19.5" customHeight="1">
       <c r="A388" s="30"/>
@@ -14547,6 +14942,7 @@
       <c r="AB388" s="30"/>
       <c r="AC388" s="30"/>
       <c r="AD388" s="30"/>
+      <c r="AE388" s="30"/>
     </row>
     <row r="389" ht="19.5" customHeight="1">
       <c r="A389" s="30"/>
@@ -14579,6 +14975,7 @@
       <c r="AB389" s="30"/>
       <c r="AC389" s="30"/>
       <c r="AD389" s="30"/>
+      <c r="AE389" s="30"/>
     </row>
     <row r="390" ht="19.5" customHeight="1">
       <c r="A390" s="30"/>
@@ -14611,6 +15008,7 @@
       <c r="AB390" s="30"/>
       <c r="AC390" s="30"/>
       <c r="AD390" s="30"/>
+      <c r="AE390" s="30"/>
     </row>
     <row r="391" ht="19.5" customHeight="1">
       <c r="A391" s="30"/>
@@ -14643,6 +15041,7 @@
       <c r="AB391" s="30"/>
       <c r="AC391" s="30"/>
       <c r="AD391" s="30"/>
+      <c r="AE391" s="30"/>
     </row>
     <row r="392" ht="19.5" customHeight="1">
       <c r="A392" s="30"/>
@@ -14675,6 +15074,7 @@
       <c r="AB392" s="30"/>
       <c r="AC392" s="30"/>
       <c r="AD392" s="30"/>
+      <c r="AE392" s="30"/>
     </row>
     <row r="393" ht="19.5" customHeight="1">
       <c r="A393" s="30"/>
@@ -14707,6 +15107,7 @@
       <c r="AB393" s="30"/>
       <c r="AC393" s="30"/>
       <c r="AD393" s="30"/>
+      <c r="AE393" s="30"/>
     </row>
     <row r="394" ht="19.5" customHeight="1">
       <c r="A394" s="30"/>
@@ -14739,6 +15140,7 @@
       <c r="AB394" s="30"/>
       <c r="AC394" s="30"/>
       <c r="AD394" s="30"/>
+      <c r="AE394" s="30"/>
     </row>
     <row r="395" ht="19.5" customHeight="1">
       <c r="A395" s="30"/>
@@ -14771,6 +15173,7 @@
       <c r="AB395" s="30"/>
       <c r="AC395" s="30"/>
       <c r="AD395" s="30"/>
+      <c r="AE395" s="30"/>
     </row>
     <row r="396" ht="19.5" customHeight="1">
       <c r="A396" s="30"/>
@@ -14803,6 +15206,7 @@
       <c r="AB396" s="30"/>
       <c r="AC396" s="30"/>
       <c r="AD396" s="30"/>
+      <c r="AE396" s="30"/>
     </row>
     <row r="397" ht="19.5" customHeight="1">
       <c r="A397" s="30"/>
@@ -14835,6 +15239,7 @@
       <c r="AB397" s="30"/>
       <c r="AC397" s="30"/>
       <c r="AD397" s="30"/>
+      <c r="AE397" s="30"/>
     </row>
     <row r="398" ht="19.5" customHeight="1">
       <c r="A398" s="30"/>
@@ -14867,6 +15272,7 @@
       <c r="AB398" s="30"/>
       <c r="AC398" s="30"/>
       <c r="AD398" s="30"/>
+      <c r="AE398" s="30"/>
     </row>
     <row r="399" ht="19.5" customHeight="1">
       <c r="A399" s="30"/>
@@ -14899,6 +15305,7 @@
       <c r="AB399" s="30"/>
       <c r="AC399" s="30"/>
       <c r="AD399" s="30"/>
+      <c r="AE399" s="30"/>
     </row>
     <row r="400" ht="19.5" customHeight="1">
       <c r="A400" s="30"/>
@@ -14931,6 +15338,7 @@
       <c r="AB400" s="30"/>
       <c r="AC400" s="30"/>
       <c r="AD400" s="30"/>
+      <c r="AE400" s="30"/>
     </row>
     <row r="401" ht="19.5" customHeight="1">
       <c r="A401" s="30"/>
@@ -14963,6 +15371,7 @@
       <c r="AB401" s="30"/>
       <c r="AC401" s="30"/>
       <c r="AD401" s="30"/>
+      <c r="AE401" s="30"/>
     </row>
     <row r="402" ht="19.5" customHeight="1">
       <c r="A402" s="30"/>
@@ -14995,6 +15404,7 @@
       <c r="AB402" s="30"/>
       <c r="AC402" s="30"/>
       <c r="AD402" s="30"/>
+      <c r="AE402" s="30"/>
     </row>
     <row r="403" ht="19.5" customHeight="1">
       <c r="A403" s="30"/>
@@ -15027,6 +15437,7 @@
       <c r="AB403" s="30"/>
       <c r="AC403" s="30"/>
       <c r="AD403" s="30"/>
+      <c r="AE403" s="30"/>
     </row>
     <row r="404" ht="19.5" customHeight="1">
       <c r="A404" s="30"/>
@@ -15059,6 +15470,7 @@
       <c r="AB404" s="30"/>
       <c r="AC404" s="30"/>
       <c r="AD404" s="30"/>
+      <c r="AE404" s="30"/>
     </row>
     <row r="405" ht="19.5" customHeight="1">
       <c r="A405" s="30"/>
@@ -15091,6 +15503,7 @@
       <c r="AB405" s="30"/>
       <c r="AC405" s="30"/>
       <c r="AD405" s="30"/>
+      <c r="AE405" s="30"/>
     </row>
     <row r="406" ht="19.5" customHeight="1">
       <c r="A406" s="30"/>
@@ -15123,6 +15536,7 @@
       <c r="AB406" s="30"/>
       <c r="AC406" s="30"/>
       <c r="AD406" s="30"/>
+      <c r="AE406" s="30"/>
     </row>
     <row r="407" ht="19.5" customHeight="1">
       <c r="A407" s="30"/>
@@ -15155,6 +15569,7 @@
       <c r="AB407" s="30"/>
       <c r="AC407" s="30"/>
       <c r="AD407" s="30"/>
+      <c r="AE407" s="30"/>
     </row>
     <row r="408" ht="19.5" customHeight="1">
       <c r="A408" s="30"/>
@@ -15187,6 +15602,7 @@
       <c r="AB408" s="30"/>
       <c r="AC408" s="30"/>
       <c r="AD408" s="30"/>
+      <c r="AE408" s="30"/>
     </row>
     <row r="409" ht="19.5" customHeight="1">
       <c r="A409" s="30"/>
@@ -15219,6 +15635,7 @@
       <c r="AB409" s="30"/>
       <c r="AC409" s="30"/>
       <c r="AD409" s="30"/>
+      <c r="AE409" s="30"/>
     </row>
     <row r="410" ht="19.5" customHeight="1">
       <c r="A410" s="30"/>
@@ -15251,6 +15668,7 @@
       <c r="AB410" s="30"/>
       <c r="AC410" s="30"/>
       <c r="AD410" s="30"/>
+      <c r="AE410" s="30"/>
     </row>
     <row r="411" ht="19.5" customHeight="1">
       <c r="A411" s="30"/>
@@ -15283,6 +15701,7 @@
       <c r="AB411" s="30"/>
       <c r="AC411" s="30"/>
       <c r="AD411" s="30"/>
+      <c r="AE411" s="30"/>
     </row>
     <row r="412" ht="19.5" customHeight="1">
       <c r="A412" s="30"/>
@@ -15315,6 +15734,7 @@
       <c r="AB412" s="30"/>
       <c r="AC412" s="30"/>
       <c r="AD412" s="30"/>
+      <c r="AE412" s="30"/>
     </row>
     <row r="413" ht="19.5" customHeight="1">
       <c r="A413" s="30"/>
@@ -15347,6 +15767,7 @@
       <c r="AB413" s="30"/>
       <c r="AC413" s="30"/>
       <c r="AD413" s="30"/>
+      <c r="AE413" s="30"/>
     </row>
     <row r="414" ht="19.5" customHeight="1">
       <c r="A414" s="30"/>
@@ -15379,6 +15800,7 @@
       <c r="AB414" s="30"/>
       <c r="AC414" s="30"/>
       <c r="AD414" s="30"/>
+      <c r="AE414" s="30"/>
     </row>
     <row r="415" ht="19.5" customHeight="1">
       <c r="A415" s="30"/>
@@ -15411,6 +15833,7 @@
       <c r="AB415" s="30"/>
       <c r="AC415" s="30"/>
       <c r="AD415" s="30"/>
+      <c r="AE415" s="30"/>
     </row>
     <row r="416" ht="19.5" customHeight="1">
       <c r="A416" s="30"/>
@@ -15443,6 +15866,7 @@
       <c r="AB416" s="30"/>
       <c r="AC416" s="30"/>
       <c r="AD416" s="30"/>
+      <c r="AE416" s="30"/>
     </row>
     <row r="417" ht="19.5" customHeight="1">
       <c r="A417" s="30"/>
@@ -15475,6 +15899,7 @@
       <c r="AB417" s="30"/>
       <c r="AC417" s="30"/>
       <c r="AD417" s="30"/>
+      <c r="AE417" s="30"/>
     </row>
     <row r="418" ht="19.5" customHeight="1">
       <c r="A418" s="30"/>
@@ -15507,6 +15932,7 @@
       <c r="AB418" s="30"/>
       <c r="AC418" s="30"/>
       <c r="AD418" s="30"/>
+      <c r="AE418" s="30"/>
     </row>
     <row r="419" ht="19.5" customHeight="1">
       <c r="A419" s="30"/>
@@ -15539,6 +15965,7 @@
       <c r="AB419" s="30"/>
       <c r="AC419" s="30"/>
       <c r="AD419" s="30"/>
+      <c r="AE419" s="30"/>
     </row>
     <row r="420" ht="19.5" customHeight="1">
       <c r="A420" s="30"/>
@@ -15571,6 +15998,7 @@
       <c r="AB420" s="30"/>
       <c r="AC420" s="30"/>
       <c r="AD420" s="30"/>
+      <c r="AE420" s="30"/>
     </row>
     <row r="421" ht="19.5" customHeight="1">
       <c r="A421" s="30"/>
@@ -15603,6 +16031,7 @@
       <c r="AB421" s="30"/>
       <c r="AC421" s="30"/>
       <c r="AD421" s="30"/>
+      <c r="AE421" s="30"/>
     </row>
     <row r="422" ht="19.5" customHeight="1">
       <c r="A422" s="30"/>
@@ -15635,6 +16064,7 @@
       <c r="AB422" s="30"/>
       <c r="AC422" s="30"/>
       <c r="AD422" s="30"/>
+      <c r="AE422" s="30"/>
     </row>
     <row r="423" ht="19.5" customHeight="1">
       <c r="A423" s="30"/>
@@ -15667,6 +16097,7 @@
       <c r="AB423" s="30"/>
       <c r="AC423" s="30"/>
       <c r="AD423" s="30"/>
+      <c r="AE423" s="30"/>
     </row>
     <row r="424" ht="19.5" customHeight="1">
       <c r="A424" s="30"/>
@@ -15699,6 +16130,7 @@
       <c r="AB424" s="30"/>
       <c r="AC424" s="30"/>
       <c r="AD424" s="30"/>
+      <c r="AE424" s="30"/>
     </row>
     <row r="425" ht="19.5" customHeight="1">
       <c r="A425" s="30"/>
@@ -15731,6 +16163,7 @@
       <c r="AB425" s="30"/>
       <c r="AC425" s="30"/>
       <c r="AD425" s="30"/>
+      <c r="AE425" s="30"/>
     </row>
     <row r="426" ht="19.5" customHeight="1">
       <c r="A426" s="30"/>
@@ -15763,6 +16196,7 @@
       <c r="AB426" s="30"/>
       <c r="AC426" s="30"/>
       <c r="AD426" s="30"/>
+      <c r="AE426" s="30"/>
     </row>
     <row r="427" ht="19.5" customHeight="1">
       <c r="A427" s="30"/>
@@ -15795,6 +16229,7 @@
       <c r="AB427" s="30"/>
       <c r="AC427" s="30"/>
       <c r="AD427" s="30"/>
+      <c r="AE427" s="30"/>
     </row>
     <row r="428" ht="19.5" customHeight="1">
       <c r="A428" s="30"/>
@@ -15827,6 +16262,7 @@
       <c r="AB428" s="30"/>
       <c r="AC428" s="30"/>
       <c r="AD428" s="30"/>
+      <c r="AE428" s="30"/>
     </row>
     <row r="429" ht="19.5" customHeight="1">
       <c r="A429" s="30"/>
@@ -15859,6 +16295,7 @@
       <c r="AB429" s="30"/>
       <c r="AC429" s="30"/>
       <c r="AD429" s="30"/>
+      <c r="AE429" s="30"/>
     </row>
     <row r="430" ht="19.5" customHeight="1">
       <c r="A430" s="30"/>
@@ -15891,6 +16328,7 @@
       <c r="AB430" s="30"/>
       <c r="AC430" s="30"/>
       <c r="AD430" s="30"/>
+      <c r="AE430" s="30"/>
     </row>
     <row r="431" ht="19.5" customHeight="1">
       <c r="A431" s="30"/>
@@ -15923,6 +16361,7 @@
       <c r="AB431" s="30"/>
       <c r="AC431" s="30"/>
       <c r="AD431" s="30"/>
+      <c r="AE431" s="30"/>
     </row>
     <row r="432" ht="19.5" customHeight="1">
       <c r="A432" s="30"/>
@@ -15955,6 +16394,7 @@
       <c r="AB432" s="30"/>
       <c r="AC432" s="30"/>
       <c r="AD432" s="30"/>
+      <c r="AE432" s="30"/>
     </row>
     <row r="433" ht="19.5" customHeight="1">
       <c r="A433" s="30"/>
@@ -15987,6 +16427,7 @@
       <c r="AB433" s="30"/>
       <c r="AC433" s="30"/>
       <c r="AD433" s="30"/>
+      <c r="AE433" s="30"/>
     </row>
     <row r="434" ht="19.5" customHeight="1">
       <c r="A434" s="30"/>
@@ -16019,6 +16460,7 @@
       <c r="AB434" s="30"/>
       <c r="AC434" s="30"/>
       <c r="AD434" s="30"/>
+      <c r="AE434" s="30"/>
     </row>
     <row r="435" ht="19.5" customHeight="1">
       <c r="A435" s="30"/>
@@ -16051,6 +16493,7 @@
       <c r="AB435" s="30"/>
       <c r="AC435" s="30"/>
       <c r="AD435" s="30"/>
+      <c r="AE435" s="30"/>
     </row>
     <row r="436" ht="19.5" customHeight="1">
       <c r="A436" s="30"/>
@@ -16083,6 +16526,7 @@
       <c r="AB436" s="30"/>
       <c r="AC436" s="30"/>
       <c r="AD436" s="30"/>
+      <c r="AE436" s="30"/>
     </row>
     <row r="437" ht="19.5" customHeight="1">
       <c r="A437" s="30"/>
@@ -16115,6 +16559,7 @@
       <c r="AB437" s="30"/>
       <c r="AC437" s="30"/>
       <c r="AD437" s="30"/>
+      <c r="AE437" s="30"/>
     </row>
     <row r="438" ht="19.5" customHeight="1">
       <c r="A438" s="30"/>
@@ -16147,6 +16592,7 @@
       <c r="AB438" s="30"/>
       <c r="AC438" s="30"/>
       <c r="AD438" s="30"/>
+      <c r="AE438" s="30"/>
     </row>
     <row r="439" ht="19.5" customHeight="1">
       <c r="A439" s="30"/>
@@ -16179,6 +16625,7 @@
       <c r="AB439" s="30"/>
       <c r="AC439" s="30"/>
       <c r="AD439" s="30"/>
+      <c r="AE439" s="30"/>
     </row>
     <row r="440" ht="19.5" customHeight="1">
       <c r="A440" s="30"/>
@@ -16211,6 +16658,7 @@
       <c r="AB440" s="30"/>
       <c r="AC440" s="30"/>
       <c r="AD440" s="30"/>
+      <c r="AE440" s="30"/>
     </row>
     <row r="441" ht="19.5" customHeight="1">
       <c r="A441" s="30"/>
@@ -16243,6 +16691,7 @@
       <c r="AB441" s="30"/>
       <c r="AC441" s="30"/>
       <c r="AD441" s="30"/>
+      <c r="AE441" s="30"/>
     </row>
     <row r="442" ht="19.5" customHeight="1">
       <c r="A442" s="30"/>
@@ -16275,6 +16724,7 @@
       <c r="AB442" s="30"/>
       <c r="AC442" s="30"/>
       <c r="AD442" s="30"/>
+      <c r="AE442" s="30"/>
     </row>
     <row r="443" ht="19.5" customHeight="1">
       <c r="A443" s="30"/>
@@ -16307,6 +16757,7 @@
       <c r="AB443" s="30"/>
       <c r="AC443" s="30"/>
       <c r="AD443" s="30"/>
+      <c r="AE443" s="30"/>
     </row>
     <row r="444" ht="19.5" customHeight="1">
       <c r="A444" s="30"/>
@@ -16339,6 +16790,7 @@
       <c r="AB444" s="30"/>
       <c r="AC444" s="30"/>
       <c r="AD444" s="30"/>
+      <c r="AE444" s="30"/>
     </row>
     <row r="445" ht="19.5" customHeight="1">
       <c r="A445" s="30"/>
@@ -16371,6 +16823,7 @@
       <c r="AB445" s="30"/>
       <c r="AC445" s="30"/>
       <c r="AD445" s="30"/>
+      <c r="AE445" s="30"/>
     </row>
     <row r="446" ht="19.5" customHeight="1">
       <c r="A446" s="30"/>
@@ -16403,6 +16856,7 @@
       <c r="AB446" s="30"/>
       <c r="AC446" s="30"/>
       <c r="AD446" s="30"/>
+      <c r="AE446" s="30"/>
     </row>
     <row r="447" ht="19.5" customHeight="1">
       <c r="A447" s="30"/>
@@ -16435,6 +16889,7 @@
       <c r="AB447" s="30"/>
       <c r="AC447" s="30"/>
       <c r="AD447" s="30"/>
+      <c r="AE447" s="30"/>
     </row>
     <row r="448" ht="19.5" customHeight="1">
       <c r="A448" s="30"/>
@@ -16467,6 +16922,7 @@
       <c r="AB448" s="30"/>
       <c r="AC448" s="30"/>
       <c r="AD448" s="30"/>
+      <c r="AE448" s="30"/>
     </row>
     <row r="449" ht="19.5" customHeight="1">
       <c r="A449" s="30"/>
@@ -16499,6 +16955,7 @@
       <c r="AB449" s="30"/>
       <c r="AC449" s="30"/>
       <c r="AD449" s="30"/>
+      <c r="AE449" s="30"/>
     </row>
     <row r="450" ht="19.5" customHeight="1">
       <c r="A450" s="30"/>
@@ -16531,6 +16988,7 @@
       <c r="AB450" s="30"/>
       <c r="AC450" s="30"/>
       <c r="AD450" s="30"/>
+      <c r="AE450" s="30"/>
     </row>
     <row r="451" ht="19.5" customHeight="1">
       <c r="A451" s="30"/>
@@ -16563,6 +17021,7 @@
       <c r="AB451" s="30"/>
       <c r="AC451" s="30"/>
       <c r="AD451" s="30"/>
+      <c r="AE451" s="30"/>
     </row>
     <row r="452" ht="19.5" customHeight="1">
       <c r="A452" s="30"/>
@@ -16595,6 +17054,7 @@
       <c r="AB452" s="30"/>
       <c r="AC452" s="30"/>
       <c r="AD452" s="30"/>
+      <c r="AE452" s="30"/>
     </row>
     <row r="453" ht="19.5" customHeight="1">
       <c r="A453" s="30"/>
@@ -16627,6 +17087,7 @@
       <c r="AB453" s="30"/>
       <c r="AC453" s="30"/>
       <c r="AD453" s="30"/>
+      <c r="AE453" s="30"/>
     </row>
     <row r="454" ht="19.5" customHeight="1">
       <c r="A454" s="30"/>
@@ -16659,6 +17120,7 @@
       <c r="AB454" s="30"/>
       <c r="AC454" s="30"/>
       <c r="AD454" s="30"/>
+      <c r="AE454" s="30"/>
     </row>
     <row r="455" ht="19.5" customHeight="1">
       <c r="A455" s="30"/>
@@ -16691,6 +17153,7 @@
       <c r="AB455" s="30"/>
       <c r="AC455" s="30"/>
       <c r="AD455" s="30"/>
+      <c r="AE455" s="30"/>
     </row>
     <row r="456" ht="19.5" customHeight="1">
       <c r="A456" s="30"/>
@@ -16723,6 +17186,7 @@
       <c r="AB456" s="30"/>
       <c r="AC456" s="30"/>
       <c r="AD456" s="30"/>
+      <c r="AE456" s="30"/>
     </row>
     <row r="457" ht="19.5" customHeight="1">
       <c r="A457" s="30"/>
@@ -16755,6 +17219,7 @@
       <c r="AB457" s="30"/>
       <c r="AC457" s="30"/>
       <c r="AD457" s="30"/>
+      <c r="AE457" s="30"/>
     </row>
     <row r="458" ht="19.5" customHeight="1">
       <c r="A458" s="30"/>
@@ -16787,6 +17252,7 @@
       <c r="AB458" s="30"/>
       <c r="AC458" s="30"/>
       <c r="AD458" s="30"/>
+      <c r="AE458" s="30"/>
     </row>
     <row r="459" ht="19.5" customHeight="1">
       <c r="A459" s="30"/>
@@ -16819,6 +17285,7 @@
       <c r="AB459" s="30"/>
       <c r="AC459" s="30"/>
       <c r="AD459" s="30"/>
+      <c r="AE459" s="30"/>
     </row>
     <row r="460" ht="19.5" customHeight="1">
       <c r="A460" s="30"/>
@@ -16851,6 +17318,7 @@
       <c r="AB460" s="30"/>
       <c r="AC460" s="30"/>
       <c r="AD460" s="30"/>
+      <c r="AE460" s="30"/>
     </row>
     <row r="461" ht="19.5" customHeight="1">
       <c r="A461" s="30"/>
@@ -16883,6 +17351,7 @@
       <c r="AB461" s="30"/>
       <c r="AC461" s="30"/>
       <c r="AD461" s="30"/>
+      <c r="AE461" s="30"/>
     </row>
     <row r="462" ht="19.5" customHeight="1">
       <c r="A462" s="30"/>
@@ -16915,6 +17384,7 @@
       <c r="AB462" s="30"/>
       <c r="AC462" s="30"/>
       <c r="AD462" s="30"/>
+      <c r="AE462" s="30"/>
     </row>
     <row r="463" ht="19.5" customHeight="1">
       <c r="A463" s="30"/>
@@ -16947,6 +17417,7 @@
       <c r="AB463" s="30"/>
       <c r="AC463" s="30"/>
       <c r="AD463" s="30"/>
+      <c r="AE463" s="30"/>
     </row>
     <row r="464" ht="19.5" customHeight="1">
       <c r="A464" s="30"/>
@@ -16979,6 +17450,7 @@
       <c r="AB464" s="30"/>
       <c r="AC464" s="30"/>
       <c r="AD464" s="30"/>
+      <c r="AE464" s="30"/>
     </row>
     <row r="465" ht="19.5" customHeight="1">
       <c r="A465" s="30"/>
@@ -17011,6 +17483,7 @@
       <c r="AB465" s="30"/>
       <c r="AC465" s="30"/>
       <c r="AD465" s="30"/>
+      <c r="AE465" s="30"/>
     </row>
     <row r="466" ht="19.5" customHeight="1">
       <c r="A466" s="30"/>
@@ -17043,6 +17516,7 @@
       <c r="AB466" s="30"/>
       <c r="AC466" s="30"/>
       <c r="AD466" s="30"/>
+      <c r="AE466" s="30"/>
     </row>
     <row r="467" ht="19.5" customHeight="1">
       <c r="A467" s="30"/>
@@ -17075,6 +17549,7 @@
       <c r="AB467" s="30"/>
       <c r="AC467" s="30"/>
       <c r="AD467" s="30"/>
+      <c r="AE467" s="30"/>
     </row>
     <row r="468" ht="19.5" customHeight="1">
       <c r="A468" s="30"/>
@@ -17107,6 +17582,7 @@
       <c r="AB468" s="30"/>
       <c r="AC468" s="30"/>
       <c r="AD468" s="30"/>
+      <c r="AE468" s="30"/>
     </row>
     <row r="469" ht="19.5" customHeight="1">
       <c r="A469" s="30"/>
@@ -17139,6 +17615,7 @@
       <c r="AB469" s="30"/>
       <c r="AC469" s="30"/>
       <c r="AD469" s="30"/>
+      <c r="AE469" s="30"/>
     </row>
     <row r="470" ht="19.5" customHeight="1">
       <c r="A470" s="30"/>
@@ -17171,6 +17648,7 @@
       <c r="AB470" s="30"/>
       <c r="AC470" s="30"/>
       <c r="AD470" s="30"/>
+      <c r="AE470" s="30"/>
     </row>
     <row r="471" ht="19.5" customHeight="1">
       <c r="A471" s="30"/>
@@ -17203,6 +17681,7 @@
       <c r="AB471" s="30"/>
       <c r="AC471" s="30"/>
       <c r="AD471" s="30"/>
+      <c r="AE471" s="30"/>
     </row>
     <row r="472" ht="19.5" customHeight="1">
       <c r="A472" s="30"/>
@@ -17235,6 +17714,7 @@
       <c r="AB472" s="30"/>
       <c r="AC472" s="30"/>
       <c r="AD472" s="30"/>
+      <c r="AE472" s="30"/>
     </row>
     <row r="473" ht="19.5" customHeight="1">
       <c r="A473" s="30"/>
@@ -17267,6 +17747,7 @@
       <c r="AB473" s="30"/>
       <c r="AC473" s="30"/>
       <c r="AD473" s="30"/>
+      <c r="AE473" s="30"/>
     </row>
     <row r="474" ht="19.5" customHeight="1">
       <c r="A474" s="30"/>
@@ -17299,6 +17780,7 @@
       <c r="AB474" s="30"/>
       <c r="AC474" s="30"/>
       <c r="AD474" s="30"/>
+      <c r="AE474" s="30"/>
     </row>
     <row r="475" ht="19.5" customHeight="1">
       <c r="A475" s="30"/>
@@ -17331,6 +17813,7 @@
       <c r="AB475" s="30"/>
       <c r="AC475" s="30"/>
       <c r="AD475" s="30"/>
+      <c r="AE475" s="30"/>
     </row>
     <row r="476" ht="19.5" customHeight="1">
       <c r="A476" s="30"/>
@@ -17363,6 +17846,7 @@
       <c r="AB476" s="30"/>
       <c r="AC476" s="30"/>
       <c r="AD476" s="30"/>
+      <c r="AE476" s="30"/>
     </row>
     <row r="477" ht="19.5" customHeight="1">
       <c r="A477" s="30"/>
@@ -17395,6 +17879,7 @@
       <c r="AB477" s="30"/>
       <c r="AC477" s="30"/>
       <c r="AD477" s="30"/>
+      <c r="AE477" s="30"/>
     </row>
     <row r="478" ht="19.5" customHeight="1">
       <c r="A478" s="30"/>
@@ -17427,6 +17912,7 @@
       <c r="AB478" s="30"/>
       <c r="AC478" s="30"/>
       <c r="AD478" s="30"/>
+      <c r="AE478" s="30"/>
     </row>
     <row r="479" ht="19.5" customHeight="1">
       <c r="A479" s="30"/>
@@ -17459,6 +17945,7 @@
       <c r="AB479" s="30"/>
       <c r="AC479" s="30"/>
       <c r="AD479" s="30"/>
+      <c r="AE479" s="30"/>
     </row>
     <row r="480" ht="19.5" customHeight="1">
       <c r="A480" s="30"/>
@@ -17491,6 +17978,7 @@
       <c r="AB480" s="30"/>
       <c r="AC480" s="30"/>
       <c r="AD480" s="30"/>
+      <c r="AE480" s="30"/>
     </row>
     <row r="481" ht="19.5" customHeight="1">
       <c r="A481" s="30"/>
@@ -17523,6 +18011,7 @@
       <c r="AB481" s="30"/>
       <c r="AC481" s="30"/>
       <c r="AD481" s="30"/>
+      <c r="AE481" s="30"/>
     </row>
     <row r="482" ht="19.5" customHeight="1">
       <c r="A482" s="30"/>
@@ -17555,6 +18044,7 @@
       <c r="AB482" s="30"/>
       <c r="AC482" s="30"/>
       <c r="AD482" s="30"/>
+      <c r="AE482" s="30"/>
     </row>
     <row r="483" ht="19.5" customHeight="1">
       <c r="A483" s="30"/>
@@ -17587,6 +18077,7 @@
       <c r="AB483" s="30"/>
       <c r="AC483" s="30"/>
       <c r="AD483" s="30"/>
+      <c r="AE483" s="30"/>
     </row>
     <row r="484" ht="19.5" customHeight="1">
       <c r="A484" s="30"/>
@@ -17619,6 +18110,7 @@
       <c r="AB484" s="30"/>
       <c r="AC484" s="30"/>
       <c r="AD484" s="30"/>
+      <c r="AE484" s="30"/>
     </row>
     <row r="485" ht="19.5" customHeight="1">
       <c r="A485" s="30"/>
@@ -17651,6 +18143,7 @@
       <c r="AB485" s="30"/>
       <c r="AC485" s="30"/>
       <c r="AD485" s="30"/>
+      <c r="AE485" s="30"/>
     </row>
     <row r="486" ht="19.5" customHeight="1">
       <c r="A486" s="30"/>
@@ -17683,6 +18176,7 @@
       <c r="AB486" s="30"/>
       <c r="AC486" s="30"/>
       <c r="AD486" s="30"/>
+      <c r="AE486" s="30"/>
     </row>
     <row r="487" ht="19.5" customHeight="1">
       <c r="A487" s="30"/>
@@ -17715,6 +18209,7 @@
       <c r="AB487" s="30"/>
       <c r="AC487" s="30"/>
       <c r="AD487" s="30"/>
+      <c r="AE487" s="30"/>
     </row>
     <row r="488" ht="19.5" customHeight="1">
       <c r="A488" s="30"/>
@@ -17747,6 +18242,7 @@
       <c r="AB488" s="30"/>
       <c r="AC488" s="30"/>
       <c r="AD488" s="30"/>
+      <c r="AE488" s="30"/>
     </row>
     <row r="489" ht="19.5" customHeight="1">
       <c r="A489" s="30"/>
@@ -17779,6 +18275,7 @@
       <c r="AB489" s="30"/>
       <c r="AC489" s="30"/>
       <c r="AD489" s="30"/>
+      <c r="AE489" s="30"/>
     </row>
     <row r="490" ht="19.5" customHeight="1">
       <c r="A490" s="30"/>
@@ -17811,6 +18308,7 @@
       <c r="AB490" s="30"/>
       <c r="AC490" s="30"/>
       <c r="AD490" s="30"/>
+      <c r="AE490" s="30"/>
     </row>
     <row r="491" ht="19.5" customHeight="1">
       <c r="A491" s="30"/>
@@ -17843,6 +18341,7 @@
       <c r="AB491" s="30"/>
       <c r="AC491" s="30"/>
       <c r="AD491" s="30"/>
+      <c r="AE491" s="30"/>
     </row>
     <row r="492" ht="19.5" customHeight="1">
       <c r="A492" s="30"/>
@@ -17875,6 +18374,7 @@
       <c r="AB492" s="30"/>
       <c r="AC492" s="30"/>
       <c r="AD492" s="30"/>
+      <c r="AE492" s="30"/>
     </row>
     <row r="493" ht="19.5" customHeight="1">
       <c r="A493" s="30"/>
@@ -17907,6 +18407,7 @@
       <c r="AB493" s="30"/>
       <c r="AC493" s="30"/>
       <c r="AD493" s="30"/>
+      <c r="AE493" s="30"/>
     </row>
     <row r="494" ht="19.5" customHeight="1">
       <c r="A494" s="30"/>
@@ -17939,6 +18440,7 @@
       <c r="AB494" s="30"/>
       <c r="AC494" s="30"/>
       <c r="AD494" s="30"/>
+      <c r="AE494" s="30"/>
     </row>
     <row r="495" ht="19.5" customHeight="1">
       <c r="A495" s="30"/>
@@ -17971,6 +18473,7 @@
       <c r="AB495" s="30"/>
       <c r="AC495" s="30"/>
       <c r="AD495" s="30"/>
+      <c r="AE495" s="30"/>
     </row>
     <row r="496" ht="19.5" customHeight="1">
       <c r="A496" s="30"/>
@@ -18003,6 +18506,7 @@
       <c r="AB496" s="30"/>
       <c r="AC496" s="30"/>
       <c r="AD496" s="30"/>
+      <c r="AE496" s="30"/>
     </row>
     <row r="497" ht="19.5" customHeight="1">
       <c r="A497" s="30"/>
@@ -18035,6 +18539,7 @@
       <c r="AB497" s="30"/>
       <c r="AC497" s="30"/>
       <c r="AD497" s="30"/>
+      <c r="AE497" s="30"/>
     </row>
     <row r="498" ht="19.5" customHeight="1">
       <c r="A498" s="30"/>
@@ -18067,6 +18572,7 @@
       <c r="AB498" s="30"/>
       <c r="AC498" s="30"/>
       <c r="AD498" s="30"/>
+      <c r="AE498" s="30"/>
     </row>
     <row r="499" ht="19.5" customHeight="1">
       <c r="A499" s="30"/>
@@ -18099,6 +18605,7 @@
       <c r="AB499" s="30"/>
       <c r="AC499" s="30"/>
       <c r="AD499" s="30"/>
+      <c r="AE499" s="30"/>
     </row>
     <row r="500" ht="19.5" customHeight="1">
       <c r="A500" s="30"/>
@@ -18131,6 +18638,7 @@
       <c r="AB500" s="30"/>
       <c r="AC500" s="30"/>
       <c r="AD500" s="30"/>
+      <c r="AE500" s="30"/>
     </row>
     <row r="501" ht="19.5" customHeight="1">
       <c r="A501" s="30"/>
@@ -18163,6 +18671,7 @@
       <c r="AB501" s="30"/>
       <c r="AC501" s="30"/>
       <c r="AD501" s="30"/>
+      <c r="AE501" s="30"/>
     </row>
     <row r="502" ht="19.5" customHeight="1">
       <c r="A502" s="30"/>
@@ -18195,6 +18704,7 @@
       <c r="AB502" s="30"/>
       <c r="AC502" s="30"/>
       <c r="AD502" s="30"/>
+      <c r="AE502" s="30"/>
     </row>
     <row r="503" ht="19.5" customHeight="1">
       <c r="A503" s="30"/>
@@ -18227,6 +18737,7 @@
       <c r="AB503" s="30"/>
       <c r="AC503" s="30"/>
       <c r="AD503" s="30"/>
+      <c r="AE503" s="30"/>
     </row>
     <row r="504" ht="19.5" customHeight="1">
       <c r="A504" s="30"/>
@@ -18259,6 +18770,7 @@
       <c r="AB504" s="30"/>
       <c r="AC504" s="30"/>
       <c r="AD504" s="30"/>
+      <c r="AE504" s="30"/>
     </row>
     <row r="505" ht="19.5" customHeight="1">
       <c r="A505" s="30"/>
@@ -18291,6 +18803,7 @@
       <c r="AB505" s="30"/>
       <c r="AC505" s="30"/>
       <c r="AD505" s="30"/>
+      <c r="AE505" s="30"/>
     </row>
     <row r="506" ht="19.5" customHeight="1">
       <c r="A506" s="30"/>
@@ -18323,6 +18836,7 @@
       <c r="AB506" s="30"/>
       <c r="AC506" s="30"/>
       <c r="AD506" s="30"/>
+      <c r="AE506" s="30"/>
     </row>
     <row r="507" ht="19.5" customHeight="1">
       <c r="A507" s="30"/>
@@ -18355,6 +18869,7 @@
       <c r="AB507" s="30"/>
       <c r="AC507" s="30"/>
       <c r="AD507" s="30"/>
+      <c r="AE507" s="30"/>
     </row>
     <row r="508" ht="19.5" customHeight="1">
       <c r="A508" s="30"/>
@@ -18387,6 +18902,7 @@
       <c r="AB508" s="30"/>
       <c r="AC508" s="30"/>
       <c r="AD508" s="30"/>
+      <c r="AE508" s="30"/>
     </row>
     <row r="509" ht="19.5" customHeight="1">
       <c r="A509" s="30"/>
@@ -18419,6 +18935,7 @@
       <c r="AB509" s="30"/>
       <c r="AC509" s="30"/>
       <c r="AD509" s="30"/>
+      <c r="AE509" s="30"/>
     </row>
     <row r="510" ht="19.5" customHeight="1">
       <c r="A510" s="30"/>
@@ -18451,6 +18968,7 @@
       <c r="AB510" s="30"/>
       <c r="AC510" s="30"/>
       <c r="AD510" s="30"/>
+      <c r="AE510" s="30"/>
     </row>
     <row r="511" ht="19.5" customHeight="1">
       <c r="A511" s="30"/>
@@ -18483,6 +19001,7 @@
       <c r="AB511" s="30"/>
       <c r="AC511" s="30"/>
       <c r="AD511" s="30"/>
+      <c r="AE511" s="30"/>
     </row>
     <row r="512" ht="19.5" customHeight="1">
       <c r="A512" s="30"/>
@@ -18515,6 +19034,7 @@
       <c r="AB512" s="30"/>
       <c r="AC512" s="30"/>
       <c r="AD512" s="30"/>
+      <c r="AE512" s="30"/>
     </row>
     <row r="513" ht="19.5" customHeight="1">
       <c r="A513" s="30"/>
@@ -18547,6 +19067,7 @@
       <c r="AB513" s="30"/>
       <c r="AC513" s="30"/>
       <c r="AD513" s="30"/>
+      <c r="AE513" s="30"/>
     </row>
     <row r="514" ht="19.5" customHeight="1">
       <c r="A514" s="30"/>
@@ -18579,6 +19100,7 @@
       <c r="AB514" s="30"/>
       <c r="AC514" s="30"/>
       <c r="AD514" s="30"/>
+      <c r="AE514" s="30"/>
     </row>
     <row r="515" ht="19.5" customHeight="1">
       <c r="A515" s="30"/>
@@ -18611,6 +19133,7 @@
       <c r="AB515" s="30"/>
       <c r="AC515" s="30"/>
       <c r="AD515" s="30"/>
+      <c r="AE515" s="30"/>
     </row>
     <row r="516" ht="19.5" customHeight="1">
       <c r="A516" s="30"/>
@@ -18643,6 +19166,7 @@
       <c r="AB516" s="30"/>
       <c r="AC516" s="30"/>
       <c r="AD516" s="30"/>
+      <c r="AE516" s="30"/>
     </row>
     <row r="517" ht="19.5" customHeight="1">
       <c r="A517" s="30"/>
@@ -18675,6 +19199,7 @@
       <c r="AB517" s="30"/>
       <c r="AC517" s="30"/>
       <c r="AD517" s="30"/>
+      <c r="AE517" s="30"/>
     </row>
     <row r="518" ht="19.5" customHeight="1">
       <c r="A518" s="30"/>
@@ -18707,6 +19232,7 @@
       <c r="AB518" s="30"/>
       <c r="AC518" s="30"/>
       <c r="AD518" s="30"/>
+      <c r="AE518" s="30"/>
     </row>
     <row r="519" ht="19.5" customHeight="1">
       <c r="A519" s="30"/>
@@ -18739,6 +19265,7 @@
       <c r="AB519" s="30"/>
       <c r="AC519" s="30"/>
       <c r="AD519" s="30"/>
+      <c r="AE519" s="30"/>
     </row>
     <row r="520" ht="19.5" customHeight="1">
       <c r="A520" s="30"/>
@@ -18771,6 +19298,7 @@
       <c r="AB520" s="30"/>
       <c r="AC520" s="30"/>
       <c r="AD520" s="30"/>
+      <c r="AE520" s="30"/>
     </row>
     <row r="521" ht="19.5" customHeight="1">
       <c r="A521" s="30"/>
@@ -18803,6 +19331,7 @@
       <c r="AB521" s="30"/>
       <c r="AC521" s="30"/>
       <c r="AD521" s="30"/>
+      <c r="AE521" s="30"/>
     </row>
     <row r="522" ht="19.5" customHeight="1">
       <c r="A522" s="30"/>
@@ -18835,6 +19364,7 @@
       <c r="AB522" s="30"/>
       <c r="AC522" s="30"/>
       <c r="AD522" s="30"/>
+      <c r="AE522" s="30"/>
     </row>
     <row r="523" ht="19.5" customHeight="1">
       <c r="A523" s="30"/>
@@ -18867,6 +19397,7 @@
       <c r="AB523" s="30"/>
       <c r="AC523" s="30"/>
       <c r="AD523" s="30"/>
+      <c r="AE523" s="30"/>
     </row>
     <row r="524" ht="19.5" customHeight="1">
       <c r="A524" s="30"/>
@@ -18899,6 +19430,7 @@
       <c r="AB524" s="30"/>
       <c r="AC524" s="30"/>
       <c r="AD524" s="30"/>
+      <c r="AE524" s="30"/>
     </row>
     <row r="525" ht="19.5" customHeight="1">
       <c r="A525" s="30"/>
@@ -18931,6 +19463,7 @@
       <c r="AB525" s="30"/>
       <c r="AC525" s="30"/>
       <c r="AD525" s="30"/>
+      <c r="AE525" s="30"/>
     </row>
     <row r="526" ht="19.5" customHeight="1">
       <c r="A526" s="30"/>
@@ -18963,6 +19496,7 @@
       <c r="AB526" s="30"/>
       <c r="AC526" s="30"/>
       <c r="AD526" s="30"/>
+      <c r="AE526" s="30"/>
     </row>
     <row r="527" ht="19.5" customHeight="1">
       <c r="A527" s="30"/>
@@ -18995,6 +19529,7 @@
       <c r="AB527" s="30"/>
       <c r="AC527" s="30"/>
       <c r="AD527" s="30"/>
+      <c r="AE527" s="30"/>
     </row>
     <row r="528" ht="19.5" customHeight="1">
       <c r="A528" s="30"/>
@@ -19027,6 +19562,7 @@
       <c r="AB528" s="30"/>
       <c r="AC528" s="30"/>
       <c r="AD528" s="30"/>
+      <c r="AE528" s="30"/>
     </row>
     <row r="529" ht="19.5" customHeight="1">
       <c r="A529" s="30"/>
@@ -19059,6 +19595,7 @@
       <c r="AB529" s="30"/>
       <c r="AC529" s="30"/>
       <c r="AD529" s="30"/>
+      <c r="AE529" s="30"/>
     </row>
     <row r="530" ht="19.5" customHeight="1">
       <c r="A530" s="30"/>
@@ -19091,6 +19628,7 @@
       <c r="AB530" s="30"/>
       <c r="AC530" s="30"/>
       <c r="AD530" s="30"/>
+      <c r="AE530" s="30"/>
     </row>
     <row r="531" ht="19.5" customHeight="1">
       <c r="A531" s="30"/>
@@ -19123,6 +19661,7 @@
       <c r="AB531" s="30"/>
       <c r="AC531" s="30"/>
       <c r="AD531" s="30"/>
+      <c r="AE531" s="30"/>
     </row>
     <row r="532" ht="19.5" customHeight="1">
       <c r="A532" s="30"/>
@@ -19155,6 +19694,7 @@
       <c r="AB532" s="30"/>
       <c r="AC532" s="30"/>
       <c r="AD532" s="30"/>
+      <c r="AE532" s="30"/>
     </row>
     <row r="533" ht="19.5" customHeight="1">
       <c r="A533" s="30"/>
@@ -19187,6 +19727,7 @@
       <c r="AB533" s="30"/>
       <c r="AC533" s="30"/>
       <c r="AD533" s="30"/>
+      <c r="AE533" s="30"/>
     </row>
     <row r="534" ht="19.5" customHeight="1">
       <c r="A534" s="30"/>
@@ -19219,6 +19760,7 @@
       <c r="AB534" s="30"/>
       <c r="AC534" s="30"/>
       <c r="AD534" s="30"/>
+      <c r="AE534" s="30"/>
     </row>
     <row r="535" ht="19.5" customHeight="1">
       <c r="A535" s="30"/>
@@ -19251,6 +19793,7 @@
       <c r="AB535" s="30"/>
       <c r="AC535" s="30"/>
       <c r="AD535" s="30"/>
+      <c r="AE535" s="30"/>
     </row>
     <row r="536" ht="19.5" customHeight="1">
       <c r="A536" s="30"/>
@@ -19283,6 +19826,7 @@
       <c r="AB536" s="30"/>
       <c r="AC536" s="30"/>
       <c r="AD536" s="30"/>
+      <c r="AE536" s="30"/>
     </row>
     <row r="537" ht="19.5" customHeight="1">
       <c r="A537" s="30"/>
@@ -19315,6 +19859,7 @@
       <c r="AB537" s="30"/>
       <c r="AC537" s="30"/>
       <c r="AD537" s="30"/>
+      <c r="AE537" s="30"/>
     </row>
     <row r="538" ht="19.5" customHeight="1">
       <c r="A538" s="30"/>
@@ -19347,6 +19892,7 @@
       <c r="AB538" s="30"/>
       <c r="AC538" s="30"/>
       <c r="AD538" s="30"/>
+      <c r="AE538" s="30"/>
     </row>
     <row r="539" ht="19.5" customHeight="1">
       <c r="A539" s="30"/>
@@ -19379,6 +19925,7 @@
       <c r="AB539" s="30"/>
       <c r="AC539" s="30"/>
       <c r="AD539" s="30"/>
+      <c r="AE539" s="30"/>
     </row>
     <row r="540" ht="19.5" customHeight="1">
       <c r="A540" s="30"/>
@@ -19411,6 +19958,7 @@
       <c r="AB540" s="30"/>
       <c r="AC540" s="30"/>
       <c r="AD540" s="30"/>
+      <c r="AE540" s="30"/>
     </row>
     <row r="541" ht="19.5" customHeight="1">
       <c r="A541" s="30"/>
@@ -19443,6 +19991,7 @@
       <c r="AB541" s="30"/>
       <c r="AC541" s="30"/>
       <c r="AD541" s="30"/>
+      <c r="AE541" s="30"/>
     </row>
     <row r="542" ht="19.5" customHeight="1">
       <c r="A542" s="30"/>
@@ -19475,6 +20024,7 @@
       <c r="AB542" s="30"/>
       <c r="AC542" s="30"/>
       <c r="AD542" s="30"/>
+      <c r="AE542" s="30"/>
     </row>
     <row r="543" ht="19.5" customHeight="1">
       <c r="A543" s="30"/>
@@ -19507,6 +20057,7 @@
       <c r="AB543" s="30"/>
       <c r="AC543" s="30"/>
       <c r="AD543" s="30"/>
+      <c r="AE543" s="30"/>
     </row>
     <row r="544" ht="19.5" customHeight="1">
       <c r="A544" s="30"/>
@@ -19539,6 +20090,7 @@
       <c r="AB544" s="30"/>
       <c r="AC544" s="30"/>
       <c r="AD544" s="30"/>
+      <c r="AE544" s="30"/>
     </row>
     <row r="545" ht="19.5" customHeight="1">
       <c r="A545" s="30"/>
@@ -19571,6 +20123,7 @@
       <c r="AB545" s="30"/>
       <c r="AC545" s="30"/>
       <c r="AD545" s="30"/>
+      <c r="AE545" s="30"/>
     </row>
     <row r="546" ht="19.5" customHeight="1">
       <c r="A546" s="30"/>
@@ -19603,6 +20156,7 @@
       <c r="AB546" s="30"/>
       <c r="AC546" s="30"/>
       <c r="AD546" s="30"/>
+      <c r="AE546" s="30"/>
     </row>
     <row r="547" ht="19.5" customHeight="1">
       <c r="A547" s="30"/>
@@ -19635,6 +20189,7 @@
       <c r="AB547" s="30"/>
       <c r="AC547" s="30"/>
       <c r="AD547" s="30"/>
+      <c r="AE547" s="30"/>
     </row>
     <row r="548" ht="19.5" customHeight="1">
       <c r="A548" s="30"/>
@@ -19667,6 +20222,7 @@
       <c r="AB548" s="30"/>
       <c r="AC548" s="30"/>
       <c r="AD548" s="30"/>
+      <c r="AE548" s="30"/>
     </row>
     <row r="549" ht="19.5" customHeight="1">
       <c r="A549" s="30"/>
@@ -19699,6 +20255,7 @@
       <c r="AB549" s="30"/>
       <c r="AC549" s="30"/>
       <c r="AD549" s="30"/>
+      <c r="AE549" s="30"/>
     </row>
     <row r="550" ht="19.5" customHeight="1">
       <c r="A550" s="30"/>
@@ -19731,6 +20288,7 @@
       <c r="AB550" s="30"/>
       <c r="AC550" s="30"/>
       <c r="AD550" s="30"/>
+      <c r="AE550" s="30"/>
     </row>
     <row r="551" ht="19.5" customHeight="1">
       <c r="A551" s="30"/>
@@ -19763,6 +20321,7 @@
       <c r="AB551" s="30"/>
       <c r="AC551" s="30"/>
       <c r="AD551" s="30"/>
+      <c r="AE551" s="30"/>
     </row>
     <row r="552" ht="19.5" customHeight="1">
       <c r="A552" s="30"/>
@@ -19795,6 +20354,7 @@
       <c r="AB552" s="30"/>
       <c r="AC552" s="30"/>
       <c r="AD552" s="30"/>
+      <c r="AE552" s="30"/>
     </row>
     <row r="553" ht="19.5" customHeight="1">
       <c r="A553" s="30"/>
@@ -19827,6 +20387,7 @@
       <c r="AB553" s="30"/>
       <c r="AC553" s="30"/>
       <c r="AD553" s="30"/>
+      <c r="AE553" s="30"/>
     </row>
     <row r="554" ht="19.5" customHeight="1">
       <c r="A554" s="30"/>
@@ -19859,6 +20420,7 @@
       <c r="AB554" s="30"/>
       <c r="AC554" s="30"/>
       <c r="AD554" s="30"/>
+      <c r="AE554" s="30"/>
     </row>
     <row r="555" ht="19.5" customHeight="1">
       <c r="A555" s="30"/>
@@ -19891,6 +20453,7 @@
       <c r="AB555" s="30"/>
       <c r="AC555" s="30"/>
       <c r="AD555" s="30"/>
+      <c r="AE555" s="30"/>
     </row>
     <row r="556" ht="19.5" customHeight="1">
       <c r="A556" s="30"/>
@@ -19923,6 +20486,7 @@
       <c r="AB556" s="30"/>
       <c r="AC556" s="30"/>
       <c r="AD556" s="30"/>
+      <c r="AE556" s="30"/>
     </row>
     <row r="557" ht="19.5" customHeight="1">
       <c r="A557" s="30"/>
@@ -19955,6 +20519,7 @@
       <c r="AB557" s="30"/>
       <c r="AC557" s="30"/>
       <c r="AD557" s="30"/>
+      <c r="AE557" s="30"/>
     </row>
     <row r="558" ht="19.5" customHeight="1">
       <c r="A558" s="30"/>
@@ -19987,6 +20552,7 @@
       <c r="AB558" s="30"/>
       <c r="AC558" s="30"/>
       <c r="AD558" s="30"/>
+      <c r="AE558" s="30"/>
     </row>
     <row r="559" ht="19.5" customHeight="1">
       <c r="A559" s="30"/>
@@ -20019,6 +20585,7 @@
       <c r="AB559" s="30"/>
       <c r="AC559" s="30"/>
       <c r="AD559" s="30"/>
+      <c r="AE559" s="30"/>
     </row>
     <row r="560" ht="19.5" customHeight="1">
       <c r="A560" s="30"/>
@@ -20051,6 +20618,7 @@
       <c r="AB560" s="30"/>
       <c r="AC560" s="30"/>
       <c r="AD560" s="30"/>
+      <c r="AE560" s="30"/>
     </row>
     <row r="561" ht="19.5" customHeight="1">
       <c r="A561" s="30"/>
@@ -20083,6 +20651,7 @@
       <c r="AB561" s="30"/>
       <c r="AC561" s="30"/>
       <c r="AD561" s="30"/>
+      <c r="AE561" s="30"/>
     </row>
     <row r="562" ht="19.5" customHeight="1">
       <c r="A562" s="30"/>
@@ -20115,6 +20684,7 @@
       <c r="AB562" s="30"/>
       <c r="AC562" s="30"/>
       <c r="AD562" s="30"/>
+      <c r="AE562" s="30"/>
     </row>
     <row r="563" ht="19.5" customHeight="1">
       <c r="A563" s="30"/>
@@ -20147,6 +20717,7 @@
       <c r="AB563" s="30"/>
       <c r="AC563" s="30"/>
       <c r="AD563" s="30"/>
+      <c r="AE563" s="30"/>
     </row>
     <row r="564" ht="19.5" customHeight="1">
       <c r="A564" s="30"/>
@@ -20179,6 +20750,7 @@
       <c r="AB564" s="30"/>
       <c r="AC564" s="30"/>
       <c r="AD564" s="30"/>
+      <c r="AE564" s="30"/>
     </row>
     <row r="565" ht="19.5" customHeight="1">
       <c r="A565" s="30"/>
@@ -20211,6 +20783,7 @@
       <c r="AB565" s="30"/>
       <c r="AC565" s="30"/>
       <c r="AD565" s="30"/>
+      <c r="AE565" s="30"/>
     </row>
     <row r="566" ht="19.5" customHeight="1">
       <c r="A566" s="30"/>
@@ -20243,6 +20816,7 @@
       <c r="AB566" s="30"/>
       <c r="AC566" s="30"/>
       <c r="AD566" s="30"/>
+      <c r="AE566" s="30"/>
     </row>
     <row r="567" ht="19.5" customHeight="1">
       <c r="A567" s="30"/>
@@ -20275,6 +20849,7 @@
       <c r="AB567" s="30"/>
       <c r="AC567" s="30"/>
       <c r="AD567" s="30"/>
+      <c r="AE567" s="30"/>
     </row>
     <row r="568" ht="19.5" customHeight="1">
       <c r="A568" s="30"/>
@@ -20307,6 +20882,7 @@
       <c r="AB568" s="30"/>
       <c r="AC568" s="30"/>
       <c r="AD568" s="30"/>
+      <c r="AE568" s="30"/>
     </row>
     <row r="569" ht="19.5" customHeight="1">
       <c r="A569" s="30"/>
@@ -20339,6 +20915,7 @@
       <c r="AB569" s="30"/>
       <c r="AC569" s="30"/>
       <c r="AD569" s="30"/>
+      <c r="AE569" s="30"/>
     </row>
     <row r="570" ht="19.5" customHeight="1">
       <c r="A570" s="30"/>
@@ -20371,6 +20948,7 @@
       <c r="AB570" s="30"/>
       <c r="AC570" s="30"/>
       <c r="AD570" s="30"/>
+      <c r="AE570" s="30"/>
     </row>
     <row r="571" ht="19.5" customHeight="1">
       <c r="A571" s="30"/>
@@ -20403,6 +20981,7 @@
       <c r="AB571" s="30"/>
       <c r="AC571" s="30"/>
       <c r="AD571" s="30"/>
+      <c r="AE571" s="30"/>
     </row>
     <row r="572" ht="19.5" customHeight="1">
       <c r="A572" s="30"/>
@@ -20435,6 +21014,7 @@
       <c r="AB572" s="30"/>
       <c r="AC572" s="30"/>
       <c r="AD572" s="30"/>
+      <c r="AE572" s="30"/>
     </row>
     <row r="573" ht="19.5" customHeight="1">
       <c r="A573" s="30"/>
@@ -20467,6 +21047,7 @@
       <c r="AB573" s="30"/>
       <c r="AC573" s="30"/>
       <c r="AD573" s="30"/>
+      <c r="AE573" s="30"/>
     </row>
     <row r="574" ht="19.5" customHeight="1">
       <c r="A574" s="30"/>
@@ -20499,6 +21080,7 @@
       <c r="AB574" s="30"/>
       <c r="AC574" s="30"/>
       <c r="AD574" s="30"/>
+      <c r="AE574" s="30"/>
     </row>
     <row r="575" ht="19.5" customHeight="1">
       <c r="A575" s="30"/>
@@ -20531,6 +21113,7 @@
       <c r="AB575" s="30"/>
       <c r="AC575" s="30"/>
       <c r="AD575" s="30"/>
+      <c r="AE575" s="30"/>
     </row>
     <row r="576" ht="19.5" customHeight="1">
       <c r="A576" s="30"/>
@@ -20563,6 +21146,7 @@
       <c r="AB576" s="30"/>
       <c r="AC576" s="30"/>
       <c r="AD576" s="30"/>
+      <c r="AE576" s="30"/>
     </row>
     <row r="577" ht="19.5" customHeight="1">
       <c r="A577" s="30"/>
@@ -20595,6 +21179,7 @@
       <c r="AB577" s="30"/>
       <c r="AC577" s="30"/>
       <c r="AD577" s="30"/>
+      <c r="AE577" s="30"/>
     </row>
     <row r="578" ht="19.5" customHeight="1">
       <c r="A578" s="30"/>
@@ -20627,6 +21212,7 @@
       <c r="AB578" s="30"/>
       <c r="AC578" s="30"/>
       <c r="AD578" s="30"/>
+      <c r="AE578" s="30"/>
     </row>
     <row r="579" ht="19.5" customHeight="1">
       <c r="A579" s="30"/>
@@ -20659,6 +21245,7 @@
       <c r="AB579" s="30"/>
       <c r="AC579" s="30"/>
       <c r="AD579" s="30"/>
+      <c r="AE579" s="30"/>
     </row>
     <row r="580" ht="19.5" customHeight="1">
       <c r="A580" s="30"/>
@@ -20691,6 +21278,7 @@
       <c r="AB580" s="30"/>
       <c r="AC580" s="30"/>
       <c r="AD580" s="30"/>
+      <c r="AE580" s="30"/>
     </row>
     <row r="581" ht="19.5" customHeight="1">
       <c r="A581" s="30"/>
@@ -20723,6 +21311,7 @@
       <c r="AB581" s="30"/>
       <c r="AC581" s="30"/>
       <c r="AD581" s="30"/>
+      <c r="AE581" s="30"/>
     </row>
     <row r="582" ht="19.5" customHeight="1">
       <c r="A582" s="30"/>
@@ -20755,6 +21344,7 @@
       <c r="AB582" s="30"/>
       <c r="AC582" s="30"/>
       <c r="AD582" s="30"/>
+      <c r="AE582" s="30"/>
     </row>
     <row r="583" ht="19.5" customHeight="1">
       <c r="A583" s="30"/>
@@ -20787,6 +21377,7 @@
       <c r="AB583" s="30"/>
       <c r="AC583" s="30"/>
       <c r="AD583" s="30"/>
+      <c r="AE583" s="30"/>
     </row>
     <row r="584" ht="19.5" customHeight="1">
       <c r="A584" s="30"/>
@@ -20819,6 +21410,7 @@
       <c r="AB584" s="30"/>
       <c r="AC584" s="30"/>
       <c r="AD584" s="30"/>
+      <c r="AE584" s="30"/>
     </row>
     <row r="585" ht="19.5" customHeight="1">
       <c r="A585" s="30"/>
@@ -20851,6 +21443,7 @@
       <c r="AB585" s="30"/>
       <c r="AC585" s="30"/>
       <c r="AD585" s="30"/>
+      <c r="AE585" s="30"/>
     </row>
     <row r="586" ht="19.5" customHeight="1">
       <c r="A586" s="30"/>
@@ -20883,6 +21476,7 @@
       <c r="AB586" s="30"/>
       <c r="AC586" s="30"/>
       <c r="AD586" s="30"/>
+      <c r="AE586" s="30"/>
     </row>
     <row r="587" ht="19.5" customHeight="1">
       <c r="A587" s="30"/>
@@ -20915,6 +21509,7 @@
       <c r="AB587" s="30"/>
       <c r="AC587" s="30"/>
       <c r="AD587" s="30"/>
+      <c r="AE587" s="30"/>
     </row>
     <row r="588" ht="19.5" customHeight="1">
       <c r="A588" s="30"/>
@@ -20947,6 +21542,7 @@
       <c r="AB588" s="30"/>
       <c r="AC588" s="30"/>
       <c r="AD588" s="30"/>
+      <c r="AE588" s="30"/>
     </row>
     <row r="589" ht="19.5" customHeight="1">
       <c r="A589" s="30"/>
@@ -20979,6 +21575,7 @@
       <c r="AB589" s="30"/>
       <c r="AC589" s="30"/>
       <c r="AD589" s="30"/>
+      <c r="AE589" s="30"/>
     </row>
     <row r="590" ht="19.5" customHeight="1">
       <c r="A590" s="30"/>
@@ -21011,6 +21608,7 @@
       <c r="AB590" s="30"/>
       <c r="AC590" s="30"/>
       <c r="AD590" s="30"/>
+      <c r="AE590" s="30"/>
     </row>
     <row r="591" ht="19.5" customHeight="1">
       <c r="A591" s="30"/>
@@ -21043,6 +21641,7 @@
       <c r="AB591" s="30"/>
       <c r="AC591" s="30"/>
       <c r="AD591" s="30"/>
+      <c r="AE591" s="30"/>
     </row>
     <row r="592" ht="19.5" customHeight="1">
       <c r="A592" s="30"/>
@@ -21075,6 +21674,7 @@
       <c r="AB592" s="30"/>
       <c r="AC592" s="30"/>
       <c r="AD592" s="30"/>
+      <c r="AE592" s="30"/>
     </row>
     <row r="593" ht="19.5" customHeight="1">
       <c r="A593" s="30"/>
@@ -21107,6 +21707,7 @@
       <c r="AB593" s="30"/>
       <c r="AC593" s="30"/>
       <c r="AD593" s="30"/>
+      <c r="AE593" s="30"/>
     </row>
     <row r="594" ht="19.5" customHeight="1">
       <c r="A594" s="30"/>
@@ -21139,6 +21740,7 @@
       <c r="AB594" s="30"/>
       <c r="AC594" s="30"/>
       <c r="AD594" s="30"/>
+      <c r="AE594" s="30"/>
     </row>
     <row r="595" ht="19.5" customHeight="1">
       <c r="A595" s="30"/>
@@ -21171,6 +21773,7 @@
       <c r="AB595" s="30"/>
       <c r="AC595" s="30"/>
       <c r="AD595" s="30"/>
+      <c r="AE595" s="30"/>
     </row>
     <row r="596" ht="19.5" customHeight="1">
       <c r="A596" s="30"/>
@@ -21203,6 +21806,7 @@
       <c r="AB596" s="30"/>
       <c r="AC596" s="30"/>
       <c r="AD596" s="30"/>
+      <c r="AE596" s="30"/>
     </row>
     <row r="597" ht="19.5" customHeight="1">
       <c r="A597" s="30"/>
@@ -21235,6 +21839,7 @@
       <c r="AB597" s="30"/>
       <c r="AC597" s="30"/>
       <c r="AD597" s="30"/>
+      <c r="AE597" s="30"/>
     </row>
     <row r="598" ht="19.5" customHeight="1">
       <c r="A598" s="30"/>
@@ -21267,6 +21872,7 @@
       <c r="AB598" s="30"/>
       <c r="AC598" s="30"/>
       <c r="AD598" s="30"/>
+      <c r="AE598" s="30"/>
     </row>
     <row r="599" ht="19.5" customHeight="1">
       <c r="A599" s="30"/>
@@ -21299,6 +21905,7 @@
       <c r="AB599" s="30"/>
       <c r="AC599" s="30"/>
       <c r="AD599" s="30"/>
+      <c r="AE599" s="30"/>
     </row>
     <row r="600" ht="19.5" customHeight="1">
       <c r="A600" s="30"/>
@@ -21331,6 +21938,7 @@
       <c r="AB600" s="30"/>
       <c r="AC600" s="30"/>
       <c r="AD600" s="30"/>
+      <c r="AE600" s="30"/>
     </row>
     <row r="601" ht="19.5" customHeight="1">
       <c r="A601" s="30"/>
@@ -21363,6 +21971,7 @@
       <c r="AB601" s="30"/>
       <c r="AC601" s="30"/>
       <c r="AD601" s="30"/>
+      <c r="AE601" s="30"/>
     </row>
     <row r="602" ht="19.5" customHeight="1">
       <c r="A602" s="30"/>
@@ -21395,6 +22004,7 @@
       <c r="AB602" s="30"/>
       <c r="AC602" s="30"/>
       <c r="AD602" s="30"/>
+      <c r="AE602" s="30"/>
     </row>
     <row r="603" ht="19.5" customHeight="1">
       <c r="A603" s="30"/>
@@ -21427,6 +22037,7 @@
       <c r="AB603" s="30"/>
       <c r="AC603" s="30"/>
       <c r="AD603" s="30"/>
+      <c r="AE603" s="30"/>
     </row>
     <row r="604" ht="19.5" customHeight="1">
       <c r="A604" s="30"/>
@@ -21459,6 +22070,7 @@
       <c r="AB604" s="30"/>
       <c r="AC604" s="30"/>
       <c r="AD604" s="30"/>
+      <c r="AE604" s="30"/>
     </row>
     <row r="605" ht="19.5" customHeight="1">
       <c r="A605" s="30"/>
@@ -21491,6 +22103,7 @@
       <c r="AB605" s="30"/>
       <c r="AC605" s="30"/>
       <c r="AD605" s="30"/>
+      <c r="AE605" s="30"/>
     </row>
     <row r="606" ht="19.5" customHeight="1">
       <c r="A606" s="30"/>
@@ -21523,6 +22136,7 @@
       <c r="AB606" s="30"/>
       <c r="AC606" s="30"/>
       <c r="AD606" s="30"/>
+      <c r="AE606" s="30"/>
     </row>
     <row r="607" ht="19.5" customHeight="1">
       <c r="A607" s="30"/>
@@ -21555,6 +22169,7 @@
       <c r="AB607" s="30"/>
       <c r="AC607" s="30"/>
       <c r="AD607" s="30"/>
+      <c r="AE607" s="30"/>
     </row>
     <row r="608" ht="19.5" customHeight="1">
       <c r="A608" s="30"/>
@@ -21587,6 +22202,7 @@
       <c r="AB608" s="30"/>
       <c r="AC608" s="30"/>
       <c r="AD608" s="30"/>
+      <c r="AE608" s="30"/>
     </row>
     <row r="609" ht="19.5" customHeight="1">
       <c r="A609" s="30"/>
@@ -21619,6 +22235,7 @@
       <c r="AB609" s="30"/>
       <c r="AC609" s="30"/>
       <c r="AD609" s="30"/>
+      <c r="AE609" s="30"/>
     </row>
     <row r="610" ht="19.5" customHeight="1">
       <c r="A610" s="30"/>
@@ -21651,6 +22268,7 @@
       <c r="AB610" s="30"/>
       <c r="AC610" s="30"/>
       <c r="AD610" s="30"/>
+      <c r="AE610" s="30"/>
     </row>
     <row r="611" ht="19.5" customHeight="1">
       <c r="A611" s="30"/>
@@ -21683,6 +22301,7 @@
       <c r="AB611" s="30"/>
       <c r="AC611" s="30"/>
       <c r="AD611" s="30"/>
+      <c r="AE611" s="30"/>
     </row>
     <row r="612" ht="19.5" customHeight="1">
       <c r="A612" s="30"/>
@@ -21715,6 +22334,7 @@
       <c r="AB612" s="30"/>
       <c r="AC612" s="30"/>
       <c r="AD612" s="30"/>
+      <c r="AE612" s="30"/>
     </row>
     <row r="613" ht="19.5" customHeight="1">
       <c r="A613" s="30"/>
@@ -21747,6 +22367,7 @@
       <c r="AB613" s="30"/>
       <c r="AC613" s="30"/>
       <c r="AD613" s="30"/>
+      <c r="AE613" s="30"/>
     </row>
     <row r="614" ht="19.5" customHeight="1">
       <c r="A614" s="30"/>
@@ -21779,6 +22400,7 @@
       <c r="AB614" s="30"/>
       <c r="AC614" s="30"/>
       <c r="AD614" s="30"/>
+      <c r="AE614" s="30"/>
     </row>
     <row r="615" ht="19.5" customHeight="1">
       <c r="A615" s="30"/>
@@ -21811,6 +22433,7 @@
       <c r="AB615" s="30"/>
       <c r="AC615" s="30"/>
       <c r="AD615" s="30"/>
+      <c r="AE615" s="30"/>
     </row>
     <row r="616" ht="19.5" customHeight="1">
       <c r="A616" s="30"/>
@@ -21843,6 +22466,7 @@
       <c r="AB616" s="30"/>
       <c r="AC616" s="30"/>
       <c r="AD616" s="30"/>
+      <c r="AE616" s="30"/>
     </row>
     <row r="617" ht="19.5" customHeight="1">
       <c r="A617" s="30"/>
@@ -21875,6 +22499,7 @@
       <c r="AB617" s="30"/>
       <c r="AC617" s="30"/>
       <c r="AD617" s="30"/>
+      <c r="AE617" s="30"/>
     </row>
     <row r="618" ht="19.5" customHeight="1">
       <c r="A618" s="30"/>
@@ -21907,6 +22532,7 @@
       <c r="AB618" s="30"/>
       <c r="AC618" s="30"/>
       <c r="AD618" s="30"/>
+      <c r="AE618" s="30"/>
     </row>
     <row r="619" ht="19.5" customHeight="1">
       <c r="A619" s="30"/>
@@ -21939,6 +22565,7 @@
       <c r="AB619" s="30"/>
       <c r="AC619" s="30"/>
       <c r="AD619" s="30"/>
+      <c r="AE619" s="30"/>
     </row>
     <row r="620" ht="19.5" customHeight="1">
       <c r="A620" s="30"/>
@@ -21971,6 +22598,7 @@
       <c r="AB620" s="30"/>
       <c r="AC620" s="30"/>
       <c r="AD620" s="30"/>
+      <c r="AE620" s="30"/>
     </row>
     <row r="621" ht="19.5" customHeight="1">
       <c r="A621" s="30"/>
@@ -22003,6 +22631,7 @@
       <c r="AB621" s="30"/>
       <c r="AC621" s="30"/>
       <c r="AD621" s="30"/>
+      <c r="AE621" s="30"/>
     </row>
     <row r="622" ht="19.5" customHeight="1">
       <c r="A622" s="30"/>
@@ -22035,6 +22664,7 @@
       <c r="AB622" s="30"/>
       <c r="AC622" s="30"/>
       <c r="AD622" s="30"/>
+      <c r="AE622" s="30"/>
     </row>
     <row r="623" ht="19.5" customHeight="1">
       <c r="A623" s="30"/>
@@ -22067,6 +22697,7 @@
       <c r="AB623" s="30"/>
       <c r="AC623" s="30"/>
       <c r="AD623" s="30"/>
+      <c r="AE623" s="30"/>
     </row>
     <row r="624" ht="19.5" customHeight="1">
       <c r="A624" s="30"/>
@@ -22099,6 +22730,7 @@
       <c r="AB624" s="30"/>
       <c r="AC624" s="30"/>
       <c r="AD624" s="30"/>
+      <c r="AE624" s="30"/>
     </row>
     <row r="625" ht="19.5" customHeight="1">
       <c r="A625" s="30"/>
@@ -22131,6 +22763,7 @@
       <c r="AB625" s="30"/>
       <c r="AC625" s="30"/>
       <c r="AD625" s="30"/>
+      <c r="AE625" s="30"/>
     </row>
     <row r="626" ht="19.5" customHeight="1">
       <c r="A626" s="30"/>
@@ -22163,6 +22796,7 @@
       <c r="AB626" s="30"/>
       <c r="AC626" s="30"/>
       <c r="AD626" s="30"/>
+      <c r="AE626" s="30"/>
     </row>
     <row r="627" ht="19.5" customHeight="1">
       <c r="A627" s="30"/>
@@ -22195,6 +22829,7 @@
       <c r="AB627" s="30"/>
       <c r="AC627" s="30"/>
       <c r="AD627" s="30"/>
+      <c r="AE627" s="30"/>
     </row>
     <row r="628" ht="19.5" customHeight="1">
       <c r="A628" s="30"/>
@@ -22227,6 +22862,7 @@
       <c r="AB628" s="30"/>
       <c r="AC628" s="30"/>
       <c r="AD628" s="30"/>
+      <c r="AE628" s="30"/>
     </row>
     <row r="629" ht="19.5" customHeight="1">
       <c r="A629" s="30"/>
@@ -22259,6 +22895,7 @@
       <c r="AB629" s="30"/>
       <c r="AC629" s="30"/>
       <c r="AD629" s="30"/>
+      <c r="AE629" s="30"/>
     </row>
     <row r="630" ht="19.5" customHeight="1">
       <c r="A630" s="30"/>
@@ -22291,6 +22928,7 @@
       <c r="AB630" s="30"/>
       <c r="AC630" s="30"/>
       <c r="AD630" s="30"/>
+      <c r="AE630" s="30"/>
     </row>
     <row r="631" ht="19.5" customHeight="1">
       <c r="A631" s="30"/>
@@ -22323,6 +22961,7 @@
       <c r="AB631" s="30"/>
       <c r="AC631" s="30"/>
       <c r="AD631" s="30"/>
+      <c r="AE631" s="30"/>
     </row>
     <row r="632" ht="19.5" customHeight="1">
       <c r="A632" s="30"/>
@@ -22355,6 +22994,7 @@
       <c r="AB632" s="30"/>
       <c r="AC632" s="30"/>
       <c r="AD632" s="30"/>
+      <c r="AE632" s="30"/>
     </row>
     <row r="633" ht="19.5" customHeight="1">
       <c r="A633" s="30"/>
@@ -22387,6 +23027,7 @@
       <c r="AB633" s="30"/>
       <c r="AC633" s="30"/>
       <c r="AD633" s="30"/>
+      <c r="AE633" s="30"/>
     </row>
     <row r="634" ht="19.5" customHeight="1">
       <c r="A634" s="30"/>
@@ -22419,6 +23060,7 @@
       <c r="AB634" s="30"/>
       <c r="AC634" s="30"/>
       <c r="AD634" s="30"/>
+      <c r="AE634" s="30"/>
     </row>
     <row r="635" ht="19.5" customHeight="1">
       <c r="A635" s="30"/>
@@ -22451,6 +23093,7 @@
       <c r="AB635" s="30"/>
       <c r="AC635" s="30"/>
       <c r="AD635" s="30"/>
+      <c r="AE635" s="30"/>
     </row>
     <row r="636" ht="19.5" customHeight="1">
       <c r="A636" s="30"/>
@@ -22483,6 +23126,7 @@
       <c r="AB636" s="30"/>
       <c r="AC636" s="30"/>
       <c r="AD636" s="30"/>
+      <c r="AE636" s="30"/>
     </row>
     <row r="637" ht="19.5" customHeight="1">
       <c r="A637" s="30"/>
@@ -22515,6 +23159,7 @@
       <c r="AB637" s="30"/>
       <c r="AC637" s="30"/>
       <c r="AD637" s="30"/>
+      <c r="AE637" s="30"/>
     </row>
     <row r="638" ht="19.5" customHeight="1">
       <c r="A638" s="30"/>
@@ -22547,6 +23192,7 @@
       <c r="AB638" s="30"/>
       <c r="AC638" s="30"/>
       <c r="AD638" s="30"/>
+      <c r="AE638" s="30"/>
     </row>
     <row r="639" ht="19.5" customHeight="1">
       <c r="A639" s="30"/>
@@ -22579,6 +23225,7 @@
       <c r="AB639" s="30"/>
       <c r="AC639" s="30"/>
       <c r="AD639" s="30"/>
+      <c r="AE639" s="30"/>
     </row>
     <row r="640" ht="19.5" customHeight="1">
       <c r="A640" s="30"/>
@@ -22611,6 +23258,7 @@
       <c r="AB640" s="30"/>
       <c r="AC640" s="30"/>
       <c r="AD640" s="30"/>
+      <c r="AE640" s="30"/>
     </row>
     <row r="641" ht="19.5" customHeight="1">
       <c r="A641" s="30"/>
@@ -22643,6 +23291,7 @@
       <c r="AB641" s="30"/>
       <c r="AC641" s="30"/>
       <c r="AD641" s="30"/>
+      <c r="AE641" s="30"/>
     </row>
     <row r="642" ht="19.5" customHeight="1">
       <c r="A642" s="30"/>
@@ -22675,6 +23324,7 @@
       <c r="AB642" s="30"/>
       <c r="AC642" s="30"/>
       <c r="AD642" s="30"/>
+      <c r="AE642" s="30"/>
     </row>
     <row r="643" ht="19.5" customHeight="1">
       <c r="A643" s="30"/>
@@ -22707,6 +23357,7 @@
       <c r="AB643" s="30"/>
       <c r="AC643" s="30"/>
       <c r="AD643" s="30"/>
+      <c r="AE643" s="30"/>
     </row>
     <row r="644" ht="19.5" customHeight="1">
       <c r="A644" s="30"/>
@@ -22739,6 +23390,7 @@
       <c r="AB644" s="30"/>
       <c r="AC644" s="30"/>
       <c r="AD644" s="30"/>
+      <c r="AE644" s="30"/>
     </row>
     <row r="645" ht="19.5" customHeight="1">
       <c r="A645" s="30"/>
@@ -22771,6 +23423,7 @@
       <c r="AB645" s="30"/>
       <c r="AC645" s="30"/>
       <c r="AD645" s="30"/>
+      <c r="AE645" s="30"/>
     </row>
     <row r="646" ht="19.5" customHeight="1">
       <c r="A646" s="30"/>
@@ -22803,6 +23456,7 @@
       <c r="AB646" s="30"/>
       <c r="AC646" s="30"/>
       <c r="AD646" s="30"/>
+      <c r="AE646" s="30"/>
     </row>
     <row r="647" ht="19.5" customHeight="1">
       <c r="A647" s="30"/>
@@ -22835,6 +23489,7 @@
       <c r="AB647" s="30"/>
       <c r="AC647" s="30"/>
       <c r="AD647" s="30"/>
+      <c r="AE647" s="30"/>
     </row>
     <row r="648" ht="19.5" customHeight="1">
       <c r="A648" s="30"/>
@@ -22867,6 +23522,7 @@
       <c r="AB648" s="30"/>
       <c r="AC648" s="30"/>
       <c r="AD648" s="30"/>
+      <c r="AE648" s="30"/>
     </row>
     <row r="649" ht="19.5" customHeight="1">
       <c r="A649" s="30"/>
@@ -22899,6 +23555,7 @@
       <c r="AB649" s="30"/>
       <c r="AC649" s="30"/>
       <c r="AD649" s="30"/>
+      <c r="AE649" s="30"/>
     </row>
     <row r="650" ht="19.5" customHeight="1">
       <c r="A650" s="30"/>
@@ -22931,6 +23588,7 @@
       <c r="AB650" s="30"/>
       <c r="AC650" s="30"/>
       <c r="AD650" s="30"/>
+      <c r="AE650" s="30"/>
     </row>
     <row r="651" ht="19.5" customHeight="1">
       <c r="A651" s="30"/>
@@ -22963,6 +23621,7 @@
       <c r="AB651" s="30"/>
       <c r="AC651" s="30"/>
       <c r="AD651" s="30"/>
+      <c r="AE651" s="30"/>
     </row>
     <row r="652" ht="19.5" customHeight="1">
       <c r="A652" s="30"/>
@@ -22995,6 +23654,7 @@
       <c r="AB652" s="30"/>
       <c r="AC652" s="30"/>
       <c r="AD652" s="30"/>
+      <c r="AE652" s="30"/>
     </row>
     <row r="653" ht="19.5" customHeight="1">
       <c r="A653" s="30"/>
@@ -23027,6 +23687,7 @@
       <c r="AB653" s="30"/>
       <c r="AC653" s="30"/>
       <c r="AD653" s="30"/>
+      <c r="AE653" s="30"/>
     </row>
     <row r="654" ht="19.5" customHeight="1">
       <c r="A654" s="30"/>
@@ -23059,6 +23720,7 @@
       <c r="AB654" s="30"/>
       <c r="AC654" s="30"/>
       <c r="AD654" s="30"/>
+      <c r="AE654" s="30"/>
     </row>
     <row r="655" ht="19.5" customHeight="1">
       <c r="A655" s="30"/>
@@ -23091,6 +23753,7 @@
       <c r="AB655" s="30"/>
       <c r="AC655" s="30"/>
       <c r="AD655" s="30"/>
+      <c r="AE655" s="30"/>
     </row>
     <row r="656" ht="19.5" customHeight="1">
       <c r="A656" s="30"/>
@@ -23123,6 +23786,7 @@
       <c r="AB656" s="30"/>
       <c r="AC656" s="30"/>
       <c r="AD656" s="30"/>
+      <c r="AE656" s="30"/>
     </row>
     <row r="657" ht="19.5" customHeight="1">
       <c r="A657" s="30"/>
@@ -23155,6 +23819,7 @@
       <c r="AB657" s="30"/>
       <c r="AC657" s="30"/>
       <c r="AD657" s="30"/>
+      <c r="AE657" s="30"/>
     </row>
     <row r="658" ht="19.5" customHeight="1">
       <c r="A658" s="30"/>
@@ -23187,6 +23852,7 @@
       <c r="AB658" s="30"/>
       <c r="AC658" s="30"/>
       <c r="AD658" s="30"/>
+      <c r="AE658" s="30"/>
     </row>
     <row r="659" ht="19.5" customHeight="1">
       <c r="A659" s="30"/>
@@ -23219,6 +23885,7 @@
       <c r="AB659" s="30"/>
       <c r="AC659" s="30"/>
       <c r="AD659" s="30"/>
+      <c r="AE659" s="30"/>
     </row>
     <row r="660" ht="19.5" customHeight="1">
       <c r="A660" s="30"/>
@@ -23251,6 +23918,7 @@
       <c r="AB660" s="30"/>
       <c r="AC660" s="30"/>
       <c r="AD660" s="30"/>
+      <c r="AE660" s="30"/>
     </row>
     <row r="661" ht="19.5" customHeight="1">
       <c r="A661" s="30"/>
@@ -23283,6 +23951,7 @@
       <c r="AB661" s="30"/>
       <c r="AC661" s="30"/>
       <c r="AD661" s="30"/>
+      <c r="AE661" s="30"/>
     </row>
     <row r="662" ht="19.5" customHeight="1">
       <c r="A662" s="30"/>
@@ -23315,6 +23984,7 @@
       <c r="AB662" s="30"/>
       <c r="AC662" s="30"/>
       <c r="AD662" s="30"/>
+      <c r="AE662" s="30"/>
     </row>
     <row r="663" ht="19.5" customHeight="1">
       <c r="A663" s="30"/>
@@ -23347,6 +24017,7 @@
       <c r="AB663" s="30"/>
       <c r="AC663" s="30"/>
       <c r="AD663" s="30"/>
+      <c r="AE663" s="30"/>
     </row>
     <row r="664" ht="19.5" customHeight="1">
       <c r="A664" s="30"/>
@@ -23379,6 +24050,7 @@
       <c r="AB664" s="30"/>
       <c r="AC664" s="30"/>
       <c r="AD664" s="30"/>
+      <c r="AE664" s="30"/>
     </row>
     <row r="665" ht="19.5" customHeight="1">
       <c r="A665" s="30"/>
@@ -23411,6 +24083,7 @@
       <c r="AB665" s="30"/>
       <c r="AC665" s="30"/>
       <c r="AD665" s="30"/>
+      <c r="AE665" s="30"/>
     </row>
     <row r="666" ht="19.5" customHeight="1">
       <c r="A666" s="30"/>
@@ -23443,6 +24116,7 @@
       <c r="AB666" s="30"/>
       <c r="AC666" s="30"/>
       <c r="AD666" s="30"/>
+      <c r="AE666" s="30"/>
     </row>
     <row r="667" ht="19.5" customHeight="1">
       <c r="A667" s="30"/>
@@ -23475,6 +24149,7 @@
       <c r="AB667" s="30"/>
       <c r="AC667" s="30"/>
       <c r="AD667" s="30"/>
+      <c r="AE667" s="30"/>
     </row>
     <row r="668" ht="19.5" customHeight="1">
       <c r="A668" s="30"/>
@@ -23507,6 +24182,7 @@
       <c r="AB668" s="30"/>
       <c r="AC668" s="30"/>
       <c r="AD668" s="30"/>
+      <c r="AE668" s="30"/>
     </row>
     <row r="669" ht="19.5" customHeight="1">
       <c r="A669" s="30"/>
@@ -23539,6 +24215,7 @@
       <c r="AB669" s="30"/>
       <c r="AC669" s="30"/>
       <c r="AD669" s="30"/>
+      <c r="AE669" s="30"/>
     </row>
     <row r="670" ht="19.5" customHeight="1">
       <c r="A670" s="30"/>
@@ -23571,6 +24248,7 @@
       <c r="AB670" s="30"/>
       <c r="AC670" s="30"/>
       <c r="AD670" s="30"/>
+      <c r="AE670" s="30"/>
     </row>
     <row r="671" ht="19.5" customHeight="1">
       <c r="A671" s="30"/>
@@ -23603,6 +24281,7 @@
       <c r="AB671" s="30"/>
       <c r="AC671" s="30"/>
       <c r="AD671" s="30"/>
+      <c r="AE671" s="30"/>
     </row>
     <row r="672" ht="19.5" customHeight="1">
       <c r="A672" s="30"/>
@@ -23635,6 +24314,7 @@
       <c r="AB672" s="30"/>
       <c r="AC672" s="30"/>
       <c r="AD672" s="30"/>
+      <c r="AE672" s="30"/>
     </row>
     <row r="673" ht="19.5" customHeight="1">
       <c r="A673" s="30"/>
@@ -23667,6 +24347,7 @@
       <c r="AB673" s="30"/>
       <c r="AC673" s="30"/>
       <c r="AD673" s="30"/>
+      <c r="AE673" s="30"/>
     </row>
     <row r="674" ht="19.5" customHeight="1">
       <c r="A674" s="30"/>
@@ -23699,6 +24380,7 @@
       <c r="AB674" s="30"/>
       <c r="AC674" s="30"/>
       <c r="AD674" s="30"/>
+      <c r="AE674" s="30"/>
     </row>
     <row r="675" ht="19.5" customHeight="1">
       <c r="A675" s="30"/>
@@ -23731,6 +24413,7 @@
       <c r="AB675" s="30"/>
       <c r="AC675" s="30"/>
       <c r="AD675" s="30"/>
+      <c r="AE675" s="30"/>
     </row>
     <row r="676" ht="19.5" customHeight="1">
       <c r="A676" s="30"/>
@@ -23763,6 +24446,7 @@
       <c r="AB676" s="30"/>
       <c r="AC676" s="30"/>
       <c r="AD676" s="30"/>
+      <c r="AE676" s="30"/>
     </row>
     <row r="677" ht="19.5" customHeight="1">
       <c r="A677" s="30"/>
@@ -23795,6 +24479,7 @@
       <c r="AB677" s="30"/>
       <c r="AC677" s="30"/>
       <c r="AD677" s="30"/>
+      <c r="AE677" s="30"/>
     </row>
     <row r="678" ht="19.5" customHeight="1">
       <c r="A678" s="30"/>
@@ -23827,6 +24512,7 @@
       <c r="AB678" s="30"/>
       <c r="AC678" s="30"/>
       <c r="AD678" s="30"/>
+      <c r="AE678" s="30"/>
     </row>
     <row r="679" ht="19.5" customHeight="1">
       <c r="A679" s="30"/>
@@ -23859,6 +24545,7 @@
       <c r="AB679" s="30"/>
       <c r="AC679" s="30"/>
       <c r="AD679" s="30"/>
+      <c r="AE679" s="30"/>
     </row>
     <row r="680" ht="19.5" customHeight="1">
       <c r="A680" s="30"/>
@@ -23891,6 +24578,7 @@
       <c r="AB680" s="30"/>
       <c r="AC680" s="30"/>
       <c r="AD680" s="30"/>
+      <c r="AE680" s="30"/>
     </row>
     <row r="681" ht="19.5" customHeight="1">
       <c r="A681" s="30"/>
@@ -23923,6 +24611,7 @@
       <c r="AB681" s="30"/>
       <c r="AC681" s="30"/>
       <c r="AD681" s="30"/>
+      <c r="AE681" s="30"/>
     </row>
     <row r="682" ht="19.5" customHeight="1">
       <c r="A682" s="30"/>
@@ -23955,6 +24644,7 @@
       <c r="AB682" s="30"/>
       <c r="AC682" s="30"/>
       <c r="AD682" s="30"/>
+      <c r="AE682" s="30"/>
     </row>
     <row r="683" ht="19.5" customHeight="1">
       <c r="A683" s="30"/>
@@ -23987,6 +24677,7 @@
       <c r="AB683" s="30"/>
       <c r="AC683" s="30"/>
       <c r="AD683" s="30"/>
+      <c r="AE683" s="30"/>
     </row>
     <row r="684" ht="19.5" customHeight="1">
       <c r="A684" s="30"/>
@@ -24019,6 +24710,7 @@
       <c r="AB684" s="30"/>
       <c r="AC684" s="30"/>
       <c r="AD684" s="30"/>
+      <c r="AE684" s="30"/>
     </row>
     <row r="685" ht="19.5" customHeight="1">
       <c r="A685" s="30"/>
@@ -24051,6 +24743,7 @@
       <c r="AB685" s="30"/>
       <c r="AC685" s="30"/>
       <c r="AD685" s="30"/>
+      <c r="AE685" s="30"/>
     </row>
     <row r="686" ht="19.5" customHeight="1">
       <c r="A686" s="30"/>
@@ -24083,6 +24776,7 @@
       <c r="AB686" s="30"/>
       <c r="AC686" s="30"/>
       <c r="AD686" s="30"/>
+      <c r="AE686" s="30"/>
     </row>
     <row r="687" ht="19.5" customHeight="1">
       <c r="A687" s="30"/>
@@ -24115,6 +24809,7 @@
       <c r="AB687" s="30"/>
       <c r="AC687" s="30"/>
       <c r="AD687" s="30"/>
+      <c r="AE687" s="30"/>
     </row>
     <row r="688" ht="19.5" customHeight="1">
       <c r="A688" s="30"/>
@@ -24147,6 +24842,7 @@
       <c r="AB688" s="30"/>
       <c r="AC688" s="30"/>
       <c r="AD688" s="30"/>
+      <c r="AE688" s="30"/>
     </row>
     <row r="689" ht="19.5" customHeight="1">
       <c r="A689" s="30"/>
@@ -24179,6 +24875,7 @@
       <c r="AB689" s="30"/>
       <c r="AC689" s="30"/>
       <c r="AD689" s="30"/>
+      <c r="AE689" s="30"/>
     </row>
     <row r="690" ht="19.5" customHeight="1">
       <c r="A690" s="30"/>
@@ -24211,6 +24908,7 @@
       <c r="AB690" s="30"/>
       <c r="AC690" s="30"/>
       <c r="AD690" s="30"/>
+      <c r="AE690" s="30"/>
     </row>
     <row r="691" ht="19.5" customHeight="1">
       <c r="A691" s="30"/>
@@ -24243,6 +24941,7 @@
       <c r="AB691" s="30"/>
       <c r="AC691" s="30"/>
       <c r="AD691" s="30"/>
+      <c r="AE691" s="30"/>
     </row>
     <row r="692" ht="19.5" customHeight="1">
       <c r="A692" s="30"/>
@@ -24275,6 +24974,7 @@
       <c r="AB692" s="30"/>
       <c r="AC692" s="30"/>
       <c r="AD692" s="30"/>
+      <c r="AE692" s="30"/>
     </row>
     <row r="693" ht="19.5" customHeight="1">
       <c r="A693" s="30"/>
@@ -24307,6 +25007,7 @@
       <c r="AB693" s="30"/>
       <c r="AC693" s="30"/>
       <c r="AD693" s="30"/>
+      <c r="AE693" s="30"/>
     </row>
     <row r="694" ht="19.5" customHeight="1">
       <c r="A694" s="30"/>
@@ -24339,6 +25040,7 @@
       <c r="AB694" s="30"/>
       <c r="AC694" s="30"/>
       <c r="AD694" s="30"/>
+      <c r="AE694" s="30"/>
     </row>
     <row r="695" ht="19.5" customHeight="1">
       <c r="A695" s="30"/>
@@ -24371,6 +25073,7 @@
       <c r="AB695" s="30"/>
       <c r="AC695" s="30"/>
       <c r="AD695" s="30"/>
+      <c r="AE695" s="30"/>
     </row>
     <row r="696" ht="19.5" customHeight="1">
       <c r="A696" s="30"/>
@@ -24403,6 +25106,7 @@
       <c r="AB696" s="30"/>
       <c r="AC696" s="30"/>
       <c r="AD696" s="30"/>
+      <c r="AE696" s="30"/>
     </row>
     <row r="697" ht="19.5" customHeight="1">
       <c r="A697" s="30"/>
@@ -24435,6 +25139,7 @@
       <c r="AB697" s="30"/>
       <c r="AC697" s="30"/>
       <c r="AD697" s="30"/>
+      <c r="AE697" s="30"/>
     </row>
     <row r="698" ht="19.5" customHeight="1">
       <c r="A698" s="30"/>
@@ -24467,6 +25172,7 @@
       <c r="AB698" s="30"/>
       <c r="AC698" s="30"/>
       <c r="AD698" s="30"/>
+      <c r="AE698" s="30"/>
     </row>
     <row r="699" ht="19.5" customHeight="1">
       <c r="A699" s="30"/>
@@ -24499,6 +25205,7 @@
       <c r="AB699" s="30"/>
       <c r="AC699" s="30"/>
       <c r="AD699" s="30"/>
+      <c r="AE699" s="30"/>
     </row>
     <row r="700" ht="19.5" customHeight="1">
       <c r="A700" s="30"/>
@@ -24531,6 +25238,7 @@
       <c r="AB700" s="30"/>
       <c r="AC700" s="30"/>
       <c r="AD700" s="30"/>
+      <c r="AE700" s="30"/>
     </row>
     <row r="701" ht="19.5" customHeight="1">
       <c r="A701" s="30"/>
@@ -24563,6 +25271,7 @@
       <c r="AB701" s="30"/>
       <c r="AC701" s="30"/>
       <c r="AD701" s="30"/>
+      <c r="AE701" s="30"/>
     </row>
     <row r="702" ht="19.5" customHeight="1">
       <c r="A702" s="30"/>
@@ -24595,6 +25304,7 @@
       <c r="AB702" s="30"/>
       <c r="AC702" s="30"/>
       <c r="AD702" s="30"/>
+      <c r="AE702" s="30"/>
     </row>
     <row r="703" ht="19.5" customHeight="1">
       <c r="A703" s="30"/>
@@ -24627,6 +25337,7 @@
       <c r="AB703" s="30"/>
       <c r="AC703" s="30"/>
       <c r="AD703" s="30"/>
+      <c r="AE703" s="30"/>
     </row>
     <row r="704" ht="19.5" customHeight="1">
       <c r="A704" s="30"/>
@@ -24659,6 +25370,7 @@
       <c r="AB704" s="30"/>
       <c r="AC704" s="30"/>
       <c r="AD704" s="30"/>
+      <c r="AE704" s="30"/>
     </row>
     <row r="705" ht="19.5" customHeight="1">
       <c r="A705" s="30"/>
@@ -24691,6 +25403,7 @@
       <c r="AB705" s="30"/>
       <c r="AC705" s="30"/>
       <c r="AD705" s="30"/>
+      <c r="AE705" s="30"/>
     </row>
     <row r="706" ht="19.5" customHeight="1">
       <c r="A706" s="30"/>
@@ -24723,6 +25436,7 @@
       <c r="AB706" s="30"/>
       <c r="AC706" s="30"/>
       <c r="AD706" s="30"/>
+      <c r="AE706" s="30"/>
     </row>
     <row r="707" ht="19.5" customHeight="1">
       <c r="A707" s="30"/>
@@ -24755,6 +25469,7 @@
       <c r="AB707" s="30"/>
       <c r="AC707" s="30"/>
       <c r="AD707" s="30"/>
+      <c r="AE707" s="30"/>
     </row>
     <row r="708" ht="19.5" customHeight="1">
       <c r="A708" s="30"/>
@@ -24787,6 +25502,7 @@
       <c r="AB708" s="30"/>
       <c r="AC708" s="30"/>
       <c r="AD708" s="30"/>
+      <c r="AE708" s="30"/>
     </row>
     <row r="709" ht="19.5" customHeight="1">
       <c r="A709" s="30"/>
@@ -24819,6 +25535,7 @@
       <c r="AB709" s="30"/>
       <c r="AC709" s="30"/>
       <c r="AD709" s="30"/>
+      <c r="AE709" s="30"/>
     </row>
     <row r="710" ht="19.5" customHeight="1">
       <c r="A710" s="30"/>
@@ -24851,6 +25568,7 @@
       <c r="AB710" s="30"/>
       <c r="AC710" s="30"/>
       <c r="AD710" s="30"/>
+      <c r="AE710" s="30"/>
     </row>
     <row r="711" ht="19.5" customHeight="1">
       <c r="A711" s="30"/>
@@ -24883,6 +25601,7 @@
       <c r="AB711" s="30"/>
       <c r="AC711" s="30"/>
       <c r="AD711" s="30"/>
+      <c r="AE711" s="30"/>
     </row>
     <row r="712" ht="19.5" customHeight="1">
       <c r="A712" s="30"/>
@@ -24915,6 +25634,7 @@
       <c r="AB712" s="30"/>
       <c r="AC712" s="30"/>
       <c r="AD712" s="30"/>
+      <c r="AE712" s="30"/>
     </row>
     <row r="713" ht="19.5" customHeight="1">
       <c r="A713" s="30"/>
@@ -24947,6 +25667,7 @@
       <c r="AB713" s="30"/>
       <c r="AC713" s="30"/>
       <c r="AD713" s="30"/>
+      <c r="AE713" s="30"/>
     </row>
     <row r="714" ht="19.5" customHeight="1">
       <c r="A714" s="30"/>
@@ -24979,6 +25700,7 @@
       <c r="AB714" s="30"/>
       <c r="AC714" s="30"/>
       <c r="AD714" s="30"/>
+      <c r="AE714" s="30"/>
     </row>
     <row r="715" ht="19.5" customHeight="1">
       <c r="A715" s="30"/>
@@ -25011,6 +25733,7 @@
       <c r="AB715" s="30"/>
       <c r="AC715" s="30"/>
       <c r="AD715" s="30"/>
+      <c r="AE715" s="30"/>
     </row>
     <row r="716" ht="19.5" customHeight="1">
       <c r="A716" s="30"/>
@@ -25043,6 +25766,7 @@
       <c r="AB716" s="30"/>
       <c r="AC716" s="30"/>
       <c r="AD716" s="30"/>
+      <c r="AE716" s="30"/>
     </row>
     <row r="717" ht="19.5" customHeight="1">
       <c r="A717" s="30"/>
@@ -25075,6 +25799,7 @@
       <c r="AB717" s="30"/>
       <c r="AC717" s="30"/>
       <c r="AD717" s="30"/>
+      <c r="AE717" s="30"/>
     </row>
     <row r="718" ht="19.5" customHeight="1">
       <c r="A718" s="30"/>
@@ -25107,6 +25832,7 @@
       <c r="AB718" s="30"/>
       <c r="AC718" s="30"/>
       <c r="AD718" s="30"/>
+      <c r="AE718" s="30"/>
     </row>
     <row r="719" ht="19.5" customHeight="1">
       <c r="A719" s="30"/>
@@ -25139,6 +25865,7 @@
       <c r="AB719" s="30"/>
       <c r="AC719" s="30"/>
       <c r="AD719" s="30"/>
+      <c r="AE719" s="30"/>
     </row>
     <row r="720" ht="19.5" customHeight="1">
       <c r="A720" s="30"/>
@@ -25171,6 +25898,7 @@
       <c r="AB720" s="30"/>
       <c r="AC720" s="30"/>
       <c r="AD720" s="30"/>
+      <c r="AE720" s="30"/>
     </row>
     <row r="721" ht="19.5" customHeight="1">
       <c r="A721" s="30"/>
@@ -25203,6 +25931,7 @@
       <c r="AB721" s="30"/>
       <c r="AC721" s="30"/>
       <c r="AD721" s="30"/>
+      <c r="AE721" s="30"/>
     </row>
     <row r="722" ht="19.5" customHeight="1">
       <c r="A722" s="30"/>
@@ -25235,6 +25964,7 @@
       <c r="AB722" s="30"/>
       <c r="AC722" s="30"/>
       <c r="AD722" s="30"/>
+      <c r="AE722" s="30"/>
     </row>
     <row r="723" ht="19.5" customHeight="1">
       <c r="A723" s="30"/>
@@ -25267,6 +25997,7 @@
       <c r="AB723" s="30"/>
       <c r="AC723" s="30"/>
       <c r="AD723" s="30"/>
+      <c r="AE723" s="30"/>
     </row>
     <row r="724" ht="19.5" customHeight="1">
       <c r="A724" s="30"/>
@@ -25299,6 +26030,7 @@
       <c r="AB724" s="30"/>
       <c r="AC724" s="30"/>
       <c r="AD724" s="30"/>
+      <c r="AE724" s="30"/>
     </row>
     <row r="725" ht="19.5" customHeight="1">
       <c r="A725" s="30"/>
@@ -25331,6 +26063,7 @@
       <c r="AB725" s="30"/>
       <c r="AC725" s="30"/>
       <c r="AD725" s="30"/>
+      <c r="AE725" s="30"/>
     </row>
     <row r="726" ht="19.5" customHeight="1">
       <c r="A726" s="30"/>
@@ -25363,6 +26096,7 @@
       <c r="AB726" s="30"/>
       <c r="AC726" s="30"/>
       <c r="AD726" s="30"/>
+      <c r="AE726" s="30"/>
     </row>
     <row r="727" ht="19.5" customHeight="1">
       <c r="A727" s="30"/>
@@ -25395,6 +26129,7 @@
       <c r="AB727" s="30"/>
       <c r="AC727" s="30"/>
       <c r="AD727" s="30"/>
+      <c r="AE727" s="30"/>
     </row>
     <row r="728" ht="19.5" customHeight="1">
       <c r="A728" s="30"/>
@@ -25427,6 +26162,7 @@
       <c r="AB728" s="30"/>
       <c r="AC728" s="30"/>
       <c r="AD728" s="30"/>
+      <c r="AE728" s="30"/>
     </row>
     <row r="729" ht="19.5" customHeight="1">
       <c r="A729" s="30"/>
@@ -25459,6 +26195,7 @@
       <c r="AB729" s="30"/>
       <c r="AC729" s="30"/>
       <c r="AD729" s="30"/>
+      <c r="AE729" s="30"/>
     </row>
     <row r="730" ht="19.5" customHeight="1">
       <c r="A730" s="30"/>
@@ -25491,6 +26228,7 @@
       <c r="AB730" s="30"/>
       <c r="AC730" s="30"/>
       <c r="AD730" s="30"/>
+      <c r="AE730" s="30"/>
     </row>
     <row r="731" ht="19.5" customHeight="1">
       <c r="A731" s="30"/>
@@ -25523,6 +26261,7 @@
       <c r="AB731" s="30"/>
       <c r="AC731" s="30"/>
       <c r="AD731" s="30"/>
+      <c r="AE731" s="30"/>
     </row>
     <row r="732" ht="19.5" customHeight="1">
       <c r="A732" s="30"/>
@@ -25555,6 +26294,7 @@
       <c r="AB732" s="30"/>
       <c r="AC732" s="30"/>
       <c r="AD732" s="30"/>
+      <c r="AE732" s="30"/>
     </row>
     <row r="733" ht="19.5" customHeight="1">
       <c r="A733" s="30"/>
@@ -25587,6 +26327,7 @@
       <c r="AB733" s="30"/>
       <c r="AC733" s="30"/>
       <c r="AD733" s="30"/>
+      <c r="AE733" s="30"/>
     </row>
     <row r="734" ht="19.5" customHeight="1">
       <c r="A734" s="30"/>
@@ -25619,6 +26360,7 @@
       <c r="AB734" s="30"/>
       <c r="AC734" s="30"/>
       <c r="AD734" s="30"/>
+      <c r="AE734" s="30"/>
     </row>
     <row r="735" ht="19.5" customHeight="1">
       <c r="A735" s="30"/>
@@ -25651,6 +26393,7 @@
       <c r="AB735" s="30"/>
       <c r="AC735" s="30"/>
       <c r="AD735" s="30"/>
+      <c r="AE735" s="30"/>
     </row>
     <row r="736" ht="19.5" customHeight="1">
       <c r="A736" s="30"/>
@@ -25683,6 +26426,7 @@
       <c r="AB736" s="30"/>
       <c r="AC736" s="30"/>
       <c r="AD736" s="30"/>
+      <c r="AE736" s="30"/>
     </row>
     <row r="737" ht="19.5" customHeight="1">
       <c r="A737" s="30"/>
@@ -25715,6 +26459,7 @@
       <c r="AB737" s="30"/>
       <c r="AC737" s="30"/>
       <c r="AD737" s="30"/>
+      <c r="AE737" s="30"/>
     </row>
     <row r="738" ht="19.5" customHeight="1">
       <c r="A738" s="30"/>
@@ -25747,6 +26492,7 @@
       <c r="AB738" s="30"/>
       <c r="AC738" s="30"/>
       <c r="AD738" s="30"/>
+      <c r="AE738" s="30"/>
     </row>
     <row r="739" ht="19.5" customHeight="1">
       <c r="A739" s="30"/>
@@ -25779,6 +26525,7 @@
       <c r="AB739" s="30"/>
       <c r="AC739" s="30"/>
       <c r="AD739" s="30"/>
+      <c r="AE739" s="30"/>
     </row>
     <row r="740" ht="19.5" customHeight="1">
       <c r="A740" s="30"/>
@@ -25811,6 +26558,7 @@
       <c r="AB740" s="30"/>
       <c r="AC740" s="30"/>
       <c r="AD740" s="30"/>
+      <c r="AE740" s="30"/>
     </row>
     <row r="741" ht="19.5" customHeight="1">
       <c r="A741" s="30"/>
@@ -25843,6 +26591,7 @@
       <c r="AB741" s="30"/>
       <c r="AC741" s="30"/>
       <c r="AD741" s="30"/>
+      <c r="AE741" s="30"/>
     </row>
     <row r="742" ht="19.5" customHeight="1">
       <c r="A742" s="30"/>
@@ -25875,6 +26624,7 @@
       <c r="AB742" s="30"/>
       <c r="AC742" s="30"/>
       <c r="AD742" s="30"/>
+      <c r="AE742" s="30"/>
     </row>
     <row r="743" ht="19.5" customHeight="1">
       <c r="A743" s="30"/>
@@ -25907,6 +26657,7 @@
       <c r="AB743" s="30"/>
       <c r="AC743" s="30"/>
       <c r="AD743" s="30"/>
+      <c r="AE743" s="30"/>
     </row>
     <row r="744" ht="19.5" customHeight="1">
       <c r="A744" s="30"/>
@@ -25939,6 +26690,7 @@
       <c r="AB744" s="30"/>
       <c r="AC744" s="30"/>
       <c r="AD744" s="30"/>
+      <c r="AE744" s="30"/>
     </row>
     <row r="745" ht="19.5" customHeight="1">
       <c r="A745" s="30"/>
@@ -25971,6 +26723,7 @@
       <c r="AB745" s="30"/>
       <c r="AC745" s="30"/>
       <c r="AD745" s="30"/>
+      <c r="AE745" s="30"/>
     </row>
     <row r="746" ht="19.5" customHeight="1">
       <c r="A746" s="30"/>
@@ -26003,6 +26756,7 @@
       <c r="AB746" s="30"/>
       <c r="AC746" s="30"/>
       <c r="AD746" s="30"/>
+      <c r="AE746" s="30"/>
     </row>
     <row r="747" ht="19.5" customHeight="1">
       <c r="A747" s="30"/>
@@ -26035,6 +26789,7 @@
       <c r="AB747" s="30"/>
       <c r="AC747" s="30"/>
       <c r="AD747" s="30"/>
+      <c r="AE747" s="30"/>
     </row>
     <row r="748" ht="19.5" customHeight="1">
       <c r="A748" s="30"/>
@@ -26067,6 +26822,7 @@
       <c r="AB748" s="30"/>
       <c r="AC748" s="30"/>
       <c r="AD748" s="30"/>
+      <c r="AE748" s="30"/>
     </row>
     <row r="749" ht="19.5" customHeight="1">
       <c r="A749" s="30"/>
@@ -26099,6 +26855,7 @@
       <c r="AB749" s="30"/>
       <c r="AC749" s="30"/>
       <c r="AD749" s="30"/>
+      <c r="AE749" s="30"/>
     </row>
     <row r="750" ht="19.5" customHeight="1">
       <c r="A750" s="30"/>
@@ -26131,6 +26888,7 @@
       <c r="AB750" s="30"/>
       <c r="AC750" s="30"/>
       <c r="AD750" s="30"/>
+      <c r="AE750" s="30"/>
     </row>
     <row r="751" ht="19.5" customHeight="1">
       <c r="A751" s="30"/>
@@ -26163,6 +26921,7 @@
       <c r="AB751" s="30"/>
       <c r="AC751" s="30"/>
       <c r="AD751" s="30"/>
+      <c r="AE751" s="30"/>
     </row>
     <row r="752" ht="19.5" customHeight="1">
       <c r="A752" s="30"/>
@@ -26195,6 +26954,7 @@
       <c r="AB752" s="30"/>
       <c r="AC752" s="30"/>
       <c r="AD752" s="30"/>
+      <c r="AE752" s="30"/>
     </row>
     <row r="753" ht="19.5" customHeight="1">
       <c r="A753" s="30"/>
@@ -26227,6 +26987,7 @@
       <c r="AB753" s="30"/>
       <c r="AC753" s="30"/>
       <c r="AD753" s="30"/>
+      <c r="AE753" s="30"/>
     </row>
     <row r="754" ht="19.5" customHeight="1">
       <c r="A754" s="30"/>
@@ -26259,6 +27020,7 @@
       <c r="AB754" s="30"/>
       <c r="AC754" s="30"/>
       <c r="AD754" s="30"/>
+      <c r="AE754" s="30"/>
     </row>
     <row r="755" ht="19.5" customHeight="1">
       <c r="A755" s="30"/>
@@ -26291,6 +27053,7 @@
       <c r="AB755" s="30"/>
       <c r="AC755" s="30"/>
       <c r="AD755" s="30"/>
+      <c r="AE755" s="30"/>
     </row>
     <row r="756" ht="19.5" customHeight="1">
       <c r="A756" s="30"/>
@@ -26323,6 +27086,7 @@
       <c r="AB756" s="30"/>
       <c r="AC756" s="30"/>
       <c r="AD756" s="30"/>
+      <c r="AE756" s="30"/>
     </row>
     <row r="757" ht="19.5" customHeight="1">
       <c r="A757" s="30"/>
@@ -26355,6 +27119,7 @@
       <c r="AB757" s="30"/>
       <c r="AC757" s="30"/>
       <c r="AD757" s="30"/>
+      <c r="AE757" s="30"/>
     </row>
     <row r="758" ht="19.5" customHeight="1">
       <c r="A758" s="30"/>
@@ -26387,6 +27152,7 @@
       <c r="AB758" s="30"/>
       <c r="AC758" s="30"/>
       <c r="AD758" s="30"/>
+      <c r="AE758" s="30"/>
     </row>
     <row r="759" ht="19.5" customHeight="1">
       <c r="A759" s="30"/>
@@ -26419,6 +27185,7 @@
       <c r="AB759" s="30"/>
       <c r="AC759" s="30"/>
       <c r="AD759" s="30"/>
+      <c r="AE759" s="30"/>
     </row>
     <row r="760" ht="19.5" customHeight="1">
       <c r="A760" s="30"/>
@@ -26451,6 +27218,7 @@
       <c r="AB760" s="30"/>
       <c r="AC760" s="30"/>
       <c r="AD760" s="30"/>
+      <c r="AE760" s="30"/>
     </row>
     <row r="761" ht="19.5" customHeight="1">
       <c r="A761" s="30"/>
@@ -26483,6 +27251,7 @@
       <c r="AB761" s="30"/>
       <c r="AC761" s="30"/>
       <c r="AD761" s="30"/>
+      <c r="AE761" s="30"/>
     </row>
     <row r="762" ht="19.5" customHeight="1">
       <c r="A762" s="30"/>
@@ -26515,6 +27284,7 @@
       <c r="AB762" s="30"/>
       <c r="AC762" s="30"/>
       <c r="AD762" s="30"/>
+      <c r="AE762" s="30"/>
     </row>
     <row r="763" ht="19.5" customHeight="1">
       <c r="A763" s="30"/>
@@ -26547,6 +27317,7 @@
       <c r="AB763" s="30"/>
       <c r="AC763" s="30"/>
       <c r="AD763" s="30"/>
+      <c r="AE763" s="30"/>
     </row>
     <row r="764" ht="19.5" customHeight="1">
       <c r="A764" s="30"/>
@@ -26579,6 +27350,7 @@
       <c r="AB764" s="30"/>
       <c r="AC764" s="30"/>
       <c r="AD764" s="30"/>
+      <c r="AE764" s="30"/>
     </row>
     <row r="765" ht="19.5" customHeight="1">
       <c r="A765" s="30"/>
@@ -26611,6 +27383,7 @@
       <c r="AB765" s="30"/>
       <c r="AC765" s="30"/>
       <c r="AD765" s="30"/>
+      <c r="AE765" s="30"/>
     </row>
     <row r="766" ht="19.5" customHeight="1">
       <c r="A766" s="30"/>
@@ -26643,6 +27416,7 @@
       <c r="AB766" s="30"/>
       <c r="AC766" s="30"/>
       <c r="AD766" s="30"/>
+      <c r="AE766" s="30"/>
     </row>
     <row r="767" ht="19.5" customHeight="1">
       <c r="A767" s="30"/>
@@ -26675,6 +27449,7 @@
       <c r="AB767" s="30"/>
       <c r="AC767" s="30"/>
       <c r="AD767" s="30"/>
+      <c r="AE767" s="30"/>
     </row>
     <row r="768" ht="19.5" customHeight="1">
       <c r="A768" s="30"/>
@@ -26707,6 +27482,7 @@
       <c r="AB768" s="30"/>
       <c r="AC768" s="30"/>
       <c r="AD768" s="30"/>
+      <c r="AE768" s="30"/>
     </row>
     <row r="769" ht="19.5" customHeight="1">
       <c r="A769" s="30"/>
@@ -26739,6 +27515,7 @@
       <c r="AB769" s="30"/>
       <c r="AC769" s="30"/>
       <c r="AD769" s="30"/>
+      <c r="AE769" s="30"/>
     </row>
     <row r="770" ht="19.5" customHeight="1">
       <c r="A770" s="30"/>
@@ -26771,6 +27548,7 @@
       <c r="AB770" s="30"/>
       <c r="AC770" s="30"/>
       <c r="AD770" s="30"/>
+      <c r="AE770" s="30"/>
     </row>
     <row r="771" ht="19.5" customHeight="1">
       <c r="A771" s="30"/>
@@ -26803,6 +27581,7 @@
       <c r="AB771" s="30"/>
       <c r="AC771" s="30"/>
       <c r="AD771" s="30"/>
+      <c r="AE771" s="30"/>
     </row>
     <row r="772" ht="19.5" customHeight="1">
       <c r="A772" s="30"/>
@@ -26835,6 +27614,7 @@
       <c r="AB772" s="30"/>
       <c r="AC772" s="30"/>
       <c r="AD772" s="30"/>
+      <c r="AE772" s="30"/>
     </row>
     <row r="773" ht="19.5" customHeight="1">
       <c r="A773" s="30"/>
@@ -26867,6 +27647,7 @@
       <c r="AB773" s="30"/>
       <c r="AC773" s="30"/>
       <c r="AD773" s="30"/>
+      <c r="AE773" s="30"/>
     </row>
     <row r="774" ht="19.5" customHeight="1">
       <c r="A774" s="30"/>
@@ -26899,6 +27680,7 @@
       <c r="AB774" s="30"/>
       <c r="AC774" s="30"/>
       <c r="AD774" s="30"/>
+      <c r="AE774" s="30"/>
     </row>
     <row r="775" ht="19.5" customHeight="1">
       <c r="A775" s="30"/>
@@ -26931,6 +27713,7 @@
       <c r="AB775" s="30"/>
       <c r="AC775" s="30"/>
       <c r="AD775" s="30"/>
+      <c r="AE775" s="30"/>
     </row>
     <row r="776" ht="19.5" customHeight="1">
       <c r="A776" s="30"/>
@@ -26963,6 +27746,7 @@
       <c r="AB776" s="30"/>
       <c r="AC776" s="30"/>
       <c r="AD776" s="30"/>
+      <c r="AE776" s="30"/>
     </row>
     <row r="777" ht="19.5" customHeight="1">
       <c r="A777" s="30"/>
@@ -26995,6 +27779,7 @@
       <c r="AB777" s="30"/>
       <c r="AC777" s="30"/>
       <c r="AD777" s="30"/>
+      <c r="AE777" s="30"/>
     </row>
     <row r="778" ht="19.5" customHeight="1">
       <c r="A778" s="30"/>
@@ -27027,6 +27812,7 @@
       <c r="AB778" s="30"/>
       <c r="AC778" s="30"/>
       <c r="AD778" s="30"/>
+      <c r="AE778" s="30"/>
     </row>
     <row r="779" ht="19.5" customHeight="1">
       <c r="A779" s="30"/>
@@ -27059,6 +27845,7 @@
       <c r="AB779" s="30"/>
       <c r="AC779" s="30"/>
       <c r="AD779" s="30"/>
+      <c r="AE779" s="30"/>
     </row>
     <row r="780" ht="19.5" customHeight="1">
       <c r="A780" s="30"/>
@@ -27091,6 +27878,7 @@
       <c r="AB780" s="30"/>
       <c r="AC780" s="30"/>
       <c r="AD780" s="30"/>
+      <c r="AE780" s="30"/>
     </row>
     <row r="781" ht="19.5" customHeight="1">
       <c r="A781" s="30"/>
@@ -27123,6 +27911,7 @@
       <c r="AB781" s="30"/>
       <c r="AC781" s="30"/>
       <c r="AD781" s="30"/>
+      <c r="AE781" s="30"/>
     </row>
     <row r="782" ht="19.5" customHeight="1">
       <c r="A782" s="30"/>
@@ -27155,6 +27944,7 @@
       <c r="AB782" s="30"/>
       <c r="AC782" s="30"/>
       <c r="AD782" s="30"/>
+      <c r="AE782" s="30"/>
     </row>
     <row r="783" ht="19.5" customHeight="1">
       <c r="A783" s="30"/>
@@ -27187,6 +27977,7 @@
       <c r="AB783" s="30"/>
       <c r="AC783" s="30"/>
       <c r="AD783" s="30"/>
+      <c r="AE783" s="30"/>
     </row>
     <row r="784" ht="19.5" customHeight="1">
       <c r="A784" s="30"/>
@@ -27219,6 +28010,7 @@
       <c r="AB784" s="30"/>
       <c r="AC784" s="30"/>
       <c r="AD784" s="30"/>
+      <c r="AE784" s="30"/>
     </row>
     <row r="785" ht="19.5" customHeight="1">
       <c r="A785" s="30"/>
@@ -27251,6 +28043,7 @@
       <c r="AB785" s="30"/>
       <c r="AC785" s="30"/>
       <c r="AD785" s="30"/>
+      <c r="AE785" s="30"/>
     </row>
     <row r="786" ht="19.5" customHeight="1">
       <c r="A786" s="30"/>
@@ -27283,6 +28076,7 @@
       <c r="AB786" s="30"/>
       <c r="AC786" s="30"/>
       <c r="AD786" s="30"/>
+      <c r="AE786" s="30"/>
     </row>
     <row r="787" ht="19.5" customHeight="1">
       <c r="A787" s="30"/>
@@ -27315,6 +28109,7 @@
       <c r="AB787" s="30"/>
       <c r="AC787" s="30"/>
       <c r="AD787" s="30"/>
+      <c r="AE787" s="30"/>
     </row>
     <row r="788" ht="19.5" customHeight="1">
       <c r="A788" s="30"/>
@@ -27347,6 +28142,7 @@
       <c r="AB788" s="30"/>
       <c r="AC788" s="30"/>
       <c r="AD788" s="30"/>
+      <c r="AE788" s="30"/>
     </row>
     <row r="789" ht="19.5" customHeight="1">
       <c r="A789" s="30"/>
@@ -27379,6 +28175,7 @@
       <c r="AB789" s="30"/>
       <c r="AC789" s="30"/>
       <c r="AD789" s="30"/>
+      <c r="AE789" s="30"/>
     </row>
     <row r="790" ht="19.5" customHeight="1">
       <c r="A790" s="30"/>
@@ -27411,6 +28208,7 @@
       <c r="AB790" s="30"/>
       <c r="AC790" s="30"/>
       <c r="AD790" s="30"/>
+      <c r="AE790" s="30"/>
     </row>
     <row r="791" ht="19.5" customHeight="1">
       <c r="A791" s="30"/>
@@ -27443,6 +28241,7 @@
       <c r="AB791" s="30"/>
       <c r="AC791" s="30"/>
       <c r="AD791" s="30"/>
+      <c r="AE791" s="30"/>
     </row>
     <row r="792" ht="19.5" customHeight="1">
       <c r="A792" s="30"/>
@@ -27475,6 +28274,7 @@
       <c r="AB792" s="30"/>
       <c r="AC792" s="30"/>
       <c r="AD792" s="30"/>
+      <c r="AE792" s="30"/>
     </row>
     <row r="793" ht="19.5" customHeight="1">
       <c r="A793" s="30"/>
@@ -27507,6 +28307,7 @@
       <c r="AB793" s="30"/>
       <c r="AC793" s="30"/>
       <c r="AD793" s="30"/>
+      <c r="AE793" s="30"/>
     </row>
     <row r="794" ht="19.5" customHeight="1">
       <c r="A794" s="30"/>
@@ -27539,6 +28340,7 @@
       <c r="AB794" s="30"/>
       <c r="AC794" s="30"/>
       <c r="AD794" s="30"/>
+      <c r="AE794" s="30"/>
     </row>
     <row r="795" ht="19.5" customHeight="1">
       <c r="A795" s="30"/>
@@ -27571,6 +28373,7 @@
       <c r="AB795" s="30"/>
       <c r="AC795" s="30"/>
       <c r="AD795" s="30"/>
+      <c r="AE795" s="30"/>
     </row>
     <row r="796" ht="19.5" customHeight="1">
       <c r="A796" s="30"/>
@@ -27603,6 +28406,7 @@
       <c r="AB796" s="30"/>
       <c r="AC796" s="30"/>
       <c r="AD796" s="30"/>
+      <c r="AE796" s="30"/>
     </row>
     <row r="797" ht="19.5" customHeight="1">
       <c r="A797" s="30"/>
@@ -27635,6 +28439,7 @@
       <c r="AB797" s="30"/>
       <c r="AC797" s="30"/>
       <c r="AD797" s="30"/>
+      <c r="AE797" s="30"/>
     </row>
     <row r="798" ht="19.5" customHeight="1">
       <c r="A798" s="30"/>
@@ -27667,6 +28472,7 @@
       <c r="AB798" s="30"/>
       <c r="AC798" s="30"/>
       <c r="AD798" s="30"/>
+      <c r="AE798" s="30"/>
     </row>
     <row r="799" ht="19.5" customHeight="1">
       <c r="A799" s="30"/>
@@ -27699,6 +28505,7 @@
       <c r="AB799" s="30"/>
       <c r="AC799" s="30"/>
       <c r="AD799" s="30"/>
+      <c r="AE799" s="30"/>
     </row>
     <row r="800" ht="19.5" customHeight="1">
       <c r="A800" s="30"/>
@@ -27731,6 +28538,7 @@
       <c r="AB800" s="30"/>
       <c r="AC800" s="30"/>
       <c r="AD800" s="30"/>
+      <c r="AE800" s="30"/>
     </row>
     <row r="801" ht="19.5" customHeight="1">
       <c r="A801" s="30"/>
@@ -27763,6 +28571,7 @@
       <c r="AB801" s="30"/>
       <c r="AC801" s="30"/>
       <c r="AD801" s="30"/>
+      <c r="AE801" s="30"/>
     </row>
     <row r="802" ht="19.5" customHeight="1">
       <c r="A802" s="30"/>
@@ -27795,6 +28604,7 @@
       <c r="AB802" s="30"/>
       <c r="AC802" s="30"/>
       <c r="AD802" s="30"/>
+      <c r="AE802" s="30"/>
     </row>
     <row r="803" ht="19.5" customHeight="1">
       <c r="A803" s="30"/>
@@ -27827,6 +28637,7 @@
       <c r="AB803" s="30"/>
       <c r="AC803" s="30"/>
       <c r="AD803" s="30"/>
+      <c r="AE803" s="30"/>
     </row>
     <row r="804" ht="19.5" customHeight="1">
       <c r="A804" s="30"/>
@@ -27859,6 +28670,7 @@
       <c r="AB804" s="30"/>
       <c r="AC804" s="30"/>
       <c r="AD804" s="30"/>
+      <c r="AE804" s="30"/>
     </row>
     <row r="805" ht="19.5" customHeight="1">
       <c r="A805" s="30"/>
@@ -27891,6 +28703,7 @@
       <c r="AB805" s="30"/>
       <c r="AC805" s="30"/>
       <c r="AD805" s="30"/>
+      <c r="AE805" s="30"/>
     </row>
     <row r="806" ht="19.5" customHeight="1">
       <c r="A806" s="30"/>
@@ -27923,6 +28736,7 @@
       <c r="AB806" s="30"/>
       <c r="AC806" s="30"/>
       <c r="AD806" s="30"/>
+      <c r="AE806" s="30"/>
     </row>
     <row r="807" ht="19.5" customHeight="1">
       <c r="A807" s="30"/>
@@ -27955,6 +28769,7 @@
       <c r="AB807" s="30"/>
       <c r="AC807" s="30"/>
       <c r="AD807" s="30"/>
+      <c r="AE807" s="30"/>
     </row>
     <row r="808" ht="19.5" customHeight="1">
       <c r="A808" s="30"/>
@@ -27987,6 +28802,7 @@
       <c r="AB808" s="30"/>
       <c r="AC808" s="30"/>
       <c r="AD808" s="30"/>
+      <c r="AE808" s="30"/>
     </row>
     <row r="809" ht="19.5" customHeight="1">
       <c r="A809" s="30"/>
@@ -28019,6 +28835,7 @@
       <c r="AB809" s="30"/>
       <c r="AC809" s="30"/>
       <c r="AD809" s="30"/>
+      <c r="AE809" s="30"/>
     </row>
     <row r="810" ht="19.5" customHeight="1">
       <c r="A810" s="30"/>
@@ -28051,6 +28868,7 @@
       <c r="AB810" s="30"/>
       <c r="AC810" s="30"/>
       <c r="AD810" s="30"/>
+      <c r="AE810" s="30"/>
     </row>
     <row r="811" ht="19.5" customHeight="1">
       <c r="A811" s="30"/>
@@ -28083,6 +28901,7 @@
       <c r="AB811" s="30"/>
       <c r="AC811" s="30"/>
       <c r="AD811" s="30"/>
+      <c r="AE811" s="30"/>
     </row>
     <row r="812" ht="19.5" customHeight="1">
       <c r="A812" s="30"/>
@@ -28115,6 +28934,7 @@
       <c r="AB812" s="30"/>
       <c r="AC812" s="30"/>
       <c r="AD812" s="30"/>
+      <c r="AE812" s="30"/>
     </row>
     <row r="813" ht="19.5" customHeight="1">
       <c r="A813" s="30"/>
@@ -28147,6 +28967,7 @@
       <c r="AB813" s="30"/>
       <c r="AC813" s="30"/>
       <c r="AD813" s="30"/>
+      <c r="AE813" s="30"/>
     </row>
     <row r="814" ht="19.5" customHeight="1">
       <c r="A814" s="30"/>
@@ -28179,6 +29000,7 @@
       <c r="AB814" s="30"/>
       <c r="AC814" s="30"/>
       <c r="AD814" s="30"/>
+      <c r="AE814" s="30"/>
     </row>
     <row r="815" ht="19.5" customHeight="1">
       <c r="A815" s="30"/>
@@ -28211,6 +29033,7 @@
       <c r="AB815" s="30"/>
       <c r="AC815" s="30"/>
       <c r="AD815" s="30"/>
+      <c r="AE815" s="30"/>
     </row>
     <row r="816" ht="19.5" customHeight="1">
       <c r="A816" s="30"/>
@@ -28243,6 +29066,7 @@
       <c r="AB816" s="30"/>
       <c r="AC816" s="30"/>
       <c r="AD816" s="30"/>
+      <c r="AE816" s="30"/>
     </row>
     <row r="817" ht="19.5" customHeight="1">
       <c r="A817" s="30"/>
@@ -28275,6 +29099,7 @@
       <c r="AB817" s="30"/>
       <c r="AC817" s="30"/>
       <c r="AD817" s="30"/>
+      <c r="AE817" s="30"/>
     </row>
     <row r="818" ht="19.5" customHeight="1">
       <c r="A818" s="30"/>
@@ -28307,6 +29132,7 @@
       <c r="AB818" s="30"/>
       <c r="AC818" s="30"/>
       <c r="AD818" s="30"/>
+      <c r="AE818" s="30"/>
     </row>
     <row r="819" ht="19.5" customHeight="1">
       <c r="A819" s="30"/>
@@ -28339,6 +29165,7 @@
       <c r="AB819" s="30"/>
       <c r="AC819" s="30"/>
       <c r="AD819" s="30"/>
+      <c r="AE819" s="30"/>
     </row>
     <row r="820" ht="19.5" customHeight="1">
       <c r="A820" s="30"/>
@@ -28371,6 +29198,7 @@
       <c r="AB820" s="30"/>
       <c r="AC820" s="30"/>
       <c r="AD820" s="30"/>
+      <c r="AE820" s="30"/>
     </row>
     <row r="821" ht="19.5" customHeight="1">
       <c r="A821" s="30"/>
@@ -28403,6 +29231,7 @@
       <c r="AB821" s="30"/>
       <c r="AC821" s="30"/>
       <c r="AD821" s="30"/>
+      <c r="AE821" s="30"/>
     </row>
     <row r="822" ht="19.5" customHeight="1">
       <c r="A822" s="30"/>
@@ -28435,6 +29264,7 @@
       <c r="AB822" s="30"/>
       <c r="AC822" s="30"/>
       <c r="AD822" s="30"/>
+      <c r="AE822" s="30"/>
     </row>
     <row r="823" ht="19.5" customHeight="1">
       <c r="A823" s="30"/>
@@ -28467,6 +29297,7 @@
       <c r="AB823" s="30"/>
       <c r="AC823" s="30"/>
       <c r="AD823" s="30"/>
+      <c r="AE823" s="30"/>
     </row>
     <row r="824" ht="19.5" customHeight="1">
       <c r="A824" s="30"/>
@@ -28499,6 +29330,7 @@
       <c r="AB824" s="30"/>
       <c r="AC824" s="30"/>
       <c r="AD824" s="30"/>
+      <c r="AE824" s="30"/>
     </row>
     <row r="825" ht="19.5" customHeight="1">
       <c r="A825" s="30"/>
@@ -28531,6 +29363,7 @@
       <c r="AB825" s="30"/>
       <c r="AC825" s="30"/>
       <c r="AD825" s="30"/>
+      <c r="AE825" s="30"/>
     </row>
     <row r="826" ht="19.5" customHeight="1">
       <c r="A826" s="30"/>
@@ -28563,6 +29396,7 @@
       <c r="AB826" s="30"/>
       <c r="AC826" s="30"/>
       <c r="AD826" s="30"/>
+      <c r="AE826" s="30"/>
     </row>
     <row r="827" ht="19.5" customHeight="1">
       <c r="A827" s="30"/>
@@ -28595,6 +29429,7 @@
       <c r="AB827" s="30"/>
       <c r="AC827" s="30"/>
       <c r="AD827" s="30"/>
+      <c r="AE827" s="30"/>
     </row>
     <row r="828" ht="19.5" customHeight="1">
       <c r="A828" s="30"/>
@@ -28627,6 +29462,7 @@
       <c r="AB828" s="30"/>
       <c r="AC828" s="30"/>
       <c r="AD828" s="30"/>
+      <c r="AE828" s="30"/>
     </row>
     <row r="829" ht="19.5" customHeight="1">
       <c r="A829" s="30"/>
@@ -28659,6 +29495,7 @@
       <c r="AB829" s="30"/>
       <c r="AC829" s="30"/>
       <c r="AD829" s="30"/>
+      <c r="AE829" s="30"/>
     </row>
     <row r="830" ht="19.5" customHeight="1">
       <c r="A830" s="30"/>
@@ -28691,6 +29528,7 @@
       <c r="AB830" s="30"/>
       <c r="AC830" s="30"/>
       <c r="AD830" s="30"/>
+      <c r="AE830" s="30"/>
     </row>
     <row r="831" ht="19.5" customHeight="1">
       <c r="A831" s="30"/>
@@ -28723,6 +29561,7 @@
       <c r="AB831" s="30"/>
       <c r="AC831" s="30"/>
       <c r="AD831" s="30"/>
+      <c r="AE831" s="30"/>
     </row>
     <row r="832" ht="19.5" customHeight="1">
       <c r="A832" s="30"/>
@@ -28755,6 +29594,7 @@
       <c r="AB832" s="30"/>
       <c r="AC832" s="30"/>
       <c r="AD832" s="30"/>
+      <c r="AE832" s="30"/>
     </row>
     <row r="833" ht="19.5" customHeight="1">
       <c r="A833" s="30"/>
@@ -28787,6 +29627,7 @@
       <c r="AB833" s="30"/>
       <c r="AC833" s="30"/>
       <c r="AD833" s="30"/>
+      <c r="AE833" s="30"/>
     </row>
     <row r="834" ht="19.5" customHeight="1">
       <c r="A834" s="30"/>
@@ -28819,6 +29660,7 @@
       <c r="AB834" s="30"/>
       <c r="AC834" s="30"/>
       <c r="AD834" s="30"/>
+      <c r="AE834" s="30"/>
     </row>
     <row r="835" ht="19.5" customHeight="1">
       <c r="A835" s="30"/>
@@ -28851,6 +29693,7 @@
       <c r="AB835" s="30"/>
       <c r="AC835" s="30"/>
       <c r="AD835" s="30"/>
+      <c r="AE835" s="30"/>
     </row>
     <row r="836" ht="19.5" customHeight="1">
       <c r="A836" s="30"/>
@@ -28883,6 +29726,7 @@
       <c r="AB836" s="30"/>
       <c r="AC836" s="30"/>
       <c r="AD836" s="30"/>
+      <c r="AE836" s="30"/>
     </row>
     <row r="837" ht="19.5" customHeight="1">
       <c r="A837" s="30"/>
@@ -28915,6 +29759,7 @@
       <c r="AB837" s="30"/>
       <c r="AC837" s="30"/>
       <c r="AD837" s="30"/>
+      <c r="AE837" s="30"/>
     </row>
     <row r="838" ht="19.5" customHeight="1">
       <c r="A838" s="30"/>
@@ -28947,6 +29792,7 @@
       <c r="AB838" s="30"/>
       <c r="AC838" s="30"/>
       <c r="AD838" s="30"/>
+      <c r="AE838" s="30"/>
     </row>
     <row r="839" ht="19.5" customHeight="1">
       <c r="A839" s="30"/>
@@ -28979,6 +29825,7 @@
       <c r="AB839" s="30"/>
       <c r="AC839" s="30"/>
       <c r="AD839" s="30"/>
+      <c r="AE839" s="30"/>
     </row>
     <row r="840" ht="19.5" customHeight="1">
       <c r="A840" s="30"/>
@@ -29011,6 +29858,7 @@
       <c r="AB840" s="30"/>
       <c r="AC840" s="30"/>
       <c r="AD840" s="30"/>
+      <c r="AE840" s="30"/>
     </row>
     <row r="841" ht="19.5" customHeight="1">
       <c r="A841" s="30"/>
@@ -29043,6 +29891,7 @@
       <c r="AB841" s="30"/>
       <c r="AC841" s="30"/>
       <c r="AD841" s="30"/>
+      <c r="AE841" s="30"/>
     </row>
     <row r="842" ht="19.5" customHeight="1">
       <c r="A842" s="30"/>
@@ -29075,6 +29924,7 @@
       <c r="AB842" s="30"/>
       <c r="AC842" s="30"/>
       <c r="AD842" s="30"/>
+      <c r="AE842" s="30"/>
     </row>
     <row r="843" ht="19.5" customHeight="1">
       <c r="A843" s="30"/>
@@ -29107,6 +29957,7 @@
       <c r="AB843" s="30"/>
       <c r="AC843" s="30"/>
       <c r="AD843" s="30"/>
+      <c r="AE843" s="30"/>
     </row>
     <row r="844" ht="19.5" customHeight="1">
       <c r="A844" s="30"/>
@@ -29139,6 +29990,7 @@
       <c r="AB844" s="30"/>
       <c r="AC844" s="30"/>
       <c r="AD844" s="30"/>
+      <c r="AE844" s="30"/>
     </row>
     <row r="845" ht="19.5" customHeight="1">
       <c r="A845" s="30"/>
@@ -29171,6 +30023,7 @@
       <c r="AB845" s="30"/>
       <c r="AC845" s="30"/>
       <c r="AD845" s="30"/>
+      <c r="AE845" s="30"/>
     </row>
     <row r="846" ht="19.5" customHeight="1">
       <c r="A846" s="30"/>
@@ -29203,6 +30056,7 @@
       <c r="AB846" s="30"/>
       <c r="AC846" s="30"/>
       <c r="AD846" s="30"/>
+      <c r="AE846" s="30"/>
     </row>
     <row r="847" ht="19.5" customHeight="1">
       <c r="A847" s="30"/>
@@ -29235,6 +30089,7 @@
       <c r="AB847" s="30"/>
       <c r="AC847" s="30"/>
       <c r="AD847" s="30"/>
+      <c r="AE847" s="30"/>
     </row>
     <row r="848" ht="19.5" customHeight="1">
       <c r="A848" s="30"/>
@@ -29267,6 +30122,7 @@
       <c r="AB848" s="30"/>
       <c r="AC848" s="30"/>
       <c r="AD848" s="30"/>
+      <c r="AE848" s="30"/>
     </row>
     <row r="849" ht="19.5" customHeight="1">
       <c r="A849" s="30"/>
@@ -29299,6 +30155,7 @@
       <c r="AB849" s="30"/>
       <c r="AC849" s="30"/>
       <c r="AD849" s="30"/>
+      <c r="AE849" s="30"/>
     </row>
     <row r="850" ht="19.5" customHeight="1">
       <c r="A850" s="30"/>
@@ -29331,6 +30188,7 @@
       <c r="AB850" s="30"/>
       <c r="AC850" s="30"/>
       <c r="AD850" s="30"/>
+      <c r="AE850" s="30"/>
     </row>
     <row r="851" ht="19.5" customHeight="1">
       <c r="A851" s="30"/>
@@ -29363,6 +30221,7 @@
       <c r="AB851" s="30"/>
       <c r="AC851" s="30"/>
       <c r="AD851" s="30"/>
+      <c r="AE851" s="30"/>
     </row>
     <row r="852" ht="19.5" customHeight="1">
       <c r="A852" s="30"/>
@@ -29395,6 +30254,7 @@
       <c r="AB852" s="30"/>
       <c r="AC852" s="30"/>
       <c r="AD852" s="30"/>
+      <c r="AE852" s="30"/>
     </row>
     <row r="853" ht="19.5" customHeight="1">
       <c r="A853" s="30"/>
@@ -29427,6 +30287,7 @@
       <c r="AB853" s="30"/>
       <c r="AC853" s="30"/>
       <c r="AD853" s="30"/>
+      <c r="AE853" s="30"/>
     </row>
     <row r="854" ht="19.5" customHeight="1">
       <c r="A854" s="30"/>
@@ -29459,6 +30320,7 @@
       <c r="AB854" s="30"/>
       <c r="AC854" s="30"/>
       <c r="AD854" s="30"/>
+      <c r="AE854" s="30"/>
     </row>
     <row r="855" ht="19.5" customHeight="1">
       <c r="A855" s="30"/>
@@ -29491,6 +30353,7 @@
       <c r="AB855" s="30"/>
       <c r="AC855" s="30"/>
       <c r="AD855" s="30"/>
+      <c r="AE855" s="30"/>
     </row>
     <row r="856" ht="19.5" customHeight="1">
       <c r="A856" s="30"/>
@@ -29523,6 +30386,7 @@
       <c r="AB856" s="30"/>
       <c r="AC856" s="30"/>
       <c r="AD856" s="30"/>
+      <c r="AE856" s="30"/>
     </row>
     <row r="857" ht="19.5" customHeight="1">
       <c r="A857" s="30"/>
@@ -29555,6 +30419,7 @@
       <c r="AB857" s="30"/>
       <c r="AC857" s="30"/>
       <c r="AD857" s="30"/>
+      <c r="AE857" s="30"/>
     </row>
     <row r="858" ht="19.5" customHeight="1">
       <c r="A858" s="30"/>
@@ -29587,6 +30452,7 @@
       <c r="AB858" s="30"/>
       <c r="AC858" s="30"/>
       <c r="AD858" s="30"/>
+      <c r="AE858" s="30"/>
     </row>
     <row r="859" ht="19.5" customHeight="1">
       <c r="A859" s="30"/>
@@ -29619,6 +30485,7 @@
       <c r="AB859" s="30"/>
       <c r="AC859" s="30"/>
       <c r="AD859" s="30"/>
+      <c r="AE859" s="30"/>
     </row>
     <row r="860" ht="19.5" customHeight="1">
       <c r="A860" s="30"/>
@@ -29651,6 +30518,7 @@
       <c r="AB860" s="30"/>
       <c r="AC860" s="30"/>
       <c r="AD860" s="30"/>
+      <c r="AE860" s="30"/>
     </row>
     <row r="861" ht="19.5" customHeight="1">
       <c r="A861" s="30"/>
@@ -29683,6 +30551,7 @@
       <c r="AB861" s="30"/>
       <c r="AC861" s="30"/>
       <c r="AD861" s="30"/>
+      <c r="AE861" s="30"/>
     </row>
     <row r="862" ht="19.5" customHeight="1">
       <c r="A862" s="30"/>
@@ -29715,6 +30584,7 @@
       <c r="AB862" s="30"/>
       <c r="AC862" s="30"/>
       <c r="AD862" s="30"/>
+      <c r="AE862" s="30"/>
     </row>
     <row r="863" ht="19.5" customHeight="1">
       <c r="A863" s="30"/>
@@ -29747,6 +30617,7 @@
       <c r="AB863" s="30"/>
       <c r="AC863" s="30"/>
       <c r="AD863" s="30"/>
+      <c r="AE863" s="30"/>
     </row>
     <row r="864" ht="19.5" customHeight="1">
       <c r="A864" s="30"/>
@@ -29779,6 +30650,7 @@
       <c r="AB864" s="30"/>
       <c r="AC864" s="30"/>
       <c r="AD864" s="30"/>
+      <c r="AE864" s="30"/>
     </row>
     <row r="865" ht="19.5" customHeight="1">
       <c r="A865" s="30"/>
@@ -29811,6 +30683,7 @@
       <c r="AB865" s="30"/>
       <c r="AC865" s="30"/>
       <c r="AD865" s="30"/>
+      <c r="AE865" s="30"/>
     </row>
     <row r="866" ht="19.5" customHeight="1">
       <c r="A866" s="30"/>
@@ -29843,6 +30716,7 @@
       <c r="AB866" s="30"/>
       <c r="AC866" s="30"/>
       <c r="AD866" s="30"/>
+      <c r="AE866" s="30"/>
     </row>
     <row r="867" ht="19.5" customHeight="1">
       <c r="A867" s="30"/>
@@ -29875,6 +30749,7 @@
       <c r="AB867" s="30"/>
       <c r="AC867" s="30"/>
       <c r="AD867" s="30"/>
+      <c r="AE867" s="30"/>
     </row>
     <row r="868" ht="19.5" customHeight="1">
       <c r="A868" s="30"/>
@@ -29907,6 +30782,7 @@
       <c r="AB868" s="30"/>
       <c r="AC868" s="30"/>
       <c r="AD868" s="30"/>
+      <c r="AE868" s="30"/>
     </row>
     <row r="869" ht="19.5" customHeight="1">
       <c r="A869" s="30"/>
@@ -29939,6 +30815,7 @@
       <c r="AB869" s="30"/>
       <c r="AC869" s="30"/>
       <c r="AD869" s="30"/>
+      <c r="AE869" s="30"/>
     </row>
     <row r="870" ht="19.5" customHeight="1">
       <c r="A870" s="30"/>
@@ -29971,6 +30848,7 @@
       <c r="AB870" s="30"/>
       <c r="AC870" s="30"/>
       <c r="AD870" s="30"/>
+      <c r="AE870" s="30"/>
     </row>
     <row r="871" ht="19.5" customHeight="1">
       <c r="A871" s="30"/>
@@ -30003,6 +30881,7 @@
       <c r="AB871" s="30"/>
       <c r="AC871" s="30"/>
       <c r="AD871" s="30"/>
+      <c r="AE871" s="30"/>
     </row>
     <row r="872" ht="19.5" customHeight="1">
       <c r="A872" s="30"/>
@@ -30035,6 +30914,7 @@
       <c r="AB872" s="30"/>
       <c r="AC872" s="30"/>
       <c r="AD872" s="30"/>
+      <c r="AE872" s="30"/>
     </row>
     <row r="873" ht="19.5" customHeight="1">
       <c r="A873" s="30"/>
@@ -30067,6 +30947,7 @@
       <c r="AB873" s="30"/>
       <c r="AC873" s="30"/>
       <c r="AD873" s="30"/>
+      <c r="AE873" s="30"/>
     </row>
     <row r="874" ht="19.5" customHeight="1">
       <c r="A874" s="30"/>
@@ -30099,6 +30980,7 @@
       <c r="AB874" s="30"/>
       <c r="AC874" s="30"/>
       <c r="AD874" s="30"/>
+      <c r="AE874" s="30"/>
     </row>
     <row r="875" ht="19.5" customHeight="1">
       <c r="A875" s="30"/>
@@ -30131,6 +31013,7 @@
       <c r="AB875" s="30"/>
       <c r="AC875" s="30"/>
       <c r="AD875" s="30"/>
+      <c r="AE875" s="30"/>
     </row>
     <row r="876" ht="19.5" customHeight="1">
       <c r="A876" s="30"/>
@@ -30163,6 +31046,7 @@
       <c r="AB876" s="30"/>
       <c r="AC876" s="30"/>
       <c r="AD876" s="30"/>
+      <c r="AE876" s="30"/>
     </row>
     <row r="877" ht="19.5" customHeight="1">
       <c r="A877" s="30"/>
@@ -30195,6 +31079,7 @@
       <c r="AB877" s="30"/>
       <c r="AC877" s="30"/>
       <c r="AD877" s="30"/>
+      <c r="AE877" s="30"/>
     </row>
     <row r="878" ht="19.5" customHeight="1">
       <c r="A878" s="30"/>
@@ -30227,6 +31112,7 @@
       <c r="AB878" s="30"/>
       <c r="AC878" s="30"/>
       <c r="AD878" s="30"/>
+      <c r="AE878" s="30"/>
     </row>
     <row r="879" ht="19.5" customHeight="1">
       <c r="A879" s="30"/>
@@ -30259,6 +31145,7 @@
       <c r="AB879" s="30"/>
       <c r="AC879" s="30"/>
       <c r="AD879" s="30"/>
+      <c r="AE879" s="30"/>
     </row>
     <row r="880" ht="19.5" customHeight="1">
       <c r="A880" s="30"/>
@@ -30291,6 +31178,7 @@
       <c r="AB880" s="30"/>
       <c r="AC880" s="30"/>
       <c r="AD880" s="30"/>
+      <c r="AE880" s="30"/>
     </row>
     <row r="881" ht="19.5" customHeight="1">
       <c r="A881" s="30"/>
@@ -30323,6 +31211,7 @@
       <c r="AB881" s="30"/>
       <c r="AC881" s="30"/>
       <c r="AD881" s="30"/>
+      <c r="AE881" s="30"/>
     </row>
     <row r="882" ht="19.5" customHeight="1">
       <c r="A882" s="30"/>
@@ -30355,6 +31244,7 @@
       <c r="AB882" s="30"/>
       <c r="AC882" s="30"/>
       <c r="AD882" s="30"/>
+      <c r="AE882" s="30"/>
     </row>
     <row r="883" ht="19.5" customHeight="1">
       <c r="A883" s="30"/>
@@ -30387,6 +31277,7 @@
       <c r="AB883" s="30"/>
       <c r="AC883" s="30"/>
       <c r="AD883" s="30"/>
+      <c r="AE883" s="30"/>
     </row>
     <row r="884" ht="19.5" customHeight="1">
       <c r="A884" s="30"/>
@@ -30419,6 +31310,7 @@
       <c r="AB884" s="30"/>
       <c r="AC884" s="30"/>
       <c r="AD884" s="30"/>
+      <c r="AE884" s="30"/>
     </row>
     <row r="885" ht="19.5" customHeight="1">
       <c r="A885" s="30"/>
@@ -30451,6 +31343,7 @@
       <c r="AB885" s="30"/>
       <c r="AC885" s="30"/>
       <c r="AD885" s="30"/>
+      <c r="AE885" s="30"/>
     </row>
     <row r="886" ht="19.5" customHeight="1">
       <c r="A886" s="30"/>
@@ -30483,6 +31376,7 @@
       <c r="AB886" s="30"/>
       <c r="AC886" s="30"/>
       <c r="AD886" s="30"/>
+      <c r="AE886" s="30"/>
     </row>
     <row r="887" ht="19.5" customHeight="1">
       <c r="A887" s="30"/>
@@ -30515,6 +31409,7 @@
       <c r="AB887" s="30"/>
       <c r="AC887" s="30"/>
       <c r="AD887" s="30"/>
+      <c r="AE887" s="30"/>
     </row>
     <row r="888" ht="19.5" customHeight="1">
       <c r="A888" s="30"/>
@@ -30547,6 +31442,7 @@
       <c r="AB888" s="30"/>
       <c r="AC888" s="30"/>
       <c r="AD888" s="30"/>
+      <c r="AE888" s="30"/>
     </row>
     <row r="889" ht="19.5" customHeight="1">
       <c r="A889" s="30"/>
@@ -30579,6 +31475,7 @@
       <c r="AB889" s="30"/>
       <c r="AC889" s="30"/>
       <c r="AD889" s="30"/>
+      <c r="AE889" s="30"/>
     </row>
     <row r="890" ht="19.5" customHeight="1">
       <c r="A890" s="30"/>
@@ -30611,6 +31508,7 @@
       <c r="AB890" s="30"/>
       <c r="AC890" s="30"/>
       <c r="AD890" s="30"/>
+      <c r="AE890" s="30"/>
     </row>
     <row r="891" ht="19.5" customHeight="1">
       <c r="A891" s="30"/>
@@ -30643,6 +31541,7 @@
       <c r="AB891" s="30"/>
       <c r="AC891" s="30"/>
       <c r="AD891" s="30"/>
+      <c r="AE891" s="30"/>
     </row>
     <row r="892" ht="19.5" customHeight="1">
       <c r="A892" s="30"/>
@@ -30675,6 +31574,7 @@
       <c r="AB892" s="30"/>
       <c r="AC892" s="30"/>
       <c r="AD892" s="30"/>
+      <c r="AE892" s="30"/>
     </row>
     <row r="893" ht="19.5" customHeight="1">
       <c r="A893" s="30"/>
@@ -30707,6 +31607,7 @@
       <c r="AB893" s="30"/>
       <c r="AC893" s="30"/>
       <c r="AD893" s="30"/>
+      <c r="AE893" s="30"/>
     </row>
     <row r="894" ht="19.5" customHeight="1">
       <c r="A894" s="30"/>
@@ -30739,6 +31640,7 @@
       <c r="AB894" s="30"/>
       <c r="AC894" s="30"/>
       <c r="AD894" s="30"/>
+      <c r="AE894" s="30"/>
     </row>
     <row r="895" ht="19.5" customHeight="1">
       <c r="A895" s="30"/>
@@ -30771,6 +31673,7 @@
       <c r="AB895" s="30"/>
       <c r="AC895" s="30"/>
       <c r="AD895" s="30"/>
+      <c r="AE895" s="30"/>
     </row>
     <row r="896" ht="19.5" customHeight="1">
       <c r="A896" s="30"/>
@@ -30803,6 +31706,7 @@
       <c r="AB896" s="30"/>
       <c r="AC896" s="30"/>
       <c r="AD896" s="30"/>
+      <c r="AE896" s="30"/>
     </row>
     <row r="897" ht="19.5" customHeight="1">
       <c r="A897" s="30"/>
@@ -30835,6 +31739,7 @@
       <c r="AB897" s="30"/>
       <c r="AC897" s="30"/>
       <c r="AD897" s="30"/>
+      <c r="AE897" s="30"/>
     </row>
     <row r="898" ht="19.5" customHeight="1">
       <c r="A898" s="30"/>
@@ -30867,6 +31772,7 @@
       <c r="AB898" s="30"/>
       <c r="AC898" s="30"/>
       <c r="AD898" s="30"/>
+      <c r="AE898" s="30"/>
     </row>
     <row r="899" ht="19.5" customHeight="1">
       <c r="A899" s="30"/>
@@ -30899,6 +31805,7 @@
       <c r="AB899" s="30"/>
       <c r="AC899" s="30"/>
       <c r="AD899" s="30"/>
+      <c r="AE899" s="30"/>
     </row>
     <row r="900" ht="19.5" customHeight="1">
       <c r="A900" s="30"/>
@@ -30931,6 +31838,7 @@
       <c r="AB900" s="30"/>
       <c r="AC900" s="30"/>
       <c r="AD900" s="30"/>
+      <c r="AE900" s="30"/>
     </row>
     <row r="901" ht="19.5" customHeight="1">
       <c r="A901" s="30"/>
@@ -30963,6 +31871,7 @@
       <c r="AB901" s="30"/>
       <c r="AC901" s="30"/>
       <c r="AD901" s="30"/>
+      <c r="AE901" s="30"/>
     </row>
     <row r="902" ht="19.5" customHeight="1">
       <c r="A902" s="30"/>
@@ -30995,6 +31904,7 @@
       <c r="AB902" s="30"/>
       <c r="AC902" s="30"/>
       <c r="AD902" s="30"/>
+      <c r="AE902" s="30"/>
     </row>
     <row r="903" ht="19.5" customHeight="1">
       <c r="A903" s="30"/>
@@ -31027,6 +31937,7 @@
       <c r="AB903" s="30"/>
       <c r="AC903" s="30"/>
       <c r="AD903" s="30"/>
+      <c r="AE903" s="30"/>
     </row>
     <row r="904" ht="19.5" customHeight="1">
       <c r="A904" s="30"/>
@@ -31059,6 +31970,7 @@
       <c r="AB904" s="30"/>
       <c r="AC904" s="30"/>
       <c r="AD904" s="30"/>
+      <c r="AE904" s="30"/>
     </row>
     <row r="905" ht="19.5" customHeight="1">
       <c r="A905" s="30"/>
@@ -31091,6 +32003,7 @@
       <c r="AB905" s="30"/>
       <c r="AC905" s="30"/>
       <c r="AD905" s="30"/>
+      <c r="AE905" s="30"/>
     </row>
     <row r="906" ht="19.5" customHeight="1">
       <c r="A906" s="30"/>
@@ -31123,6 +32036,7 @@
       <c r="AB906" s="30"/>
       <c r="AC906" s="30"/>
       <c r="AD906" s="30"/>
+      <c r="AE906" s="30"/>
     </row>
     <row r="907" ht="19.5" customHeight="1">
       <c r="A907" s="30"/>
@@ -31155,6 +32069,7 @@
       <c r="AB907" s="30"/>
       <c r="AC907" s="30"/>
       <c r="AD907" s="30"/>
+      <c r="AE907" s="30"/>
     </row>
     <row r="908" ht="19.5" customHeight="1">
       <c r="A908" s="30"/>
@@ -31187,6 +32102,7 @@
       <c r="AB908" s="30"/>
       <c r="AC908" s="30"/>
       <c r="AD908" s="30"/>
+      <c r="AE908" s="30"/>
     </row>
     <row r="909" ht="19.5" customHeight="1">
       <c r="A909" s="30"/>
@@ -31219,6 +32135,7 @@
       <c r="AB909" s="30"/>
       <c r="AC909" s="30"/>
       <c r="AD909" s="30"/>
+      <c r="AE909" s="30"/>
     </row>
     <row r="910" ht="19.5" customHeight="1">
       <c r="A910" s="30"/>
@@ -31251,6 +32168,7 @@
       <c r="AB910" s="30"/>
       <c r="AC910" s="30"/>
       <c r="AD910" s="30"/>
+      <c r="AE910" s="30"/>
     </row>
     <row r="911" ht="19.5" customHeight="1">
       <c r="A911" s="30"/>
@@ -31283,6 +32201,7 @@
       <c r="AB911" s="30"/>
       <c r="AC911" s="30"/>
       <c r="AD911" s="30"/>
+      <c r="AE911" s="30"/>
     </row>
     <row r="912" ht="19.5" customHeight="1">
       <c r="A912" s="30"/>
@@ -31315,6 +32234,7 @@
       <c r="AB912" s="30"/>
       <c r="AC912" s="30"/>
       <c r="AD912" s="30"/>
+      <c r="AE912" s="30"/>
     </row>
     <row r="913" ht="19.5" customHeight="1">
       <c r="A913" s="30"/>
@@ -31347,6 +32267,7 @@
       <c r="AB913" s="30"/>
       <c r="AC913" s="30"/>
       <c r="AD913" s="30"/>
+      <c r="AE913" s="30"/>
     </row>
     <row r="914" ht="19.5" customHeight="1">
       <c r="A914" s="30"/>
@@ -31379,6 +32300,7 @@
       <c r="AB914" s="30"/>
       <c r="AC914" s="30"/>
       <c r="AD914" s="30"/>
+      <c r="AE914" s="30"/>
     </row>
     <row r="915" ht="19.5" customHeight="1">
       <c r="A915" s="30"/>
@@ -31411,6 +32333,7 @@
       <c r="AB915" s="30"/>
       <c r="AC915" s="30"/>
       <c r="AD915" s="30"/>
+      <c r="AE915" s="30"/>
     </row>
     <row r="916" ht="19.5" customHeight="1">
       <c r="A916" s="30"/>
@@ -31443,6 +32366,7 @@
       <c r="AB916" s="30"/>
       <c r="AC916" s="30"/>
       <c r="AD916" s="30"/>
+      <c r="AE916" s="30"/>
     </row>
     <row r="917" ht="19.5" customHeight="1">
       <c r="A917" s="30"/>
@@ -31475,6 +32399,7 @@
       <c r="AB917" s="30"/>
       <c r="AC917" s="30"/>
       <c r="AD917" s="30"/>
+      <c r="AE917" s="30"/>
     </row>
     <row r="918" ht="19.5" customHeight="1">
       <c r="A918" s="30"/>
@@ -31507,6 +32432,7 @@
       <c r="AB918" s="30"/>
       <c r="AC918" s="30"/>
       <c r="AD918" s="30"/>
+      <c r="AE918" s="30"/>
     </row>
     <row r="919" ht="19.5" customHeight="1">
       <c r="A919" s="30"/>
@@ -31539,6 +32465,7 @@
       <c r="AB919" s="30"/>
       <c r="AC919" s="30"/>
       <c r="AD919" s="30"/>
+      <c r="AE919" s="30"/>
     </row>
     <row r="920" ht="19.5" customHeight="1">
       <c r="A920" s="30"/>
@@ -31571,6 +32498,7 @@
       <c r="AB920" s="30"/>
       <c r="AC920" s="30"/>
       <c r="AD920" s="30"/>
+      <c r="AE920" s="30"/>
     </row>
     <row r="921" ht="19.5" customHeight="1">
       <c r="A921" s="30"/>
@@ -31603,6 +32531,7 @@
       <c r="AB921" s="30"/>
       <c r="AC921" s="30"/>
       <c r="AD921" s="30"/>
+      <c r="AE921" s="30"/>
     </row>
     <row r="922" ht="19.5" customHeight="1">
       <c r="A922" s="30"/>
@@ -31635,6 +32564,7 @@
       <c r="AB922" s="30"/>
       <c r="AC922" s="30"/>
       <c r="AD922" s="30"/>
+      <c r="AE922" s="30"/>
     </row>
     <row r="923" ht="19.5" customHeight="1">
       <c r="A923" s="30"/>
@@ -31667,6 +32597,7 @@
       <c r="AB923" s="30"/>
       <c r="AC923" s="30"/>
       <c r="AD923" s="30"/>
+      <c r="AE923" s="30"/>
     </row>
     <row r="924" ht="19.5" customHeight="1">
       <c r="A924" s="30"/>
@@ -31699,6 +32630,7 @@
       <c r="AB924" s="30"/>
       <c r="AC924" s="30"/>
       <c r="AD924" s="30"/>
+      <c r="AE924" s="30"/>
     </row>
     <row r="925" ht="19.5" customHeight="1">
       <c r="A925" s="30"/>
@@ -31731,6 +32663,7 @@
       <c r="AB925" s="30"/>
       <c r="AC925" s="30"/>
       <c r="AD925" s="30"/>
+      <c r="AE925" s="30"/>
     </row>
     <row r="926" ht="19.5" customHeight="1">
       <c r="A926" s="30"/>
@@ -31763,6 +32696,7 @@
       <c r="AB926" s="30"/>
       <c r="AC926" s="30"/>
       <c r="AD926" s="30"/>
+      <c r="AE926" s="30"/>
     </row>
     <row r="927" ht="19.5" customHeight="1">
       <c r="A927" s="30"/>
@@ -31795,6 +32729,7 @@
       <c r="AB927" s="30"/>
       <c r="AC927" s="30"/>
       <c r="AD927" s="30"/>
+      <c r="AE927" s="30"/>
     </row>
     <row r="928" ht="19.5" customHeight="1">
       <c r="A928" s="30"/>
@@ -31827,6 +32762,7 @@
       <c r="AB928" s="30"/>
       <c r="AC928" s="30"/>
       <c r="AD928" s="30"/>
+      <c r="AE928" s="30"/>
     </row>
     <row r="929" ht="19.5" customHeight="1">
       <c r="A929" s="30"/>
@@ -31859,6 +32795,7 @@
       <c r="AB929" s="30"/>
       <c r="AC929" s="30"/>
       <c r="AD929" s="30"/>
+      <c r="AE929" s="30"/>
     </row>
     <row r="930" ht="19.5" customHeight="1">
       <c r="A930" s="30"/>
@@ -31891,6 +32828,7 @@
       <c r="AB930" s="30"/>
       <c r="AC930" s="30"/>
       <c r="AD930" s="30"/>
+      <c r="AE930" s="30"/>
     </row>
     <row r="931" ht="19.5" customHeight="1">
       <c r="A931" s="30"/>
@@ -31923,6 +32861,7 @@
       <c r="AB931" s="30"/>
       <c r="AC931" s="30"/>
       <c r="AD931" s="30"/>
+      <c r="AE931" s="30"/>
     </row>
     <row r="932" ht="19.5" customHeight="1">
       <c r="A932" s="30"/>
@@ -31955,6 +32894,7 @@
       <c r="AB932" s="30"/>
       <c r="AC932" s="30"/>
       <c r="AD932" s="30"/>
+      <c r="AE932" s="30"/>
     </row>
     <row r="933" ht="19.5" customHeight="1">
       <c r="A933" s="30"/>
@@ -31987,6 +32927,7 @@
       <c r="AB933" s="30"/>
       <c r="AC933" s="30"/>
       <c r="AD933" s="30"/>
+      <c r="AE933" s="30"/>
     </row>
     <row r="934" ht="19.5" customHeight="1">
       <c r="A934" s="30"/>
@@ -32019,6 +32960,7 @@
       <c r="AB934" s="30"/>
       <c r="AC934" s="30"/>
       <c r="AD934" s="30"/>
+      <c r="AE934" s="30"/>
     </row>
     <row r="935" ht="19.5" customHeight="1">
       <c r="A935" s="30"/>
@@ -32051,6 +32993,7 @@
       <c r="AB935" s="30"/>
       <c r="AC935" s="30"/>
       <c r="AD935" s="30"/>
+      <c r="AE935" s="30"/>
     </row>
     <row r="936" ht="19.5" customHeight="1">
       <c r="A936" s="30"/>
@@ -32083,6 +33026,7 @@
       <c r="AB936" s="30"/>
       <c r="AC936" s="30"/>
       <c r="AD936" s="30"/>
+      <c r="AE936" s="30"/>
     </row>
     <row r="937" ht="19.5" customHeight="1">
       <c r="A937" s="30"/>
@@ -32115,6 +33059,7 @@
       <c r="AB937" s="30"/>
       <c r="AC937" s="30"/>
       <c r="AD937" s="30"/>
+      <c r="AE937" s="30"/>
     </row>
     <row r="938" ht="19.5" customHeight="1">
       <c r="A938" s="30"/>
@@ -32147,6 +33092,7 @@
       <c r="AB938" s="30"/>
       <c r="AC938" s="30"/>
       <c r="AD938" s="30"/>
+      <c r="AE938" s="30"/>
     </row>
     <row r="939" ht="19.5" customHeight="1">
       <c r="A939" s="30"/>
@@ -32179,6 +33125,7 @@
       <c r="AB939" s="30"/>
       <c r="AC939" s="30"/>
       <c r="AD939" s="30"/>
+      <c r="AE939" s="30"/>
     </row>
     <row r="940" ht="19.5" customHeight="1">
       <c r="A940" s="30"/>
@@ -32211,6 +33158,7 @@
       <c r="AB940" s="30"/>
       <c r="AC940" s="30"/>
       <c r="AD940" s="30"/>
+      <c r="AE940" s="30"/>
     </row>
     <row r="941" ht="19.5" customHeight="1">
       <c r="A941" s="30"/>
@@ -32243,6 +33191,7 @@
       <c r="AB941" s="30"/>
       <c r="AC941" s="30"/>
       <c r="AD941" s="30"/>
+      <c r="AE941" s="30"/>
     </row>
     <row r="942" ht="19.5" customHeight="1">
       <c r="A942" s="30"/>
@@ -32275,6 +33224,7 @@
       <c r="AB942" s="30"/>
       <c r="AC942" s="30"/>
       <c r="AD942" s="30"/>
+      <c r="AE942" s="30"/>
     </row>
     <row r="943" ht="19.5" customHeight="1">
       <c r="A943" s="30"/>
@@ -32307,6 +33257,7 @@
       <c r="AB943" s="30"/>
       <c r="AC943" s="30"/>
       <c r="AD943" s="30"/>
+      <c r="AE943" s="30"/>
     </row>
     <row r="944" ht="19.5" customHeight="1">
       <c r="A944" s="30"/>
@@ -32339,6 +33290,7 @@
       <c r="AB944" s="30"/>
       <c r="AC944" s="30"/>
       <c r="AD944" s="30"/>
+      <c r="AE944" s="30"/>
     </row>
     <row r="945" ht="19.5" customHeight="1">
       <c r="A945" s="30"/>
@@ -32371,6 +33323,7 @@
       <c r="AB945" s="30"/>
       <c r="AC945" s="30"/>
       <c r="AD945" s="30"/>
+      <c r="AE945" s="30"/>
     </row>
     <row r="946" ht="19.5" customHeight="1">
       <c r="A946" s="30"/>
@@ -32403,6 +33356,7 @@
       <c r="AB946" s="30"/>
       <c r="AC946" s="30"/>
       <c r="AD946" s="30"/>
+      <c r="AE946" s="30"/>
     </row>
     <row r="947" ht="19.5" customHeight="1">
       <c r="A947" s="30"/>
@@ -32435,6 +33389,7 @@
       <c r="AB947" s="30"/>
       <c r="AC947" s="30"/>
       <c r="AD947" s="30"/>
+      <c r="AE947" s="30"/>
     </row>
     <row r="948" ht="19.5" customHeight="1">
       <c r="A948" s="30"/>
@@ -32467,6 +33422,7 @@
       <c r="AB948" s="30"/>
       <c r="AC948" s="30"/>
       <c r="AD948" s="30"/>
+      <c r="AE948" s="30"/>
     </row>
     <row r="949" ht="19.5" customHeight="1">
       <c r="A949" s="30"/>
@@ -32499,6 +33455,7 @@
       <c r="AB949" s="30"/>
       <c r="AC949" s="30"/>
       <c r="AD949" s="30"/>
+      <c r="AE949" s="30"/>
     </row>
     <row r="950" ht="19.5" customHeight="1">
       <c r="A950" s="30"/>
@@ -32531,6 +33488,7 @@
       <c r="AB950" s="30"/>
       <c r="AC950" s="30"/>
       <c r="AD950" s="30"/>
+      <c r="AE950" s="30"/>
     </row>
     <row r="951" ht="19.5" customHeight="1">
       <c r="A951" s="30"/>
@@ -32563,6 +33521,7 @@
       <c r="AB951" s="30"/>
       <c r="AC951" s="30"/>
       <c r="AD951" s="30"/>
+      <c r="AE951" s="30"/>
     </row>
     <row r="952" ht="19.5" customHeight="1">
       <c r="A952" s="30"/>
@@ -32595,6 +33554,7 @@
       <c r="AB952" s="30"/>
       <c r="AC952" s="30"/>
       <c r="AD952" s="30"/>
+      <c r="AE952" s="30"/>
     </row>
     <row r="953" ht="19.5" customHeight="1">
       <c r="A953" s="30"/>
@@ -32627,6 +33587,7 @@
       <c r="AB953" s="30"/>
       <c r="AC953" s="30"/>
       <c r="AD953" s="30"/>
+      <c r="AE953" s="30"/>
     </row>
     <row r="954" ht="19.5" customHeight="1">
       <c r="A954" s="30"/>
@@ -32659,6 +33620,7 @@
       <c r="AB954" s="30"/>
       <c r="AC954" s="30"/>
       <c r="AD954" s="30"/>
+      <c r="AE954" s="30"/>
     </row>
     <row r="955" ht="19.5" customHeight="1">
       <c r="A955" s="30"/>
@@ -32691,6 +33653,7 @@
       <c r="AB955" s="30"/>
       <c r="AC955" s="30"/>
       <c r="AD955" s="30"/>
+      <c r="AE955" s="30"/>
     </row>
     <row r="956" ht="19.5" customHeight="1">
       <c r="A956" s="30"/>
@@ -32723,6 +33686,7 @@
       <c r="AB956" s="30"/>
       <c r="AC956" s="30"/>
       <c r="AD956" s="30"/>
+      <c r="AE956" s="30"/>
     </row>
     <row r="957" ht="19.5" customHeight="1">
       <c r="A957" s="30"/>
@@ -32755,6 +33719,7 @@
       <c r="AB957" s="30"/>
       <c r="AC957" s="30"/>
       <c r="AD957" s="30"/>
+      <c r="AE957" s="30"/>
     </row>
     <row r="958" ht="19.5" customHeight="1">
       <c r="A958" s="30"/>
@@ -32787,6 +33752,7 @@
       <c r="AB958" s="30"/>
       <c r="AC958" s="30"/>
       <c r="AD958" s="30"/>
+      <c r="AE958" s="30"/>
     </row>
     <row r="959" ht="19.5" customHeight="1">
       <c r="A959" s="30"/>
@@ -32819,6 +33785,7 @@
       <c r="AB959" s="30"/>
       <c r="AC959" s="30"/>
       <c r="AD959" s="30"/>
+      <c r="AE959" s="30"/>
     </row>
     <row r="960" ht="19.5" customHeight="1">
       <c r="A960" s="30"/>
@@ -32851,6 +33818,7 @@
       <c r="AB960" s="30"/>
       <c r="AC960" s="30"/>
       <c r="AD960" s="30"/>
+      <c r="AE960" s="30"/>
     </row>
     <row r="961" ht="19.5" customHeight="1">
       <c r="A961" s="30"/>
@@ -32883,6 +33851,7 @@
       <c r="AB961" s="30"/>
       <c r="AC961" s="30"/>
       <c r="AD961" s="30"/>
+      <c r="AE961" s="30"/>
     </row>
     <row r="962" ht="19.5" customHeight="1">
       <c r="A962" s="30"/>
@@ -32915,6 +33884,7 @@
       <c r="AB962" s="30"/>
       <c r="AC962" s="30"/>
       <c r="AD962" s="30"/>
+      <c r="AE962" s="30"/>
     </row>
     <row r="963" ht="19.5" customHeight="1">
       <c r="A963" s="30"/>
@@ -32947,6 +33917,7 @@
       <c r="AB963" s="30"/>
       <c r="AC963" s="30"/>
       <c r="AD963" s="30"/>
+      <c r="AE963" s="30"/>
     </row>
     <row r="964" ht="19.5" customHeight="1">
       <c r="A964" s="30"/>
@@ -32979,6 +33950,7 @@
       <c r="AB964" s="30"/>
       <c r="AC964" s="30"/>
       <c r="AD964" s="30"/>
+      <c r="AE964" s="30"/>
     </row>
     <row r="965" ht="19.5" customHeight="1">
       <c r="A965" s="30"/>
@@ -33011,6 +33983,7 @@
       <c r="AB965" s="30"/>
       <c r="AC965" s="30"/>
       <c r="AD965" s="30"/>
+      <c r="AE965" s="30"/>
     </row>
     <row r="966" ht="19.5" customHeight="1">
       <c r="A966" s="30"/>
@@ -33043,6 +34016,7 @@
       <c r="AB966" s="30"/>
       <c r="AC966" s="30"/>
       <c r="AD966" s="30"/>
+      <c r="AE966" s="30"/>
     </row>
     <row r="967" ht="19.5" customHeight="1">
       <c r="A967" s="30"/>
@@ -33075,6 +34049,7 @@
       <c r="AB967" s="30"/>
       <c r="AC967" s="30"/>
       <c r="AD967" s="30"/>
+      <c r="AE967" s="30"/>
     </row>
     <row r="968" ht="19.5" customHeight="1">
       <c r="A968" s="30"/>
@@ -33107,6 +34082,7 @@
       <c r="AB968" s="30"/>
       <c r="AC968" s="30"/>
       <c r="AD968" s="30"/>
+      <c r="AE968" s="30"/>
     </row>
     <row r="969" ht="19.5" customHeight="1">
       <c r="A969" s="30"/>
@@ -33139,6 +34115,7 @@
       <c r="AB969" s="30"/>
       <c r="AC969" s="30"/>
       <c r="AD969" s="30"/>
+      <c r="AE969" s="30"/>
     </row>
     <row r="970" ht="19.5" customHeight="1">
       <c r="A970" s="30"/>
@@ -33171,6 +34148,7 @@
       <c r="AB970" s="30"/>
       <c r="AC970" s="30"/>
       <c r="AD970" s="30"/>
+      <c r="AE970" s="30"/>
     </row>
     <row r="971" ht="19.5" customHeight="1">
       <c r="A971" s="30"/>
@@ -33203,6 +34181,7 @@
       <c r="AB971" s="30"/>
       <c r="AC971" s="30"/>
       <c r="AD971" s="30"/>
+      <c r="AE971" s="30"/>
     </row>
     <row r="972" ht="19.5" customHeight="1">
       <c r="A972" s="30"/>
@@ -33235,6 +34214,7 @@
       <c r="AB972" s="30"/>
       <c r="AC972" s="30"/>
       <c r="AD972" s="30"/>
+      <c r="AE972" s="30"/>
     </row>
     <row r="973" ht="19.5" customHeight="1">
       <c r="A973" s="30"/>
@@ -33267,6 +34247,7 @@
       <c r="AB973" s="30"/>
       <c r="AC973" s="30"/>
       <c r="AD973" s="30"/>
+      <c r="AE973" s="30"/>
     </row>
     <row r="974" ht="19.5" customHeight="1">
       <c r="A974" s="30"/>
@@ -33299,6 +34280,7 @@
       <c r="AB974" s="30"/>
       <c r="AC974" s="30"/>
       <c r="AD974" s="30"/>
+      <c r="AE974" s="30"/>
     </row>
     <row r="975" ht="19.5" customHeight="1">
       <c r="A975" s="30"/>
@@ -33331,6 +34313,7 @@
       <c r="AB975" s="30"/>
       <c r="AC975" s="30"/>
       <c r="AD975" s="30"/>
+      <c r="AE975" s="30"/>
     </row>
     <row r="976" ht="19.5" customHeight="1">
       <c r="A976" s="30"/>
@@ -33363,6 +34346,7 @@
       <c r="AB976" s="30"/>
       <c r="AC976" s="30"/>
       <c r="AD976" s="30"/>
+      <c r="AE976" s="30"/>
     </row>
     <row r="977" ht="19.5" customHeight="1">
       <c r="A977" s="30"/>
@@ -33395,6 +34379,7 @@
       <c r="AB977" s="30"/>
       <c r="AC977" s="30"/>
       <c r="AD977" s="30"/>
+      <c r="AE977" s="30"/>
     </row>
     <row r="978" ht="19.5" customHeight="1">
       <c r="A978" s="30"/>
@@ -33427,6 +34412,7 @@
       <c r="AB978" s="30"/>
       <c r="AC978" s="30"/>
       <c r="AD978" s="30"/>
+      <c r="AE978" s="30"/>
     </row>
     <row r="979" ht="19.5" customHeight="1">
       <c r="A979" s="30"/>
@@ -33459,6 +34445,7 @@
       <c r="AB979" s="30"/>
       <c r="AC979" s="30"/>
       <c r="AD979" s="30"/>
+      <c r="AE979" s="30"/>
     </row>
     <row r="980" ht="19.5" customHeight="1">
       <c r="A980" s="30"/>
@@ -33491,6 +34478,7 @@
       <c r="AB980" s="30"/>
       <c r="AC980" s="30"/>
       <c r="AD980" s="30"/>
+      <c r="AE980" s="30"/>
     </row>
     <row r="981" ht="19.5" customHeight="1">
       <c r="A981" s="30"/>
@@ -33523,6 +34511,7 @@
       <c r="AB981" s="30"/>
       <c r="AC981" s="30"/>
       <c r="AD981" s="30"/>
+      <c r="AE981" s="30"/>
     </row>
     <row r="982" ht="19.5" customHeight="1">
       <c r="A982" s="30"/>
@@ -33555,6 +34544,7 @@
       <c r="AB982" s="30"/>
       <c r="AC982" s="30"/>
       <c r="AD982" s="30"/>
+      <c r="AE982" s="30"/>
     </row>
     <row r="983" ht="19.5" customHeight="1">
       <c r="A983" s="30"/>
@@ -33587,6 +34577,7 @@
       <c r="AB983" s="30"/>
       <c r="AC983" s="30"/>
       <c r="AD983" s="30"/>
+      <c r="AE983" s="30"/>
     </row>
     <row r="984" ht="19.5" customHeight="1">
       <c r="A984" s="30"/>
@@ -33619,6 +34610,7 @@
       <c r="AB984" s="30"/>
       <c r="AC984" s="30"/>
       <c r="AD984" s="30"/>
+      <c r="AE984" s="30"/>
     </row>
     <row r="985" ht="19.5" customHeight="1">
       <c r="A985" s="30"/>
@@ -33651,6 +34643,7 @@
       <c r="AB985" s="30"/>
       <c r="AC985" s="30"/>
       <c r="AD985" s="30"/>
+      <c r="AE985" s="30"/>
     </row>
     <row r="986" ht="19.5" customHeight="1">
       <c r="A986" s="30"/>
@@ -33683,6 +34676,7 @@
       <c r="AB986" s="30"/>
       <c r="AC986" s="30"/>
       <c r="AD986" s="30"/>
+      <c r="AE986" s="30"/>
     </row>
     <row r="987" ht="19.5" customHeight="1">
       <c r="A987" s="30"/>
@@ -33715,6 +34709,7 @@
       <c r="AB987" s="30"/>
       <c r="AC987" s="30"/>
       <c r="AD987" s="30"/>
+      <c r="AE987" s="30"/>
     </row>
     <row r="988" ht="19.5" customHeight="1">
       <c r="A988" s="30"/>
@@ -33747,6 +34742,7 @@
       <c r="AB988" s="30"/>
       <c r="AC988" s="30"/>
       <c r="AD988" s="30"/>
+      <c r="AE988" s="30"/>
     </row>
     <row r="989" ht="19.5" customHeight="1">
       <c r="A989" s="30"/>
@@ -33779,6 +34775,7 @@
       <c r="AB989" s="30"/>
       <c r="AC989" s="30"/>
       <c r="AD989" s="30"/>
+      <c r="AE989" s="30"/>
     </row>
     <row r="990" ht="19.5" customHeight="1">
       <c r="A990" s="30"/>
@@ -33811,6 +34808,7 @@
       <c r="AB990" s="30"/>
       <c r="AC990" s="30"/>
       <c r="AD990" s="30"/>
+      <c r="AE990" s="30"/>
     </row>
     <row r="991" ht="19.5" customHeight="1">
       <c r="A991" s="30"/>
@@ -33843,6 +34841,7 @@
       <c r="AB991" s="30"/>
       <c r="AC991" s="30"/>
       <c r="AD991" s="30"/>
+      <c r="AE991" s="30"/>
     </row>
     <row r="992" ht="19.5" customHeight="1">
       <c r="A992" s="30"/>
@@ -33875,6 +34874,7 @@
       <c r="AB992" s="30"/>
       <c r="AC992" s="30"/>
       <c r="AD992" s="30"/>
+      <c r="AE992" s="30"/>
     </row>
     <row r="993" ht="19.5" customHeight="1">
       <c r="A993" s="30"/>
@@ -33907,6 +34907,7 @@
       <c r="AB993" s="30"/>
       <c r="AC993" s="30"/>
       <c r="AD993" s="30"/>
+      <c r="AE993" s="30"/>
     </row>
     <row r="994" ht="19.5" customHeight="1">
       <c r="A994" s="30"/>
@@ -33939,6 +34940,7 @@
       <c r="AB994" s="30"/>
       <c r="AC994" s="30"/>
       <c r="AD994" s="30"/>
+      <c r="AE994" s="30"/>
     </row>
     <row r="995" ht="19.5" customHeight="1">
       <c r="A995" s="30"/>
@@ -33971,6 +34973,7 @@
       <c r="AB995" s="30"/>
       <c r="AC995" s="30"/>
       <c r="AD995" s="30"/>
+      <c r="AE995" s="30"/>
     </row>
     <row r="996" ht="19.5" customHeight="1">
       <c r="A996" s="30"/>
@@ -34003,6 +35006,7 @@
       <c r="AB996" s="30"/>
       <c r="AC996" s="30"/>
       <c r="AD996" s="30"/>
+      <c r="AE996" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34055,59 +35059,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="34">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s" s="34">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s" s="34">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="34">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s" s="34">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s" s="34">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" t="s" s="35">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s" s="13">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s" s="37">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="38">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="39">
         <v>5</v>
@@ -34116,24 +35120,24 @@
         <v>446</v>
       </c>
       <c r="E3" t="s" s="38">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s" s="38">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" s="39">
         <v>65.5</v>
       </c>
       <c r="H3" t="s" s="38">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s" s="40">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="40">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="41">
         <v>2</v>
@@ -34142,24 +35146,24 @@
         <v>558</v>
       </c>
       <c r="E4" t="s" s="40">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s" s="40">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G4" s="41">
         <v>750</v>
       </c>
       <c r="H4" t="s" s="40">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" t="s" s="40">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="40">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="41">
         <v>5</v>
@@ -34168,16 +35172,16 @@
         <v>446</v>
       </c>
       <c r="E5" t="s" s="40">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s" s="40">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G5" s="41">
         <v>65</v>
       </c>
       <c r="H5" t="s" s="40">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -44159,7 +45163,7 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" t="s" s="40">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -44168,7 +45172,7 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" t="s" s="40">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -44177,7 +45181,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" t="s" s="40">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -44186,7 +45190,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s" s="40">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -44195,7 +45199,7 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="s" s="40">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -44204,7 +45208,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" t="s" s="40">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -44213,7 +45217,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="s" s="40">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -44222,7 +45226,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s" s="40">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -44231,7 +45235,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s" s="40">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -44240,7 +45244,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s" s="40">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -44249,7 +45253,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s" s="40">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -44258,7 +45262,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s" s="40">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -44267,7 +45271,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="40">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -44276,7 +45280,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" t="s" s="40">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -44285,7 +45289,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s" s="40">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -44294,7 +45298,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s" s="40">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -44303,7 +45307,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" t="s" s="40">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -44312,7 +45316,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" t="s" s="40">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -44321,7 +45325,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" t="s" s="40">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -44330,7 +45334,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" t="s" s="40">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -44339,7 +45343,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s" s="40">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -44348,7 +45352,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" t="s" s="40">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -44357,7 +45361,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" t="s" s="40">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -44366,7 +45370,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" t="s" s="40">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -44375,7 +45379,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" t="s" s="40">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
